--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -513,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +613,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,76 +950,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1022,7 +1028,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,7 +1037,7 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,25 +1049,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,23 +1079,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,7 +1165,10 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1168,7 +1177,10 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1180,13 +1192,13 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1198,7 +1210,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1621,7 +1633,7 @@
   <dimension ref="A1:CB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="29" customHeight="1"/>
@@ -1638,99 +1650,99 @@
       <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="41" t="s">
+      <c r="AK1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AL1" s="41" t="s">
+      <c r="AL1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AM1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="41" t="s">
+      <c r="AN1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AO1" s="41" t="s">
+      <c r="AO1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="41" t="s">
+      <c r="AP1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="41" t="s">
+      <c r="AQ1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="41" t="s">
+      <c r="AU1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" s="41" t="s">
+      <c r="AV1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" s="41" t="s">
+      <c r="AW1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AX1" s="41" t="s">
+      <c r="AX1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AY1" s="41" t="s">
+      <c r="AY1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AZ1" s="41" t="s">
+      <c r="AZ1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="BA1" s="41" t="s">
+      <c r="BA1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="BB1" s="41" t="s">
+      <c r="BB1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="41" t="s">
+      <c r="BC1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="BF1" s="41"/>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="41"/>
-      <c r="BI1" s="41"/>
-      <c r="BJ1" s="41"/>
-      <c r="BK1" s="41"/>
-      <c r="BL1" s="41"/>
-      <c r="BM1" s="41"/>
-      <c r="BN1" s="41"/>
-      <c r="BP1" s="41"/>
-      <c r="BQ1" s="41"/>
-      <c r="BR1" s="41"/>
-      <c r="BS1" s="41"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="41"/>
-      <c r="BV1" s="41"/>
-      <c r="BW1" s="41"/>
-      <c r="BX1" s="41"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
     </row>
     <row r="2" customHeight="1" spans="2:75">
       <c r="B2" s="17">
@@ -1745,13 +1757,13 @@
       <c r="E2" s="21">
         <v>2</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="28">
         <v>3</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="29">
         <v>4</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="28">
         <v>5</v>
       </c>
       <c r="I2" s="21">
@@ -1763,11 +1775,11 @@
       <c r="K2" s="18">
         <v>8</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="24">
         <f t="shared" ref="M2:M11" si="0">ABS(C2-89)</f>
         <v>89</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="38">
         <f t="shared" ref="N2:N11" si="1">ABS(D2-89)</f>
         <v>88</v>
       </c>
@@ -1775,15 +1787,15 @@
         <f t="shared" ref="O2:O11" si="2">ABS(E2-89)</f>
         <v>87</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="39">
         <f t="shared" ref="P2:P11" si="3">ABS(F2-89)</f>
         <v>86</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="29">
         <f t="shared" ref="Q2:Q11" si="4">ABS(G2-89)</f>
         <v>85</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="39">
         <f t="shared" ref="R2:R11" si="5">ABS(H2-89)</f>
         <v>84</v>
       </c>
@@ -1791,19 +1803,19 @@
         <f t="shared" ref="S2:S11" si="6">ABS(I2-89)</f>
         <v>83</v>
       </c>
-      <c r="T2" s="23">
+      <c r="T2" s="24">
         <f t="shared" ref="T2:T11" si="7">ABS(J2-89)</f>
         <v>82</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="24">
         <f t="shared" ref="U2:U11" si="8">ABS(K2-89)</f>
         <v>81</v>
       </c>
-      <c r="W2" s="23">
+      <c r="W2" s="24">
         <f t="shared" ref="W2:W11" si="9">(QUOTIENT(C2,9)+1)*9-MOD(C2,9)-1</f>
         <v>8</v>
       </c>
-      <c r="X2" s="36">
+      <c r="X2" s="38">
         <f t="shared" ref="X2:X11" si="10">(QUOTIENT(D2,9)+1)*9-MOD(D2,9)-1</f>
         <v>7</v>
       </c>
@@ -1811,15 +1823,15 @@
         <f t="shared" ref="Y2:Y11" si="11">(QUOTIENT(E2,9)+1)*9-MOD(E2,9)-1</f>
         <v>6</v>
       </c>
-      <c r="Z2" s="37">
+      <c r="Z2" s="39">
         <f t="shared" ref="Z2:Z11" si="12">(QUOTIENT(F2,9)+1)*9-MOD(F2,9)-1</f>
         <v>5</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AA2" s="29">
         <f t="shared" ref="AA2:AA11" si="13">(QUOTIENT(G2,9)+1)*9-MOD(G2,9)-1</f>
         <v>4</v>
       </c>
-      <c r="AB2" s="37">
+      <c r="AB2" s="39">
         <f t="shared" ref="AB2:AB11" si="14">(QUOTIENT(H2,9)+1)*9-MOD(H2,9)-1</f>
         <v>3</v>
       </c>
@@ -1827,23 +1839,23 @@
         <f t="shared" ref="AC2:AC11" si="15">(QUOTIENT(I2,9)+1)*9-MOD(I2,9)-1</f>
         <v>2</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="24">
         <f t="shared" ref="AD2:AD11" si="16">(QUOTIENT(J2,9)+1)*9-MOD(J2,9)-1</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="24">
         <f t="shared" ref="AE2:AE11" si="17">(QUOTIENT(K2,9)+1)*9-MOD(K2,9)-1</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="39"/>
-      <c r="AH2" s="41">
+      <c r="AF2" s="41"/>
+      <c r="AH2" s="43">
         <v>9</v>
       </c>
-      <c r="AI2" s="23" t="str">
+      <c r="AI2" s="24" t="str">
         <f>AI$12&amp;$AH2</f>
         <v>a9</v>
       </c>
-      <c r="AJ2" s="36" t="str">
+      <c r="AJ2" s="38" t="str">
         <f t="shared" ref="AJ2:AQ11" si="18">AJ$12&amp;$AH2</f>
         <v>b9</v>
       </c>
@@ -1851,15 +1863,15 @@
         <f t="shared" si="18"/>
         <v>c9</v>
       </c>
-      <c r="AL2" s="37" t="str">
+      <c r="AL2" s="39" t="str">
         <f t="shared" si="18"/>
         <v>d9</v>
       </c>
-      <c r="AM2" s="27" t="str">
+      <c r="AM2" s="29" t="str">
         <f t="shared" si="18"/>
         <v>e9</v>
       </c>
-      <c r="AN2" s="37" t="str">
+      <c r="AN2" s="39" t="str">
         <f t="shared" si="18"/>
         <v>f9</v>
       </c>
@@ -1867,25 +1879,25 @@
         <f t="shared" si="18"/>
         <v>g9</v>
       </c>
-      <c r="AP2" s="23" t="str">
+      <c r="AP2" s="24" t="str">
         <f t="shared" si="18"/>
         <v>h9</v>
       </c>
-      <c r="AQ2" s="23" t="str">
+      <c r="AQ2" s="24" t="str">
         <f t="shared" si="18"/>
         <v>i9</v>
       </c>
-      <c r="AR2" s="41">
+      <c r="AR2" s="43">
         <v>9</v>
       </c>
-      <c r="AT2" s="43">
+      <c r="AT2" s="45">
         <v>9</v>
       </c>
-      <c r="AU2" s="23">
+      <c r="AU2" s="24">
         <f t="shared" ref="AU2:AU10" si="19">AU3+9</f>
         <v>81</v>
       </c>
-      <c r="AV2" s="36">
+      <c r="AV2" s="38">
         <f t="shared" ref="AV2:AV10" si="20">AV3+9</f>
         <v>82</v>
       </c>
@@ -1893,15 +1905,15 @@
         <f t="shared" ref="AW2:AW10" si="21">AW3+9</f>
         <v>83</v>
       </c>
-      <c r="AX2" s="37">
+      <c r="AX2" s="39">
         <f t="shared" ref="AX2:AX10" si="22">AX3+9</f>
         <v>84</v>
       </c>
-      <c r="AY2" s="27">
+      <c r="AY2" s="29">
         <f t="shared" ref="AY2:AY10" si="23">AY3+9</f>
         <v>85</v>
       </c>
-      <c r="AZ2" s="37">
+      <c r="AZ2" s="39">
         <f t="shared" ref="AZ2:AZ10" si="24">AZ3+9</f>
         <v>86</v>
       </c>
@@ -1909,20 +1921,20 @@
         <f t="shared" ref="BA2:BA10" si="25">BA3+9</f>
         <v>87</v>
       </c>
-      <c r="BB2" s="23">
+      <c r="BB2" s="24">
         <f t="shared" ref="BB2:BB10" si="26">BB3+9</f>
         <v>88</v>
       </c>
-      <c r="BC2" s="23">
+      <c r="BC2" s="24">
         <f t="shared" ref="BC2:BC10" si="27">BC3+9</f>
         <v>89</v>
       </c>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="23">
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="24">
         <f t="shared" ref="BE2:BE11" si="28">ABS(AU2-89)</f>
         <v>8</v>
       </c>
-      <c r="BF2" s="36">
+      <c r="BF2" s="38">
         <f t="shared" ref="BF2:BF11" si="29">ABS(AV2-89)</f>
         <v>7</v>
       </c>
@@ -1930,15 +1942,15 @@
         <f t="shared" ref="BG2:BG11" si="30">ABS(AW2-89)</f>
         <v>6</v>
       </c>
-      <c r="BH2" s="37">
+      <c r="BH2" s="39">
         <f t="shared" ref="BH2:BH11" si="31">ABS(AX2-89)</f>
         <v>5</v>
       </c>
-      <c r="BI2" s="27">
+      <c r="BI2" s="29">
         <f t="shared" ref="BI2:BI11" si="32">ABS(AY2-89)</f>
         <v>4</v>
       </c>
-      <c r="BJ2" s="37">
+      <c r="BJ2" s="39">
         <f t="shared" ref="BJ2:BJ11" si="33">ABS(AZ2-89)</f>
         <v>3</v>
       </c>
@@ -1946,19 +1958,19 @@
         <f t="shared" ref="BK2:BK11" si="34">ABS(BA2-89)</f>
         <v>2</v>
       </c>
-      <c r="BL2" s="23">
+      <c r="BL2" s="24">
         <f t="shared" ref="BL2:BL11" si="35">ABS(BB2-89)</f>
         <v>1</v>
       </c>
-      <c r="BM2" s="23">
+      <c r="BM2" s="24">
         <f t="shared" ref="BM2:BM11" si="36">ABS(BC2-89)</f>
         <v>0</v>
       </c>
-      <c r="BO2" s="23">
+      <c r="BO2" s="24">
         <f t="shared" ref="BO2:BO11" si="37">(QUOTIENT(AU2,9)+1)*9-MOD(AU2,9)-1</f>
         <v>89</v>
       </c>
-      <c r="BP2" s="36">
+      <c r="BP2" s="38">
         <f t="shared" ref="BP2:BP11" si="38">(QUOTIENT(AV2,9)+1)*9-MOD(AV2,9)-1</f>
         <v>88</v>
       </c>
@@ -1966,15 +1978,15 @@
         <f t="shared" ref="BQ2:BQ11" si="39">(QUOTIENT(AW2,9)+1)*9-MOD(AW2,9)-1</f>
         <v>87</v>
       </c>
-      <c r="BR2" s="37">
+      <c r="BR2" s="39">
         <f t="shared" ref="BR2:BR11" si="40">(QUOTIENT(AX2,9)+1)*9-MOD(AX2,9)-1</f>
         <v>86</v>
       </c>
-      <c r="BS2" s="27">
+      <c r="BS2" s="29">
         <f t="shared" ref="BS2:BS11" si="41">(QUOTIENT(AY2,9)+1)*9-MOD(AY2,9)-1</f>
         <v>85</v>
       </c>
-      <c r="BT2" s="37">
+      <c r="BT2" s="39">
         <f t="shared" ref="BT2:BT11" si="42">(QUOTIENT(AZ2,9)+1)*9-MOD(AZ2,9)-1</f>
         <v>84</v>
       </c>
@@ -1982,11 +1994,11 @@
         <f t="shared" ref="BU2:BU11" si="43">(QUOTIENT(BA2,9)+1)*9-MOD(BA2,9)-1</f>
         <v>83</v>
       </c>
-      <c r="BV2" s="23">
+      <c r="BV2" s="24">
         <f t="shared" ref="BV2:BV11" si="44">(QUOTIENT(BB2,9)+1)*9-MOD(BB2,9)-1</f>
         <v>82</v>
       </c>
-      <c r="BW2" s="23">
+      <c r="BW2" s="24">
         <f t="shared" ref="BW2:BW11" si="45">(QUOTIENT(BC2,9)+1)*9-MOD(BC2,9)-1</f>
         <v>81</v>
       </c>
@@ -2007,15 +2019,15 @@
         <f t="shared" ref="E3:E11" si="48">E2+9</f>
         <v>11</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="29">
         <f t="shared" ref="F3:F11" si="49">F2+9</f>
         <v>12</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="28">
         <f t="shared" ref="G3:G11" si="50">G2+9</f>
         <v>13</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="29">
         <f t="shared" ref="H3:H11" si="51">H2+9</f>
         <v>14</v>
       </c>
@@ -2043,15 +2055,15 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="29">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="39">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="29">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
@@ -2079,15 +2091,15 @@
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="29">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="AA3" s="37">
+      <c r="AA3" s="39">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="29">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
@@ -2103,8 +2115,8 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AH3" s="41">
+      <c r="AF3" s="41"/>
+      <c r="AH3" s="43">
         <v>8</v>
       </c>
       <c r="AI3" s="20" t="str">
@@ -2119,15 +2131,15 @@
         <f t="shared" si="18"/>
         <v>c8</v>
       </c>
-      <c r="AL3" s="27" t="str">
+      <c r="AL3" s="29" t="str">
         <f t="shared" si="18"/>
         <v>d8</v>
       </c>
-      <c r="AM3" s="37" t="str">
+      <c r="AM3" s="39" t="str">
         <f t="shared" si="18"/>
         <v>e8</v>
       </c>
-      <c r="AN3" s="27" t="str">
+      <c r="AN3" s="29" t="str">
         <f t="shared" si="18"/>
         <v>f8</v>
       </c>
@@ -2143,10 +2155,10 @@
         <f t="shared" si="18"/>
         <v>i8</v>
       </c>
-      <c r="AR3" s="41">
+      <c r="AR3" s="43">
         <v>8</v>
       </c>
-      <c r="AT3" s="43">
+      <c r="AT3" s="45">
         <v>8</v>
       </c>
       <c r="AU3" s="20">
@@ -2161,15 +2173,15 @@
         <f t="shared" si="21"/>
         <v>74</v>
       </c>
-      <c r="AX3" s="27">
+      <c r="AX3" s="29">
         <f t="shared" si="22"/>
         <v>75</v>
       </c>
-      <c r="AY3" s="37">
+      <c r="AY3" s="39">
         <f t="shared" si="23"/>
         <v>76</v>
       </c>
-      <c r="AZ3" s="27">
+      <c r="AZ3" s="29">
         <f t="shared" si="24"/>
         <v>77</v>
       </c>
@@ -2185,7 +2197,7 @@
         <f t="shared" si="27"/>
         <v>80</v>
       </c>
-      <c r="BD3" s="41"/>
+      <c r="BD3" s="43"/>
       <c r="BE3" s="20">
         <f t="shared" si="28"/>
         <v>17</v>
@@ -2198,15 +2210,15 @@
         <f t="shared" si="30"/>
         <v>15</v>
       </c>
-      <c r="BH3" s="27">
+      <c r="BH3" s="29">
         <f t="shared" si="31"/>
         <v>14</v>
       </c>
-      <c r="BI3" s="37">
+      <c r="BI3" s="39">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="BJ3" s="27">
+      <c r="BJ3" s="29">
         <f t="shared" si="33"/>
         <v>12</v>
       </c>
@@ -2234,15 +2246,15 @@
         <f t="shared" si="39"/>
         <v>78</v>
       </c>
-      <c r="BR3" s="27">
+      <c r="BR3" s="29">
         <f t="shared" si="40"/>
         <v>77</v>
       </c>
-      <c r="BS3" s="37">
+      <c r="BS3" s="39">
         <f t="shared" si="41"/>
         <v>76</v>
       </c>
-      <c r="BT3" s="27">
+      <c r="BT3" s="29">
         <f t="shared" si="42"/>
         <v>75</v>
       </c>
@@ -2275,7 +2287,7 @@
         <f t="shared" si="48"/>
         <v>20</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="28">
         <f t="shared" si="49"/>
         <v>21</v>
       </c>
@@ -2283,7 +2295,7 @@
         <f t="shared" si="50"/>
         <v>22</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="28">
         <f t="shared" si="51"/>
         <v>23</v>
       </c>
@@ -2311,15 +2323,15 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="39">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="40">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="39">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
@@ -2347,15 +2359,15 @@
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="39">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="AA4" s="38">
+      <c r="AA4" s="40">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="39">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
@@ -2371,8 +2383,8 @@
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="AF4" s="40"/>
-      <c r="AH4" s="41">
+      <c r="AF4" s="42"/>
+      <c r="AH4" s="43">
         <v>7</v>
       </c>
       <c r="AI4" s="21" t="str">
@@ -2387,15 +2399,15 @@
         <f t="shared" si="18"/>
         <v>c7</v>
       </c>
-      <c r="AL4" s="37" t="str">
+      <c r="AL4" s="39" t="str">
         <f t="shared" si="18"/>
         <v>d7</v>
       </c>
-      <c r="AM4" s="38" t="str">
+      <c r="AM4" s="40" t="str">
         <f t="shared" si="18"/>
         <v>e7</v>
       </c>
-      <c r="AN4" s="37" t="str">
+      <c r="AN4" s="39" t="str">
         <f t="shared" si="18"/>
         <v>f7</v>
       </c>
@@ -2411,10 +2423,10 @@
         <f t="shared" si="18"/>
         <v>i7</v>
       </c>
-      <c r="AR4" s="41">
+      <c r="AR4" s="43">
         <v>7</v>
       </c>
-      <c r="AT4" s="43">
+      <c r="AT4" s="45">
         <v>7</v>
       </c>
       <c r="AU4" s="21">
@@ -2429,15 +2441,15 @@
         <f t="shared" si="21"/>
         <v>65</v>
       </c>
-      <c r="AX4" s="37">
+      <c r="AX4" s="39">
         <f t="shared" si="22"/>
         <v>66</v>
       </c>
-      <c r="AY4" s="38">
+      <c r="AY4" s="40">
         <f t="shared" si="23"/>
         <v>67</v>
       </c>
-      <c r="AZ4" s="37">
+      <c r="AZ4" s="39">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
@@ -2453,7 +2465,7 @@
         <f t="shared" si="27"/>
         <v>71</v>
       </c>
-      <c r="BD4" s="41"/>
+      <c r="BD4" s="43"/>
       <c r="BE4" s="21">
         <f t="shared" si="28"/>
         <v>26</v>
@@ -2466,15 +2478,15 @@
         <f t="shared" si="30"/>
         <v>24</v>
       </c>
-      <c r="BH4" s="37">
+      <c r="BH4" s="39">
         <f t="shared" si="31"/>
         <v>23</v>
       </c>
-      <c r="BI4" s="38">
+      <c r="BI4" s="40">
         <f t="shared" si="32"/>
         <v>22</v>
       </c>
-      <c r="BJ4" s="37">
+      <c r="BJ4" s="39">
         <f t="shared" si="33"/>
         <v>21</v>
       </c>
@@ -2502,15 +2514,15 @@
         <f t="shared" si="39"/>
         <v>69</v>
       </c>
-      <c r="BR4" s="37">
+      <c r="BR4" s="39">
         <f t="shared" si="40"/>
         <v>68</v>
       </c>
-      <c r="BS4" s="38">
+      <c r="BS4" s="40">
         <f t="shared" si="41"/>
         <v>67</v>
       </c>
-      <c r="BT4" s="37">
+      <c r="BT4" s="39">
         <f t="shared" si="42"/>
         <v>66</v>
       </c>
@@ -2639,8 +2651,8 @@
         <f t="shared" si="17"/>
         <v>27</v>
       </c>
-      <c r="AF5" s="39"/>
-      <c r="AH5" s="41">
+      <c r="AF5" s="41"/>
+      <c r="AH5" s="43">
         <v>6</v>
       </c>
       <c r="AI5" s="20" t="str">
@@ -2679,10 +2691,10 @@
         <f t="shared" si="18"/>
         <v>i6</v>
       </c>
-      <c r="AR5" s="41">
+      <c r="AR5" s="43">
         <v>6</v>
       </c>
-      <c r="AT5" s="43">
+      <c r="AT5" s="45">
         <v>6</v>
       </c>
       <c r="AU5" s="20">
@@ -2721,7 +2733,7 @@
         <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="BD5" s="41"/>
+      <c r="BD5" s="43"/>
       <c r="BE5" s="20">
         <f t="shared" si="28"/>
         <v>35</v>
@@ -2907,8 +2919,8 @@
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="AF6" s="39"/>
-      <c r="AH6" s="41">
+      <c r="AF6" s="41"/>
+      <c r="AH6" s="43">
         <v>5</v>
       </c>
       <c r="AI6" s="20" t="str">
@@ -2947,10 +2959,10 @@
         <f t="shared" si="18"/>
         <v>i5</v>
       </c>
-      <c r="AR6" s="41">
+      <c r="AR6" s="43">
         <v>5</v>
       </c>
-      <c r="AT6" s="43">
+      <c r="AT6" s="45">
         <v>5</v>
       </c>
       <c r="AU6" s="20">
@@ -2989,7 +3001,7 @@
         <f t="shared" si="27"/>
         <v>53</v>
       </c>
-      <c r="BD6" s="41"/>
+      <c r="BD6" s="43"/>
       <c r="BE6" s="20">
         <f t="shared" si="28"/>
         <v>44</v>
@@ -3064,14 +3076,14 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:75">
-      <c r="B7" s="17">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="24">
         <f t="shared" si="46"/>
         <v>45</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <f t="shared" si="47"/>
         <v>46</v>
       </c>
@@ -3079,15 +3091,15 @@
         <f t="shared" si="48"/>
         <v>47</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="24">
         <f t="shared" si="49"/>
         <v>48</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <f t="shared" si="50"/>
         <v>49</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="24">
         <f t="shared" si="51"/>
         <v>50</v>
       </c>
@@ -3095,19 +3107,19 @@
         <f t="shared" si="52"/>
         <v>51</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="24">
         <f t="shared" si="53"/>
         <v>52</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="24">
         <f t="shared" si="54"/>
         <v>53</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="24">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="24">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -3115,15 +3127,15 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="24">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="24">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="24">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
@@ -3131,19 +3143,19 @@
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="24">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="24">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="24">
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
-      <c r="X7" s="23">
+      <c r="X7" s="24">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
@@ -3151,15 +3163,15 @@
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="24">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="24">
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="AB7" s="23">
+      <c r="AB7" s="24">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -3167,23 +3179,23 @@
         <f t="shared" si="15"/>
         <v>47</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD7" s="24">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AE7" s="24">
         <f t="shared" si="17"/>
         <v>45</v>
       </c>
-      <c r="AF7" s="39"/>
-      <c r="AH7" s="41">
+      <c r="AF7" s="41"/>
+      <c r="AH7" s="43">
         <v>4</v>
       </c>
-      <c r="AI7" s="23" t="str">
+      <c r="AI7" s="24" t="str">
         <f t="shared" si="55"/>
         <v>a4</v>
       </c>
-      <c r="AJ7" s="23" t="str">
+      <c r="AJ7" s="24" t="str">
         <f t="shared" si="18"/>
         <v>b4</v>
       </c>
@@ -3191,15 +3203,15 @@
         <f t="shared" si="18"/>
         <v>c4</v>
       </c>
-      <c r="AL7" s="23" t="str">
+      <c r="AL7" s="24" t="str">
         <f t="shared" si="18"/>
         <v>d4</v>
       </c>
-      <c r="AM7" s="23" t="str">
+      <c r="AM7" s="24" t="str">
         <f t="shared" si="18"/>
         <v>e4</v>
       </c>
-      <c r="AN7" s="23" t="str">
+      <c r="AN7" s="24" t="str">
         <f t="shared" si="18"/>
         <v>f4</v>
       </c>
@@ -3207,25 +3219,25 @@
         <f t="shared" si="18"/>
         <v>g4</v>
       </c>
-      <c r="AP7" s="23" t="str">
+      <c r="AP7" s="24" t="str">
         <f t="shared" si="18"/>
         <v>h4</v>
       </c>
-      <c r="AQ7" s="23" t="str">
+      <c r="AQ7" s="24" t="str">
         <f t="shared" si="18"/>
         <v>i4</v>
       </c>
-      <c r="AR7" s="41">
+      <c r="AR7" s="43">
         <v>4</v>
       </c>
-      <c r="AT7" s="43">
+      <c r="AT7" s="45">
         <v>4</v>
       </c>
-      <c r="AU7" s="23">
+      <c r="AU7" s="24">
         <f t="shared" si="19"/>
         <v>36</v>
       </c>
-      <c r="AV7" s="23">
+      <c r="AV7" s="24">
         <f t="shared" si="20"/>
         <v>37</v>
       </c>
@@ -3233,15 +3245,15 @@
         <f t="shared" si="21"/>
         <v>38</v>
       </c>
-      <c r="AX7" s="23">
+      <c r="AX7" s="24">
         <f t="shared" si="22"/>
         <v>39</v>
       </c>
-      <c r="AY7" s="23">
+      <c r="AY7" s="24">
         <f t="shared" si="23"/>
         <v>40</v>
       </c>
-      <c r="AZ7" s="23">
+      <c r="AZ7" s="24">
         <f t="shared" si="24"/>
         <v>41</v>
       </c>
@@ -3249,20 +3261,20 @@
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="BB7" s="23">
+      <c r="BB7" s="24">
         <f t="shared" si="26"/>
         <v>43</v>
       </c>
-      <c r="BC7" s="23">
+      <c r="BC7" s="24">
         <f t="shared" si="27"/>
         <v>44</v>
       </c>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="23">
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="24">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
-      <c r="BF7" s="23">
+      <c r="BF7" s="24">
         <f t="shared" si="29"/>
         <v>52</v>
       </c>
@@ -3270,15 +3282,15 @@
         <f t="shared" si="30"/>
         <v>51</v>
       </c>
-      <c r="BH7" s="23">
+      <c r="BH7" s="24">
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="BI7" s="23">
+      <c r="BI7" s="24">
         <f t="shared" si="32"/>
         <v>49</v>
       </c>
-      <c r="BJ7" s="23">
+      <c r="BJ7" s="24">
         <f t="shared" si="33"/>
         <v>48</v>
       </c>
@@ -3286,19 +3298,19 @@
         <f t="shared" si="34"/>
         <v>47</v>
       </c>
-      <c r="BL7" s="23">
+      <c r="BL7" s="24">
         <f t="shared" si="35"/>
         <v>46</v>
       </c>
-      <c r="BM7" s="23">
+      <c r="BM7" s="24">
         <f t="shared" si="36"/>
         <v>45</v>
       </c>
-      <c r="BO7" s="23">
+      <c r="BO7" s="24">
         <f t="shared" si="37"/>
         <v>44</v>
       </c>
-      <c r="BP7" s="23">
+      <c r="BP7" s="24">
         <f t="shared" si="38"/>
         <v>43</v>
       </c>
@@ -3306,15 +3318,15 @@
         <f t="shared" si="39"/>
         <v>42</v>
       </c>
-      <c r="BR7" s="23">
+      <c r="BR7" s="24">
         <f t="shared" si="40"/>
         <v>41</v>
       </c>
-      <c r="BS7" s="23">
+      <c r="BS7" s="24">
         <f t="shared" si="41"/>
         <v>40</v>
       </c>
-      <c r="BT7" s="23">
+      <c r="BT7" s="24">
         <f t="shared" si="42"/>
         <v>39</v>
       </c>
@@ -3322,24 +3334,24 @@
         <f t="shared" si="43"/>
         <v>38</v>
       </c>
-      <c r="BV7" s="23">
+      <c r="BV7" s="24">
         <f t="shared" si="44"/>
         <v>37</v>
       </c>
-      <c r="BW7" s="23">
+      <c r="BW7" s="24">
         <f t="shared" si="45"/>
         <v>36</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:75">
-      <c r="B8" s="17">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
       <c r="C8" s="22">
         <f t="shared" si="46"/>
         <v>54</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="24">
         <f t="shared" si="47"/>
         <v>55</v>
       </c>
@@ -3347,7 +3359,7 @@
         <f t="shared" si="48"/>
         <v>56</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="24">
         <f t="shared" si="49"/>
         <v>57</v>
       </c>
@@ -3355,7 +3367,7 @@
         <f t="shared" si="50"/>
         <v>58</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <f t="shared" si="51"/>
         <v>59</v>
       </c>
@@ -3363,7 +3375,7 @@
         <f t="shared" si="52"/>
         <v>60</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="24">
         <f t="shared" si="53"/>
         <v>61</v>
       </c>
@@ -3371,251 +3383,251 @@
         <f t="shared" si="54"/>
         <v>62</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="24">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="24">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="24">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="24">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="24">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="24">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="24">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="24">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="24">
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="X8" s="23">
+      <c r="X8" s="24">
         <f t="shared" si="10"/>
         <v>61</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="24">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="Z8" s="23">
+      <c r="Z8" s="24">
         <f t="shared" si="12"/>
         <v>59</v>
       </c>
-      <c r="AA8" s="23">
+      <c r="AA8" s="24">
         <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="24">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="24">
         <f t="shared" si="15"/>
         <v>56</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="24">
         <f t="shared" si="16"/>
         <v>55</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AE8" s="24">
         <f t="shared" si="17"/>
         <v>54</v>
       </c>
-      <c r="AF8" s="39"/>
-      <c r="AH8" s="41">
+      <c r="AF8" s="41"/>
+      <c r="AH8" s="43">
         <v>3</v>
       </c>
-      <c r="AI8" s="23" t="str">
+      <c r="AI8" s="24" t="str">
         <f t="shared" si="55"/>
         <v>a3</v>
       </c>
-      <c r="AJ8" s="23" t="str">
+      <c r="AJ8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>b3</v>
       </c>
-      <c r="AK8" s="23" t="str">
+      <c r="AK8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>c3</v>
       </c>
-      <c r="AL8" s="23" t="str">
+      <c r="AL8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>d3</v>
       </c>
-      <c r="AM8" s="23" t="str">
+      <c r="AM8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>e3</v>
       </c>
-      <c r="AN8" s="23" t="str">
+      <c r="AN8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>f3</v>
       </c>
-      <c r="AO8" s="23" t="str">
+      <c r="AO8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>g3</v>
       </c>
-      <c r="AP8" s="23" t="str">
+      <c r="AP8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>h3</v>
       </c>
-      <c r="AQ8" s="23" t="str">
+      <c r="AQ8" s="24" t="str">
         <f t="shared" si="18"/>
         <v>i3</v>
       </c>
-      <c r="AR8" s="41">
+      <c r="AR8" s="43">
         <v>3</v>
       </c>
-      <c r="AT8" s="43">
+      <c r="AT8" s="45">
         <v>3</v>
       </c>
-      <c r="AU8" s="23">
+      <c r="AU8" s="24">
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-      <c r="AV8" s="23">
+      <c r="AV8" s="24">
         <f t="shared" si="20"/>
         <v>28</v>
       </c>
-      <c r="AW8" s="23">
+      <c r="AW8" s="24">
         <f t="shared" si="21"/>
         <v>29</v>
       </c>
-      <c r="AX8" s="23">
+      <c r="AX8" s="24">
         <f t="shared" si="22"/>
         <v>30</v>
       </c>
-      <c r="AY8" s="23">
+      <c r="AY8" s="24">
         <f t="shared" si="23"/>
         <v>31</v>
       </c>
-      <c r="AZ8" s="23">
+      <c r="AZ8" s="24">
         <f t="shared" si="24"/>
         <v>32</v>
       </c>
-      <c r="BA8" s="23">
+      <c r="BA8" s="24">
         <f t="shared" si="25"/>
         <v>33</v>
       </c>
-      <c r="BB8" s="23">
+      <c r="BB8" s="24">
         <f t="shared" si="26"/>
         <v>34</v>
       </c>
-      <c r="BC8" s="23">
+      <c r="BC8" s="24">
         <f t="shared" si="27"/>
         <v>35</v>
       </c>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="23">
+      <c r="BD8" s="43"/>
+      <c r="BE8" s="24">
         <f t="shared" si="28"/>
         <v>62</v>
       </c>
-      <c r="BF8" s="23">
+      <c r="BF8" s="24">
         <f t="shared" si="29"/>
         <v>61</v>
       </c>
-      <c r="BG8" s="23">
+      <c r="BG8" s="24">
         <f t="shared" si="30"/>
         <v>60</v>
       </c>
-      <c r="BH8" s="23">
+      <c r="BH8" s="24">
         <f t="shared" si="31"/>
         <v>59</v>
       </c>
-      <c r="BI8" s="23">
+      <c r="BI8" s="24">
         <f t="shared" si="32"/>
         <v>58</v>
       </c>
-      <c r="BJ8" s="23">
+      <c r="BJ8" s="24">
         <f t="shared" si="33"/>
         <v>57</v>
       </c>
-      <c r="BK8" s="23">
+      <c r="BK8" s="24">
         <f t="shared" si="34"/>
         <v>56</v>
       </c>
-      <c r="BL8" s="23">
+      <c r="BL8" s="24">
         <f t="shared" si="35"/>
         <v>55</v>
       </c>
-      <c r="BM8" s="23">
+      <c r="BM8" s="24">
         <f t="shared" si="36"/>
         <v>54</v>
       </c>
-      <c r="BO8" s="23">
+      <c r="BO8" s="24">
         <f t="shared" si="37"/>
         <v>35</v>
       </c>
-      <c r="BP8" s="23">
+      <c r="BP8" s="24">
         <f t="shared" si="38"/>
         <v>34</v>
       </c>
-      <c r="BQ8" s="23">
+      <c r="BQ8" s="24">
         <f t="shared" si="39"/>
         <v>33</v>
       </c>
-      <c r="BR8" s="23">
+      <c r="BR8" s="24">
         <f t="shared" si="40"/>
         <v>32</v>
       </c>
-      <c r="BS8" s="23">
+      <c r="BS8" s="24">
         <f t="shared" si="41"/>
         <v>31</v>
       </c>
-      <c r="BT8" s="23">
+      <c r="BT8" s="24">
         <f t="shared" si="42"/>
         <v>30</v>
       </c>
-      <c r="BU8" s="23">
+      <c r="BU8" s="24">
         <f t="shared" si="43"/>
         <v>29</v>
       </c>
-      <c r="BV8" s="23">
+      <c r="BV8" s="24">
         <f t="shared" si="44"/>
         <v>28</v>
       </c>
-      <c r="BW8" s="23">
+      <c r="BW8" s="24">
         <f t="shared" si="45"/>
         <v>27</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:75">
-      <c r="B9" s="17">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
       <c r="C9" s="21">
         <f t="shared" si="46"/>
         <v>63</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="24">
         <f t="shared" si="47"/>
         <v>64</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="24">
         <f t="shared" si="48"/>
         <v>65</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="28">
         <f t="shared" si="49"/>
         <v>66</v>
       </c>
@@ -3623,15 +3635,15 @@
         <f t="shared" si="50"/>
         <v>67</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="28">
         <f t="shared" si="51"/>
         <v>68</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="24">
         <f t="shared" si="52"/>
         <v>69</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="24">
         <f t="shared" si="53"/>
         <v>70</v>
       </c>
@@ -3643,31 +3655,31 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="24">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="24">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="39">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="40">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="39">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="24">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="24">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
@@ -3679,31 +3691,31 @@
         <f t="shared" si="9"/>
         <v>71</v>
       </c>
-      <c r="X9" s="23">
+      <c r="X9" s="24">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9" s="24">
         <f t="shared" si="11"/>
         <v>69</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="39">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="AA9" s="38">
+      <c r="AA9" s="40">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="39">
         <f t="shared" si="14"/>
         <v>66</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="24">
         <f t="shared" si="15"/>
         <v>65</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD9" s="24">
         <f t="shared" si="16"/>
         <v>64</v>
       </c>
@@ -3711,39 +3723,39 @@
         <f t="shared" si="17"/>
         <v>63</v>
       </c>
-      <c r="AF9" s="40"/>
-      <c r="AH9" s="41">
+      <c r="AF9" s="42"/>
+      <c r="AH9" s="43">
         <v>2</v>
       </c>
       <c r="AI9" s="21" t="str">
         <f t="shared" si="55"/>
         <v>a2</v>
       </c>
-      <c r="AJ9" s="23" t="str">
+      <c r="AJ9" s="24" t="str">
         <f t="shared" si="18"/>
         <v>b2</v>
       </c>
-      <c r="AK9" s="23" t="str">
+      <c r="AK9" s="24" t="str">
         <f t="shared" si="18"/>
         <v>c2</v>
       </c>
-      <c r="AL9" s="37" t="str">
+      <c r="AL9" s="39" t="str">
         <f t="shared" si="18"/>
         <v>d2</v>
       </c>
-      <c r="AM9" s="38" t="str">
+      <c r="AM9" s="40" t="str">
         <f t="shared" si="18"/>
         <v>e2</v>
       </c>
-      <c r="AN9" s="37" t="str">
+      <c r="AN9" s="39" t="str">
         <f t="shared" si="18"/>
         <v>f2</v>
       </c>
-      <c r="AO9" s="23" t="str">
+      <c r="AO9" s="24" t="str">
         <f t="shared" si="18"/>
         <v>g2</v>
       </c>
-      <c r="AP9" s="23" t="str">
+      <c r="AP9" s="24" t="str">
         <f t="shared" si="18"/>
         <v>h2</v>
       </c>
@@ -3751,41 +3763,41 @@
         <f t="shared" si="18"/>
         <v>i2</v>
       </c>
-      <c r="AR9" s="41">
+      <c r="AR9" s="43">
         <v>2</v>
       </c>
-      <c r="AT9" s="43">
+      <c r="AT9" s="45">
         <v>2</v>
       </c>
       <c r="AU9" s="21">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="AV9" s="23">
+      <c r="AV9" s="24">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="AW9" s="23">
+      <c r="AW9" s="24">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="AX9" s="37">
+      <c r="AX9" s="39">
         <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="AY9" s="38">
+      <c r="AY9" s="40">
         <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="AZ9" s="37">
+      <c r="AZ9" s="39">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="BA9" s="23">
+      <c r="BA9" s="24">
         <f t="shared" si="25"/>
         <v>24</v>
       </c>
-      <c r="BB9" s="23">
+      <c r="BB9" s="24">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
@@ -3793,36 +3805,36 @@
         <f t="shared" si="27"/>
         <v>26</v>
       </c>
-      <c r="BD9" s="41"/>
+      <c r="BD9" s="43"/>
       <c r="BE9" s="21">
         <f t="shared" si="28"/>
         <v>71</v>
       </c>
-      <c r="BF9" s="23">
+      <c r="BF9" s="24">
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BG9" s="23">
+      <c r="BG9" s="24">
         <f t="shared" si="30"/>
         <v>69</v>
       </c>
-      <c r="BH9" s="37">
+      <c r="BH9" s="39">
         <f t="shared" si="31"/>
         <v>68</v>
       </c>
-      <c r="BI9" s="38">
+      <c r="BI9" s="40">
         <f t="shared" si="32"/>
         <v>67</v>
       </c>
-      <c r="BJ9" s="37">
+      <c r="BJ9" s="39">
         <f t="shared" si="33"/>
         <v>66</v>
       </c>
-      <c r="BK9" s="23">
+      <c r="BK9" s="24">
         <f t="shared" si="34"/>
         <v>65</v>
       </c>
-      <c r="BL9" s="23">
+      <c r="BL9" s="24">
         <f t="shared" si="35"/>
         <v>64</v>
       </c>
@@ -3834,31 +3846,31 @@
         <f t="shared" si="37"/>
         <v>26</v>
       </c>
-      <c r="BP9" s="23">
+      <c r="BP9" s="24">
         <f t="shared" si="38"/>
         <v>25</v>
       </c>
-      <c r="BQ9" s="23">
+      <c r="BQ9" s="24">
         <f t="shared" si="39"/>
         <v>24</v>
       </c>
-      <c r="BR9" s="37">
+      <c r="BR9" s="39">
         <f t="shared" si="40"/>
         <v>23</v>
       </c>
-      <c r="BS9" s="38">
+      <c r="BS9" s="40">
         <f t="shared" si="41"/>
         <v>22</v>
       </c>
-      <c r="BT9" s="37">
+      <c r="BT9" s="39">
         <f t="shared" si="42"/>
         <v>21</v>
       </c>
-      <c r="BU9" s="23">
+      <c r="BU9" s="24">
         <f t="shared" si="43"/>
         <v>20</v>
       </c>
-      <c r="BV9" s="23">
+      <c r="BV9" s="24">
         <f t="shared" si="44"/>
         <v>19</v>
       </c>
@@ -3868,275 +3880,275 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:75">
-      <c r="B10" s="17">
+      <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <f t="shared" si="46"/>
         <v>72</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="24">
         <f t="shared" si="47"/>
         <v>73</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="24">
         <f t="shared" si="48"/>
         <v>74</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="29">
         <f t="shared" si="49"/>
         <v>75</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <f t="shared" si="50"/>
         <v>76</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="29">
         <f t="shared" si="51"/>
         <v>77</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="24">
         <f t="shared" si="52"/>
         <v>78</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="24">
         <f t="shared" si="53"/>
         <v>79</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="24">
         <f t="shared" si="54"/>
         <v>80</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="24">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="24">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="P10" s="27">
+      <c r="P10" s="29">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="39">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="29">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="24">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="24">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="24">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="24">
         <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="X10" s="23">
+      <c r="X10" s="24">
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10" s="24">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="29">
         <f t="shared" si="12"/>
         <v>77</v>
       </c>
-      <c r="AA10" s="37">
+      <c r="AA10" s="39">
         <f t="shared" si="13"/>
         <v>76</v>
       </c>
-      <c r="AB10" s="27">
+      <c r="AB10" s="29">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="24">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD10" s="24">
         <f t="shared" si="16"/>
         <v>73</v>
       </c>
-      <c r="AE10" s="23">
+      <c r="AE10" s="24">
         <f t="shared" si="17"/>
         <v>72</v>
       </c>
-      <c r="AF10" s="39"/>
-      <c r="AH10" s="41">
+      <c r="AF10" s="41"/>
+      <c r="AH10" s="43">
         <v>1</v>
       </c>
-      <c r="AI10" s="23" t="str">
+      <c r="AI10" s="24" t="str">
         <f t="shared" si="55"/>
         <v>a1</v>
       </c>
-      <c r="AJ10" s="23" t="str">
+      <c r="AJ10" s="24" t="str">
         <f t="shared" si="18"/>
         <v>b1</v>
       </c>
-      <c r="AK10" s="23" t="str">
+      <c r="AK10" s="24" t="str">
         <f t="shared" si="18"/>
         <v>c1</v>
       </c>
-      <c r="AL10" s="27" t="str">
+      <c r="AL10" s="29" t="str">
         <f t="shared" si="18"/>
         <v>d1</v>
       </c>
-      <c r="AM10" s="37" t="str">
+      <c r="AM10" s="39" t="str">
         <f t="shared" si="18"/>
         <v>e1</v>
       </c>
-      <c r="AN10" s="27" t="str">
+      <c r="AN10" s="29" t="str">
         <f t="shared" si="18"/>
         <v>f1</v>
       </c>
-      <c r="AO10" s="23" t="str">
+      <c r="AO10" s="24" t="str">
         <f t="shared" si="18"/>
         <v>g1</v>
       </c>
-      <c r="AP10" s="23" t="str">
+      <c r="AP10" s="24" t="str">
         <f t="shared" si="18"/>
         <v>h1</v>
       </c>
-      <c r="AQ10" s="23" t="str">
+      <c r="AQ10" s="24" t="str">
         <f t="shared" si="18"/>
         <v>i1</v>
       </c>
-      <c r="AR10" s="41">
+      <c r="AR10" s="43">
         <v>1</v>
       </c>
-      <c r="AT10" s="43">
+      <c r="AT10" s="45">
         <v>1</v>
       </c>
-      <c r="AU10" s="23">
+      <c r="AU10" s="24">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="AV10" s="23">
+      <c r="AV10" s="24">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="AW10" s="23">
+      <c r="AW10" s="24">
         <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="AX10" s="27">
+      <c r="AX10" s="29">
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="AY10" s="37">
+      <c r="AY10" s="39">
         <f t="shared" si="23"/>
         <v>13</v>
       </c>
-      <c r="AZ10" s="27">
+      <c r="AZ10" s="29">
         <f t="shared" si="24"/>
         <v>14</v>
       </c>
-      <c r="BA10" s="23">
+      <c r="BA10" s="24">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="BB10" s="23">
+      <c r="BB10" s="24">
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="BC10" s="23">
+      <c r="BC10" s="24">
         <f t="shared" si="27"/>
         <v>17</v>
       </c>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="23">
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="24">
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BF10" s="23">
+      <c r="BF10" s="24">
         <f t="shared" si="29"/>
         <v>79</v>
       </c>
-      <c r="BG10" s="23">
+      <c r="BG10" s="24">
         <f t="shared" si="30"/>
         <v>78</v>
       </c>
-      <c r="BH10" s="27">
+      <c r="BH10" s="29">
         <f t="shared" si="31"/>
         <v>77</v>
       </c>
-      <c r="BI10" s="37">
+      <c r="BI10" s="39">
         <f t="shared" si="32"/>
         <v>76</v>
       </c>
-      <c r="BJ10" s="27">
+      <c r="BJ10" s="29">
         <f t="shared" si="33"/>
         <v>75</v>
       </c>
-      <c r="BK10" s="23">
+      <c r="BK10" s="24">
         <f t="shared" si="34"/>
         <v>74</v>
       </c>
-      <c r="BL10" s="23">
+      <c r="BL10" s="24">
         <f t="shared" si="35"/>
         <v>73</v>
       </c>
-      <c r="BM10" s="23">
+      <c r="BM10" s="24">
         <f t="shared" si="36"/>
         <v>72</v>
       </c>
-      <c r="BO10" s="23">
+      <c r="BO10" s="24">
         <f t="shared" si="37"/>
         <v>17</v>
       </c>
-      <c r="BP10" s="23">
+      <c r="BP10" s="24">
         <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="BQ10" s="23">
+      <c r="BQ10" s="24">
         <f t="shared" si="39"/>
         <v>15</v>
       </c>
-      <c r="BR10" s="27">
+      <c r="BR10" s="29">
         <f t="shared" si="40"/>
         <v>14</v>
       </c>
-      <c r="BS10" s="37">
+      <c r="BS10" s="39">
         <f t="shared" si="41"/>
         <v>13</v>
       </c>
-      <c r="BT10" s="27">
+      <c r="BT10" s="29">
         <f t="shared" si="42"/>
         <v>12</v>
       </c>
-      <c r="BU10" s="23">
+      <c r="BU10" s="24">
         <f t="shared" si="43"/>
         <v>11</v>
       </c>
-      <c r="BV10" s="23">
+      <c r="BV10" s="24">
         <f t="shared" si="44"/>
         <v>10</v>
       </c>
-      <c r="BW10" s="23">
+      <c r="BW10" s="24">
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:75">
-      <c r="B11" s="17">
+      <c r="B11" s="23">
         <v>9</v>
       </c>
       <c r="C11" s="18">
@@ -4151,15 +4163,15 @@
         <f t="shared" si="48"/>
         <v>83</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="28">
         <f t="shared" si="49"/>
         <v>84</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="29">
         <f t="shared" si="50"/>
         <v>85</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="28">
         <f t="shared" si="51"/>
         <v>86</v>
       </c>
@@ -4175,11 +4187,11 @@
         <f t="shared" si="54"/>
         <v>89</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="38">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -4187,15 +4199,15 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="29">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="39">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -4203,19 +4215,19 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="24">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="24">
         <f t="shared" si="9"/>
         <v>89</v>
       </c>
-      <c r="X11" s="36">
+      <c r="X11" s="38">
         <f t="shared" si="10"/>
         <v>88</v>
       </c>
@@ -4223,15 +4235,15 @@
         <f t="shared" si="11"/>
         <v>87</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z11" s="39">
         <f t="shared" si="12"/>
         <v>86</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA11" s="29">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="AB11" s="37">
+      <c r="AB11" s="39">
         <f t="shared" si="14"/>
         <v>84</v>
       </c>
@@ -4239,23 +4251,23 @@
         <f t="shared" si="15"/>
         <v>83</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="24">
         <f t="shared" si="16"/>
         <v>82</v>
       </c>
-      <c r="AE11" s="23">
+      <c r="AE11" s="24">
         <f t="shared" si="17"/>
         <v>81</v>
       </c>
-      <c r="AF11" s="39"/>
-      <c r="AH11" s="41">
+      <c r="AF11" s="41"/>
+      <c r="AH11" s="43">
         <v>0</v>
       </c>
-      <c r="AI11" s="23" t="str">
+      <c r="AI11" s="24" t="str">
         <f t="shared" si="55"/>
         <v>a0</v>
       </c>
-      <c r="AJ11" s="36" t="str">
+      <c r="AJ11" s="38" t="str">
         <f t="shared" si="18"/>
         <v>b0</v>
       </c>
@@ -4263,15 +4275,15 @@
         <f t="shared" si="18"/>
         <v>c0</v>
       </c>
-      <c r="AL11" s="37" t="str">
+      <c r="AL11" s="39" t="str">
         <f t="shared" si="18"/>
         <v>d0</v>
       </c>
-      <c r="AM11" s="27" t="str">
+      <c r="AM11" s="29" t="str">
         <f t="shared" si="18"/>
         <v>e0</v>
       </c>
-      <c r="AN11" s="37" t="str">
+      <c r="AN11" s="39" t="str">
         <f t="shared" si="18"/>
         <v>f0</v>
       </c>
@@ -4279,24 +4291,24 @@
         <f t="shared" si="18"/>
         <v>g0</v>
       </c>
-      <c r="AP11" s="23" t="str">
+      <c r="AP11" s="24" t="str">
         <f t="shared" si="18"/>
         <v>h0</v>
       </c>
-      <c r="AQ11" s="23" t="str">
+      <c r="AQ11" s="24" t="str">
         <f t="shared" si="18"/>
         <v>i0</v>
       </c>
-      <c r="AR11" s="41">
+      <c r="AR11" s="43">
         <v>0</v>
       </c>
-      <c r="AT11" s="43">
+      <c r="AT11" s="45">
         <v>0</v>
       </c>
-      <c r="AU11" s="23">
+      <c r="AU11" s="24">
         <v>0</v>
       </c>
-      <c r="AV11" s="36">
+      <c r="AV11" s="38">
         <f>AU11+1</f>
         <v>1</v>
       </c>
@@ -4304,15 +4316,15 @@
         <f t="shared" ref="AW11:BC11" si="56">AV11+1</f>
         <v>2</v>
       </c>
-      <c r="AX11" s="37">
+      <c r="AX11" s="39">
         <f t="shared" si="56"/>
         <v>3</v>
       </c>
-      <c r="AY11" s="27">
+      <c r="AY11" s="29">
         <f t="shared" si="56"/>
         <v>4</v>
       </c>
-      <c r="AZ11" s="37">
+      <c r="AZ11" s="39">
         <f t="shared" si="56"/>
         <v>5</v>
       </c>
@@ -4320,20 +4332,20 @@
         <f t="shared" si="56"/>
         <v>6</v>
       </c>
-      <c r="BB11" s="23">
+      <c r="BB11" s="24">
         <f t="shared" si="56"/>
         <v>7</v>
       </c>
-      <c r="BC11" s="23">
+      <c r="BC11" s="24">
         <f t="shared" si="56"/>
         <v>8</v>
       </c>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="23">
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="24">
         <f t="shared" si="28"/>
         <v>89</v>
       </c>
-      <c r="BF11" s="36">
+      <c r="BF11" s="38">
         <f t="shared" si="29"/>
         <v>88</v>
       </c>
@@ -4341,15 +4353,15 @@
         <f t="shared" si="30"/>
         <v>87</v>
       </c>
-      <c r="BH11" s="37">
+      <c r="BH11" s="39">
         <f t="shared" si="31"/>
         <v>86</v>
       </c>
-      <c r="BI11" s="27">
+      <c r="BI11" s="29">
         <f t="shared" si="32"/>
         <v>85</v>
       </c>
-      <c r="BJ11" s="37">
+      <c r="BJ11" s="39">
         <f t="shared" si="33"/>
         <v>84</v>
       </c>
@@ -4357,19 +4369,19 @@
         <f t="shared" si="34"/>
         <v>83</v>
       </c>
-      <c r="BL11" s="23">
+      <c r="BL11" s="24">
         <f t="shared" si="35"/>
         <v>82</v>
       </c>
-      <c r="BM11" s="23">
+      <c r="BM11" s="24">
         <f t="shared" si="36"/>
         <v>81</v>
       </c>
-      <c r="BO11" s="23">
+      <c r="BO11" s="24">
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="BP11" s="36">
+      <c r="BP11" s="38">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
@@ -4377,15 +4389,15 @@
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="BR11" s="37">
+      <c r="BR11" s="39">
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="BS11" s="27">
+      <c r="BS11" s="29">
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="BT11" s="37">
+      <c r="BT11" s="39">
         <f t="shared" si="42"/>
         <v>3</v>
       </c>
@@ -4393,11 +4405,11 @@
         <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="BV11" s="23">
+      <c r="BV11" s="24">
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="BW11" s="23">
+      <c r="BW11" s="24">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -4412,211 +4424,211 @@
       <c r="W12" t="s">
         <v>20</v>
       </c>
-      <c r="AH12" s="42" t="s">
+      <c r="AH12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AI12" s="41" t="s">
+      <c r="AI12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="41" t="s">
+      <c r="AJ12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AK12" s="41" t="s">
+      <c r="AK12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AL12" s="41" t="s">
+      <c r="AL12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AM12" s="41" t="s">
+      <c r="AM12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="41" t="s">
+      <c r="AN12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AO12" s="41" t="s">
+      <c r="AO12" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="AP12" s="41" t="s">
+      <c r="AP12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="AQ12" s="41" t="s">
+      <c r="AQ12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AT12" s="42" t="s">
+      <c r="AT12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AU12" s="43" t="s">
+      <c r="AU12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AV12" s="43" t="s">
+      <c r="AV12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AW12" s="43" t="s">
+      <c r="AW12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AX12" s="43" t="s">
+      <c r="AX12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AY12" s="43" t="s">
+      <c r="AY12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AZ12" s="43" t="s">
+      <c r="AZ12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BA12" s="43" t="s">
+      <c r="BA12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BB12" s="43" t="s">
+      <c r="BB12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="BC12" s="43" t="s">
+      <c r="BC12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="BE12" s="45" t="s">
+      <c r="BE12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="41"/>
-      <c r="BL12" s="41"/>
-      <c r="BM12" s="41"/>
-      <c r="BO12" s="45" t="s">
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="43"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
+      <c r="BL12" s="43"/>
+      <c r="BM12" s="43"/>
+      <c r="BO12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BR12" s="41"/>
-      <c r="BS12" s="41"/>
-      <c r="BT12" s="41"/>
-      <c r="BU12" s="41"/>
-      <c r="BV12" s="41"/>
-      <c r="BW12" s="41"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="43"/>
+      <c r="BR12" s="43"/>
+      <c r="BS12" s="43"/>
+      <c r="BT12" s="43"/>
+      <c r="BU12" s="43"/>
+      <c r="BV12" s="43"/>
+      <c r="BW12" s="43"/>
     </row>
     <row r="13" customHeight="1" spans="35:76">
-      <c r="AI13" s="41">
+      <c r="AI13" s="43">
         <v>0</v>
       </c>
-      <c r="AJ13" s="41">
+      <c r="AJ13" s="43">
         <v>1</v>
       </c>
-      <c r="AK13" s="41">
+      <c r="AK13" s="43">
         <v>2</v>
       </c>
-      <c r="AL13" s="41">
+      <c r="AL13" s="43">
         <v>3</v>
       </c>
-      <c r="AM13" s="41">
+      <c r="AM13" s="43">
         <v>4</v>
       </c>
-      <c r="AN13" s="41">
+      <c r="AN13" s="43">
         <v>5</v>
       </c>
-      <c r="AO13" s="41">
+      <c r="AO13" s="43">
         <v>6</v>
       </c>
-      <c r="AP13" s="41">
+      <c r="AP13" s="43">
         <v>7</v>
       </c>
-      <c r="AQ13" s="41">
+      <c r="AQ13" s="43">
         <v>8</v>
       </c>
-      <c r="AT13" s="42" t="s">
+      <c r="AT13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AU13" s="43">
+      <c r="AU13" s="45">
         <v>0</v>
       </c>
-      <c r="AV13" s="43">
+      <c r="AV13" s="45">
         <v>1</v>
       </c>
-      <c r="AW13" s="43">
+      <c r="AW13" s="45">
         <v>2</v>
       </c>
-      <c r="AX13" s="43">
+      <c r="AX13" s="45">
         <v>3</v>
       </c>
-      <c r="AY13" s="43">
+      <c r="AY13" s="45">
         <v>4</v>
       </c>
-      <c r="AZ13" s="43">
+      <c r="AZ13" s="45">
         <v>5</v>
       </c>
-      <c r="BA13" s="43">
+      <c r="BA13" s="45">
         <v>6</v>
       </c>
-      <c r="BB13" s="43">
+      <c r="BB13" s="45">
         <v>7</v>
       </c>
-      <c r="BC13" s="43">
+      <c r="BC13" s="45">
         <v>8</v>
       </c>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="41"/>
-      <c r="BL13" s="41"/>
-      <c r="BM13" s="41"/>
-      <c r="BN13" s="41"/>
-      <c r="BP13" s="41"/>
-      <c r="BQ13" s="41"/>
-      <c r="BR13" s="41"/>
-      <c r="BT13" s="41"/>
-      <c r="BU13" s="41"/>
-      <c r="BV13" s="41"/>
-      <c r="BW13" s="41"/>
-      <c r="BX13" s="41"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="43"/>
+      <c r="BP13" s="43"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="43"/>
+      <c r="BT13" s="43"/>
+      <c r="BU13" s="43"/>
+      <c r="BV13" s="43"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="43"/>
     </row>
     <row r="15" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="25">
         <v>2</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <v>3</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <v>4</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="25">
         <v>5</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>6</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="25">
         <v>7</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="25">
         <v>8</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="25">
         <v>9</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="25">
         <v>10</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="25">
         <v>11</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="25">
         <v>12</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="25">
         <v>13</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="25">
         <v>14</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="25">
         <v>15</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15" s="25">
         <v>16</v>
       </c>
       <c r="S15"/>
@@ -4669,67 +4681,67 @@
       <c r="BX15"/>
     </row>
     <row r="16" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C16" s="24">
+      <c r="C16" s="25">
         <f>C15+16</f>
         <v>17</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="25">
         <f t="shared" ref="D16:D30" si="57">D15+16</f>
         <v>18</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="25">
         <f t="shared" ref="E16:E30" si="58">E15+16</f>
         <v>19</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="25">
         <f t="shared" ref="F16:F30" si="59">F15+16</f>
         <v>20</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="25">
         <f t="shared" ref="G16:G30" si="60">G15+16</f>
         <v>21</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="25">
         <f t="shared" ref="H16:H30" si="61">H15+16</f>
         <v>22</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="25">
         <f t="shared" ref="I16:I30" si="62">I15+16</f>
         <v>23</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="25">
         <f t="shared" ref="J16:J30" si="63">J15+16</f>
         <v>24</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="25">
         <f t="shared" ref="K16:K30" si="64">K15+16</f>
         <v>25</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="25">
         <f t="shared" ref="L16:L30" si="65">L15+16</f>
         <v>26</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="25">
         <f t="shared" ref="M16:M30" si="66">M15+16</f>
         <v>27</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="25">
         <f t="shared" ref="N16:N30" si="67">N15+16</f>
         <v>28</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="25">
         <f t="shared" ref="O16:O30" si="68">O15+16</f>
         <v>29</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="25">
         <f t="shared" ref="P16:P30" si="69">P15+16</f>
         <v>30</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="25">
         <f t="shared" ref="Q16:Q30" si="70">Q15+16</f>
         <v>31</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="25">
         <f t="shared" ref="R16:R30" si="71">R15+16</f>
         <v>32</v>
       </c>
@@ -4780,67 +4792,67 @@
       <c r="BX16"/>
     </row>
     <row r="17" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C17" s="24">
+      <c r="C17" s="25">
         <f t="shared" ref="C17:C30" si="72">C16+16</f>
         <v>33</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="25">
         <f t="shared" si="57"/>
         <v>34</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="25">
         <f t="shared" si="58"/>
         <v>35</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="25">
         <f t="shared" si="59"/>
         <v>36</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="25">
         <f t="shared" si="60"/>
         <v>37</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="25">
         <f t="shared" si="61"/>
         <v>38</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="25">
         <f t="shared" si="62"/>
         <v>39</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="25">
         <f t="shared" si="63"/>
         <v>40</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="25">
         <f t="shared" si="64"/>
         <v>41</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="25">
         <f t="shared" si="65"/>
         <v>42</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="25">
         <f t="shared" si="66"/>
         <v>43</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="25">
         <f t="shared" si="67"/>
         <v>44</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="25">
         <f t="shared" si="68"/>
         <v>45</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="25">
         <f t="shared" si="69"/>
         <v>46</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="25">
         <f t="shared" si="70"/>
         <v>47</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="25">
         <f t="shared" si="71"/>
         <v>48</v>
       </c>
@@ -4893,67 +4905,67 @@
       <c r="BX17"/>
     </row>
     <row r="18" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C18" s="24">
+      <c r="C18" s="25">
         <f t="shared" si="72"/>
         <v>49</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="25">
         <f t="shared" si="57"/>
         <v>50</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="25">
         <f t="shared" si="58"/>
         <v>51</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="30">
         <f t="shared" si="59"/>
         <v>52</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="30">
         <f t="shared" si="60"/>
         <v>53</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="31">
         <f t="shared" si="61"/>
         <v>54</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="35">
         <f t="shared" si="62"/>
         <v>55</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="36">
         <f t="shared" si="63"/>
         <v>56</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="35">
         <f t="shared" si="64"/>
         <v>57</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="31">
         <f t="shared" si="65"/>
         <v>58</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="30">
         <f t="shared" si="66"/>
         <v>59</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="30">
         <f t="shared" si="67"/>
         <v>60</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="25">
         <f t="shared" si="68"/>
         <v>61</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="25">
         <f t="shared" si="69"/>
         <v>62</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="25">
         <f t="shared" si="70"/>
         <v>63</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="25">
         <f t="shared" si="71"/>
         <v>64</v>
       </c>
@@ -5006,67 +5018,67 @@
       <c r="BX18"/>
     </row>
     <row r="19" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C19" s="24">
+      <c r="C19" s="25">
         <f t="shared" si="72"/>
         <v>65</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="25">
         <f t="shared" si="57"/>
         <v>66</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="25">
         <f t="shared" si="58"/>
         <v>67</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="30">
         <f t="shared" si="59"/>
         <v>68</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="30">
         <f t="shared" si="60"/>
         <v>69</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="30">
         <f t="shared" si="61"/>
         <v>70</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="36">
         <f t="shared" si="62"/>
         <v>71</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="35">
         <f t="shared" si="63"/>
         <v>72</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="36">
         <f t="shared" si="64"/>
         <v>73</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="30">
         <f t="shared" si="65"/>
         <v>74</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="30">
         <f t="shared" si="66"/>
         <v>75</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="30">
         <f t="shared" si="67"/>
         <v>76</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="25">
         <f t="shared" si="68"/>
         <v>77</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="25">
         <f t="shared" si="69"/>
         <v>78</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="25">
         <f t="shared" si="70"/>
         <v>79</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="25">
         <f t="shared" si="71"/>
         <v>80</v>
       </c>
@@ -5119,67 +5131,67 @@
       <c r="BX19"/>
     </row>
     <row r="20" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C20" s="24">
+      <c r="C20" s="25">
         <f t="shared" si="72"/>
         <v>81</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="25">
         <f t="shared" si="57"/>
         <v>82</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="25">
         <f t="shared" si="58"/>
         <v>83</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="31">
         <f t="shared" si="59"/>
         <v>84</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="30">
         <f t="shared" si="60"/>
         <v>85</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="30">
         <f t="shared" si="61"/>
         <v>86</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="35">
         <f t="shared" si="62"/>
         <v>87</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="37">
         <f t="shared" si="63"/>
         <v>88</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="35">
         <f t="shared" si="64"/>
         <v>89</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="30">
         <f t="shared" si="65"/>
         <v>90</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="30">
         <f t="shared" si="66"/>
         <v>91</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="31">
         <f t="shared" si="67"/>
         <v>92</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="25">
         <f t="shared" si="68"/>
         <v>93</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="25">
         <f t="shared" si="69"/>
         <v>94</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="25">
         <f t="shared" si="70"/>
         <v>95</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="25">
         <f t="shared" si="71"/>
         <v>96</v>
       </c>
@@ -5230,67 +5242,67 @@
       <c r="BX20"/>
     </row>
     <row r="21" s="14" customFormat="1" customHeight="1" spans="3:76">
-      <c r="C21" s="24">
+      <c r="C21" s="25">
         <f t="shared" si="72"/>
         <v>97</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="25">
         <f t="shared" si="57"/>
         <v>98</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="25">
         <f t="shared" si="58"/>
         <v>99</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="30">
         <f t="shared" si="59"/>
         <v>100</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="30">
         <f t="shared" si="60"/>
         <v>101</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="30">
         <f t="shared" si="61"/>
         <v>102</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="30">
         <f t="shared" si="62"/>
         <v>103</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="30">
         <f t="shared" si="63"/>
         <v>104</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="30">
         <f t="shared" si="64"/>
         <v>105</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="30">
         <f t="shared" si="65"/>
         <v>106</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="30">
         <f t="shared" si="66"/>
         <v>107</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="30">
         <f t="shared" si="67"/>
         <v>108</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="25">
         <f t="shared" si="68"/>
         <v>109</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="25">
         <f t="shared" si="69"/>
         <v>110</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="25">
         <f t="shared" si="70"/>
         <v>111</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="25">
         <f t="shared" si="71"/>
         <v>112</v>
       </c>
@@ -5310,22 +5322,22 @@
       <c r="AO21"/>
       <c r="AP21"/>
       <c r="AQ21"/>
-      <c r="AS21" s="44" t="s">
+      <c r="AS21" s="46" t="s">
         <v>27</v>
       </c>
       <c r="AT21"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41"/>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
-      <c r="BA21" s="41"/>
-      <c r="BB21" s="41"/>
-      <c r="BC21" s="41"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="43"/>
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="43"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="43"/>
+      <c r="BC21" s="43"/>
       <c r="BE21"/>
       <c r="BF21"/>
-      <c r="BG21" s="46" t="s">
+      <c r="BG21" s="48" t="s">
         <v>28</v>
       </c>
       <c r="BQ21"/>
@@ -5338,67 +5350,67 @@
       <c r="BX21"/>
     </row>
     <row r="22" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C22" s="24">
+      <c r="C22" s="25">
         <f t="shared" si="72"/>
         <v>113</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="25">
         <f t="shared" si="57"/>
         <v>114</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="25">
         <f t="shared" si="58"/>
         <v>115</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="30">
         <f t="shared" si="59"/>
         <v>116</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="30">
         <f t="shared" si="60"/>
         <v>117</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="31">
         <f t="shared" si="61"/>
         <v>118</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="30">
         <f t="shared" si="62"/>
         <v>119</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="30">
         <f t="shared" si="63"/>
         <v>120</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="30">
         <f t="shared" si="64"/>
         <v>121</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="31">
         <f t="shared" si="65"/>
         <v>122</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="30">
         <f t="shared" si="66"/>
         <v>123</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="30">
         <f t="shared" si="67"/>
         <v>124</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="25">
         <f t="shared" si="68"/>
         <v>125</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="25">
         <f t="shared" si="69"/>
         <v>126</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="25">
         <f t="shared" si="70"/>
         <v>127</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="25">
         <f t="shared" si="71"/>
         <v>128</v>
       </c>
@@ -5418,14 +5430,14 @@
       <c r="AO22"/>
       <c r="AP22"/>
       <c r="AQ22"/>
-      <c r="AT22" s="43">
+      <c r="AT22" s="45">
         <v>9</v>
       </c>
-      <c r="AU22" s="23" t="str">
+      <c r="AU22" s="24" t="str">
         <f t="shared" ref="AU22:BC31" si="73">(AU$32&amp;$AT22)</f>
         <v>09</v>
       </c>
-      <c r="AV22" s="36" t="str">
+      <c r="AV22" s="38" t="str">
         <f t="shared" si="73"/>
         <v>19</v>
       </c>
@@ -5433,15 +5445,15 @@
         <f t="shared" si="73"/>
         <v>29</v>
       </c>
-      <c r="AX22" s="37" t="str">
+      <c r="AX22" s="39" t="str">
         <f t="shared" si="73"/>
         <v>39</v>
       </c>
-      <c r="AY22" s="27" t="str">
+      <c r="AY22" s="29" t="str">
         <f t="shared" si="73"/>
         <v>49</v>
       </c>
-      <c r="AZ22" s="37" t="str">
+      <c r="AZ22" s="39" t="str">
         <f t="shared" si="73"/>
         <v>59</v>
       </c>
@@ -5449,139 +5461,139 @@
         <f t="shared" si="73"/>
         <v>69</v>
       </c>
-      <c r="BB22" s="23" t="str">
+      <c r="BB22" s="24" t="str">
         <f t="shared" si="73"/>
         <v>79</v>
       </c>
-      <c r="BC22" s="23" t="str">
+      <c r="BC22" s="24" t="str">
         <f t="shared" si="73"/>
         <v>89</v>
       </c>
-      <c r="BE22" s="47" t="s">
+      <c r="BE22" s="49" t="s">
         <v>29</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="49">
+      <c r="BG22" s="50"/>
+      <c r="BH22" s="51">
         <v>1</v>
       </c>
-      <c r="BI22" s="49">
+      <c r="BI22" s="51">
         <v>2</v>
       </c>
-      <c r="BJ22" s="49">
+      <c r="BJ22" s="51">
         <v>3</v>
       </c>
-      <c r="BK22" s="49">
+      <c r="BK22" s="51">
         <v>4</v>
       </c>
-      <c r="BL22" s="49">
+      <c r="BL22" s="51">
         <v>5</v>
       </c>
-      <c r="BM22" s="49">
+      <c r="BM22" s="51">
         <v>6</v>
       </c>
-      <c r="BN22" s="49">
+      <c r="BN22" s="51">
         <v>7</v>
       </c>
-      <c r="BO22" s="49">
+      <c r="BO22" s="51">
         <v>8</v>
       </c>
-      <c r="BP22" s="49">
+      <c r="BP22" s="51">
         <v>9</v>
       </c>
       <c r="BQ22"/>
       <c r="BR22"/>
-      <c r="BS22" s="48"/>
-      <c r="BT22" s="49">
+      <c r="BS22" s="50"/>
+      <c r="BT22" s="51">
         <v>0</v>
       </c>
-      <c r="BU22" s="49">
+      <c r="BU22" s="51">
         <v>1</v>
       </c>
-      <c r="BV22" s="49">
+      <c r="BV22" s="51">
         <v>2</v>
       </c>
-      <c r="BW22" s="49">
+      <c r="BW22" s="51">
         <v>3</v>
       </c>
-      <c r="BX22" s="49">
+      <c r="BX22" s="51">
         <v>4</v>
       </c>
-      <c r="BY22" s="49">
+      <c r="BY22" s="51">
         <v>5</v>
       </c>
-      <c r="BZ22" s="49">
+      <c r="BZ22" s="51">
         <v>6</v>
       </c>
-      <c r="CA22" s="49">
+      <c r="CA22" s="51">
         <v>7</v>
       </c>
-      <c r="CB22" s="49">
+      <c r="CB22" s="51">
         <v>8</v>
       </c>
     </row>
     <row r="23" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C23" s="24">
+      <c r="C23" s="25">
         <f t="shared" si="72"/>
         <v>129</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="25">
         <f t="shared" si="57"/>
         <v>130</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="25">
         <f t="shared" si="58"/>
         <v>131</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="32">
         <f t="shared" si="59"/>
         <v>132</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="32">
         <f t="shared" si="60"/>
         <v>133</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="33">
         <f t="shared" si="61"/>
         <v>134</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="32">
         <f t="shared" si="62"/>
         <v>135</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="32">
         <f t="shared" si="63"/>
         <v>136</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="32">
         <f t="shared" si="64"/>
         <v>137</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="33">
         <f t="shared" si="65"/>
         <v>138</v>
       </c>
-      <c r="M23" s="30">
+      <c r="M23" s="32">
         <f t="shared" si="66"/>
         <v>139</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="32">
         <f t="shared" si="67"/>
         <v>140</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="25">
         <f t="shared" si="68"/>
         <v>141</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="25">
         <f t="shared" si="69"/>
         <v>142</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="25">
         <f t="shared" si="70"/>
         <v>143</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="25">
         <f t="shared" si="71"/>
         <v>144</v>
       </c>
@@ -5601,7 +5613,7 @@
       <c r="AO23"/>
       <c r="AP23"/>
       <c r="AQ23"/>
-      <c r="AT23" s="43">
+      <c r="AT23" s="45">
         <v>8</v>
       </c>
       <c r="AU23" s="20" t="str">
@@ -5616,15 +5628,15 @@
         <f t="shared" si="73"/>
         <v>28</v>
       </c>
-      <c r="AX23" s="27" t="str">
+      <c r="AX23" s="29" t="str">
         <f t="shared" si="73"/>
         <v>38</v>
       </c>
-      <c r="AY23" s="37" t="str">
+      <c r="AY23" s="39" t="str">
         <f t="shared" si="73"/>
         <v>48</v>
       </c>
-      <c r="AZ23" s="27" t="str">
+      <c r="AZ23" s="29" t="str">
         <f t="shared" si="73"/>
         <v>58</v>
       </c>
@@ -5640,125 +5652,125 @@
         <f t="shared" si="73"/>
         <v>88</v>
       </c>
-      <c r="BE23" s="47" t="s">
+      <c r="BE23" s="49" t="s">
         <v>30</v>
       </c>
       <c r="BF23"/>
-      <c r="BG23" s="50" t="s">
+      <c r="BG23" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BH23" s="51">
+      <c r="BH23" s="53">
         <v>0</v>
       </c>
-      <c r="BI23" s="51">
+      <c r="BI23" s="53">
         <f>BH23+1</f>
         <v>1</v>
       </c>
-      <c r="BJ23" s="51">
+      <c r="BJ23" s="53">
         <f t="shared" ref="BJ23:BP23" si="74">BI23+1</f>
         <v>2</v>
       </c>
-      <c r="BK23" s="54">
+      <c r="BK23" s="56">
         <f t="shared" si="74"/>
         <v>3</v>
       </c>
-      <c r="BL23" s="54">
+      <c r="BL23" s="56">
         <f t="shared" si="74"/>
         <v>4</v>
       </c>
-      <c r="BM23" s="54">
+      <c r="BM23" s="56">
         <f t="shared" si="74"/>
         <v>5</v>
       </c>
-      <c r="BN23" s="57">
+      <c r="BN23" s="59">
         <f t="shared" si="74"/>
         <v>6</v>
       </c>
-      <c r="BO23" s="57">
+      <c r="BO23" s="59">
         <f t="shared" si="74"/>
         <v>7</v>
       </c>
-      <c r="BP23" s="57">
+      <c r="BP23" s="59">
         <f t="shared" si="74"/>
         <v>8</v>
       </c>
       <c r="BQ23"/>
       <c r="BR23"/>
-      <c r="BS23" s="50">
+      <c r="BS23" s="52">
         <v>0</v>
       </c>
-      <c r="BT23" s="51"/>
-      <c r="BU23" s="51"/>
-      <c r="BV23" s="51"/>
-      <c r="BW23" s="54"/>
-      <c r="BX23" s="54"/>
-      <c r="BY23" s="54"/>
-      <c r="BZ23" s="57"/>
-      <c r="CA23" s="57"/>
-      <c r="CB23" s="57"/>
+      <c r="BT23" s="53"/>
+      <c r="BU23" s="53"/>
+      <c r="BV23" s="53"/>
+      <c r="BW23" s="56"/>
+      <c r="BX23" s="56"/>
+      <c r="BY23" s="56"/>
+      <c r="BZ23" s="59"/>
+      <c r="CA23" s="59"/>
+      <c r="CB23" s="59"/>
     </row>
     <row r="24" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C24" s="24">
+      <c r="C24" s="25">
         <f t="shared" si="72"/>
         <v>145</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="25">
         <f t="shared" si="57"/>
         <v>146</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="25">
         <f t="shared" si="58"/>
         <v>147</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="32">
         <f t="shared" si="59"/>
         <v>148</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="32">
         <f t="shared" si="60"/>
         <v>149</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="32">
         <f t="shared" si="61"/>
         <v>150</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="32">
         <f t="shared" si="62"/>
         <v>151</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="32">
         <f t="shared" si="63"/>
         <v>152</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="32">
         <f t="shared" si="64"/>
         <v>153</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="32">
         <f t="shared" si="65"/>
         <v>154</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="32">
         <f t="shared" si="66"/>
         <v>155</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="32">
         <f t="shared" si="67"/>
         <v>156</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="25">
         <f t="shared" si="68"/>
         <v>157</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="25">
         <f t="shared" si="69"/>
         <v>158</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="25">
         <f t="shared" si="70"/>
         <v>159</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="25">
         <f t="shared" si="71"/>
         <v>160</v>
       </c>
@@ -5778,7 +5790,7 @@
       <c r="AO24"/>
       <c r="AP24"/>
       <c r="AQ24"/>
-      <c r="AT24" s="43">
+      <c r="AT24" s="45">
         <v>7</v>
       </c>
       <c r="AU24" s="21" t="str">
@@ -5793,15 +5805,15 @@
         <f t="shared" si="73"/>
         <v>27</v>
       </c>
-      <c r="AX24" s="37" t="str">
+      <c r="AX24" s="39" t="str">
         <f t="shared" si="73"/>
         <v>37</v>
       </c>
-      <c r="AY24" s="38" t="str">
+      <c r="AY24" s="40" t="str">
         <f t="shared" si="73"/>
         <v>47</v>
       </c>
-      <c r="AZ24" s="37" t="str">
+      <c r="AZ24" s="39" t="str">
         <f t="shared" si="73"/>
         <v>57</v>
       </c>
@@ -5817,125 +5829,125 @@
         <f t="shared" si="73"/>
         <v>87</v>
       </c>
-      <c r="BE24" s="47" t="s">
+      <c r="BE24" s="49" t="s">
         <v>31</v>
       </c>
       <c r="BF24"/>
-      <c r="BG24" s="50" t="s">
+      <c r="BG24" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="BH24" s="51">
+      <c r="BH24" s="53">
         <v>9</v>
       </c>
-      <c r="BI24" s="51">
+      <c r="BI24" s="53">
         <f t="shared" ref="BI24:BP31" si="75">BH24+1</f>
         <v>10</v>
       </c>
-      <c r="BJ24" s="51">
+      <c r="BJ24" s="53">
         <f t="shared" si="75"/>
         <v>11</v>
       </c>
-      <c r="BK24" s="54">
+      <c r="BK24" s="56">
         <f t="shared" si="75"/>
         <v>12</v>
       </c>
-      <c r="BL24" s="54">
+      <c r="BL24" s="56">
         <f t="shared" si="75"/>
         <v>13</v>
       </c>
-      <c r="BM24" s="54">
+      <c r="BM24" s="56">
         <f t="shared" si="75"/>
         <v>14</v>
       </c>
-      <c r="BN24" s="57">
+      <c r="BN24" s="59">
         <f t="shared" si="75"/>
         <v>15</v>
       </c>
-      <c r="BO24" s="57">
+      <c r="BO24" s="59">
         <f t="shared" si="75"/>
         <v>16</v>
       </c>
-      <c r="BP24" s="57">
+      <c r="BP24" s="59">
         <f t="shared" si="75"/>
         <v>17</v>
       </c>
       <c r="BQ24"/>
       <c r="BR24"/>
-      <c r="BS24" s="50">
+      <c r="BS24" s="52">
         <v>1</v>
       </c>
-      <c r="BT24" s="51"/>
-      <c r="BU24" s="51"/>
-      <c r="BV24" s="51"/>
-      <c r="BW24" s="54"/>
-      <c r="BX24" s="54"/>
-      <c r="BY24" s="54"/>
-      <c r="BZ24" s="57"/>
-      <c r="CA24" s="57"/>
-      <c r="CB24" s="57"/>
+      <c r="BT24" s="53"/>
+      <c r="BU24" s="53"/>
+      <c r="BV24" s="53"/>
+      <c r="BW24" s="56"/>
+      <c r="BX24" s="56"/>
+      <c r="BY24" s="56"/>
+      <c r="BZ24" s="59"/>
+      <c r="CA24" s="59"/>
+      <c r="CB24" s="59"/>
     </row>
     <row r="25" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C25" s="24">
+      <c r="C25" s="25">
         <f t="shared" si="72"/>
         <v>161</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="25">
         <f t="shared" si="57"/>
         <v>162</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="25">
         <f t="shared" si="58"/>
         <v>163</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="33">
         <f t="shared" si="59"/>
         <v>164</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="32">
         <f t="shared" si="60"/>
         <v>165</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="32">
         <f t="shared" si="61"/>
         <v>166</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="35">
         <f t="shared" si="62"/>
         <v>167</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="37">
         <f t="shared" si="63"/>
         <v>168</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="35">
         <f t="shared" si="64"/>
         <v>169</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="32">
         <f t="shared" si="65"/>
         <v>170</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="32">
         <f t="shared" si="66"/>
         <v>171</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="33">
         <f t="shared" si="67"/>
         <v>172</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="25">
         <f t="shared" si="68"/>
         <v>173</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="25">
         <f t="shared" si="69"/>
         <v>174</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="25">
         <f t="shared" si="70"/>
         <v>175</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="25">
         <f t="shared" si="71"/>
         <v>176</v>
       </c>
@@ -5964,7 +5976,7 @@
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
-      <c r="AT25" s="43">
+      <c r="AT25" s="45">
         <v>6</v>
       </c>
       <c r="AU25" s="20" t="str">
@@ -6003,125 +6015,125 @@
         <f t="shared" si="73"/>
         <v>86</v>
       </c>
-      <c r="BE25" s="47" t="s">
+      <c r="BE25" s="49" t="s">
         <v>32</v>
       </c>
       <c r="BF25"/>
-      <c r="BG25" s="50" t="s">
+      <c r="BG25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BH25" s="51">
+      <c r="BH25" s="53">
         <v>18</v>
       </c>
-      <c r="BI25" s="51">
+      <c r="BI25" s="53">
         <f t="shared" si="75"/>
         <v>19</v>
       </c>
-      <c r="BJ25" s="51">
+      <c r="BJ25" s="53">
         <f t="shared" si="75"/>
         <v>20</v>
       </c>
-      <c r="BK25" s="54">
+      <c r="BK25" s="56">
         <f t="shared" si="75"/>
         <v>21</v>
       </c>
-      <c r="BL25" s="54">
+      <c r="BL25" s="56">
         <f t="shared" si="75"/>
         <v>22</v>
       </c>
-      <c r="BM25" s="54">
+      <c r="BM25" s="56">
         <f t="shared" si="75"/>
         <v>23</v>
       </c>
-      <c r="BN25" s="57">
+      <c r="BN25" s="59">
         <f t="shared" si="75"/>
         <v>24</v>
       </c>
-      <c r="BO25" s="57">
+      <c r="BO25" s="59">
         <f t="shared" si="75"/>
         <v>25</v>
       </c>
-      <c r="BP25" s="57">
+      <c r="BP25" s="59">
         <f t="shared" si="75"/>
         <v>26</v>
       </c>
       <c r="BQ25"/>
       <c r="BR25"/>
-      <c r="BS25" s="50">
+      <c r="BS25" s="52">
         <v>2</v>
       </c>
-      <c r="BT25" s="51"/>
-      <c r="BU25" s="51"/>
-      <c r="BV25" s="51"/>
-      <c r="BW25" s="54"/>
-      <c r="BX25" s="54"/>
-      <c r="BY25" s="54"/>
-      <c r="BZ25" s="57"/>
-      <c r="CA25" s="57"/>
-      <c r="CB25" s="57"/>
+      <c r="BT25" s="53"/>
+      <c r="BU25" s="53"/>
+      <c r="BV25" s="53"/>
+      <c r="BW25" s="56"/>
+      <c r="BX25" s="56"/>
+      <c r="BY25" s="56"/>
+      <c r="BZ25" s="59"/>
+      <c r="CA25" s="59"/>
+      <c r="CB25" s="59"/>
     </row>
     <row r="26" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C26" s="24">
+      <c r="C26" s="25">
         <f t="shared" si="72"/>
         <v>177</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="25">
         <f t="shared" si="57"/>
         <v>178</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="25">
         <f t="shared" si="58"/>
         <v>179</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="32">
         <f t="shared" si="59"/>
         <v>180</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="32">
         <f t="shared" si="60"/>
         <v>181</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="32">
         <f t="shared" si="61"/>
         <v>182</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="36">
         <f t="shared" si="62"/>
         <v>183</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="35">
         <f t="shared" si="63"/>
         <v>184</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="36">
         <f t="shared" si="64"/>
         <v>185</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="32">
         <f t="shared" si="65"/>
         <v>186</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="32">
         <f t="shared" si="66"/>
         <v>187</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="32">
         <f t="shared" si="67"/>
         <v>188</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="25">
         <f t="shared" si="68"/>
         <v>189</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="25">
         <f t="shared" si="69"/>
         <v>190</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="25">
         <f t="shared" si="70"/>
         <v>191</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="25">
         <f t="shared" si="71"/>
         <v>192</v>
       </c>
@@ -6150,7 +6162,7 @@
       <c r="AO26"/>
       <c r="AP26"/>
       <c r="AQ26"/>
-      <c r="AT26" s="43">
+      <c r="AT26" s="45">
         <v>5</v>
       </c>
       <c r="AU26" s="20" t="str">
@@ -6189,125 +6201,125 @@
         <f t="shared" si="73"/>
         <v>85</v>
       </c>
-      <c r="BE26" s="47" t="s">
+      <c r="BE26" s="49" t="s">
         <v>33</v>
       </c>
       <c r="BF26"/>
-      <c r="BG26" s="50" t="s">
+      <c r="BG26" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="BH26" s="52">
+      <c r="BH26" s="54">
         <v>27</v>
       </c>
-      <c r="BI26" s="52">
+      <c r="BI26" s="54">
         <f t="shared" si="75"/>
         <v>28</v>
       </c>
-      <c r="BJ26" s="52">
+      <c r="BJ26" s="54">
         <f t="shared" si="75"/>
         <v>29</v>
       </c>
-      <c r="BK26" s="55">
+      <c r="BK26" s="57">
         <f t="shared" si="75"/>
         <v>30</v>
       </c>
-      <c r="BL26" s="55">
+      <c r="BL26" s="57">
         <f t="shared" si="75"/>
         <v>31</v>
       </c>
-      <c r="BM26" s="55">
+      <c r="BM26" s="57">
         <f t="shared" si="75"/>
         <v>32</v>
       </c>
-      <c r="BN26" s="58">
+      <c r="BN26" s="60">
         <f t="shared" si="75"/>
         <v>33</v>
       </c>
-      <c r="BO26" s="58">
+      <c r="BO26" s="60">
         <f t="shared" si="75"/>
         <v>34</v>
       </c>
-      <c r="BP26" s="58">
+      <c r="BP26" s="60">
         <f t="shared" si="75"/>
         <v>35</v>
       </c>
       <c r="BQ26"/>
       <c r="BR26"/>
-      <c r="BS26" s="50">
+      <c r="BS26" s="52">
         <v>3</v>
       </c>
-      <c r="BT26" s="52"/>
-      <c r="BU26" s="52"/>
-      <c r="BV26" s="52"/>
-      <c r="BW26" s="55"/>
-      <c r="BX26" s="55"/>
-      <c r="BY26" s="55"/>
-      <c r="BZ26" s="58"/>
-      <c r="CA26" s="58"/>
-      <c r="CB26" s="58"/>
+      <c r="BT26" s="54"/>
+      <c r="BU26" s="54"/>
+      <c r="BV26" s="54"/>
+      <c r="BW26" s="57"/>
+      <c r="BX26" s="57"/>
+      <c r="BY26" s="57"/>
+      <c r="BZ26" s="60"/>
+      <c r="CA26" s="60"/>
+      <c r="CB26" s="60"/>
     </row>
     <row r="27" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C27" s="24">
+      <c r="C27" s="25">
         <f t="shared" si="72"/>
         <v>193</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="25">
         <f t="shared" si="57"/>
         <v>194</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="25">
         <f t="shared" si="58"/>
         <v>195</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="32">
         <f t="shared" si="59"/>
         <v>196</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="34">
         <f t="shared" si="60"/>
         <v>197</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="33">
         <f t="shared" si="61"/>
         <v>198</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="35">
         <f t="shared" si="62"/>
         <v>199</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="36">
         <f t="shared" si="63"/>
         <v>200</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="35">
         <f t="shared" si="64"/>
         <v>201</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="33">
         <f t="shared" si="65"/>
         <v>202</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="32">
         <f t="shared" si="66"/>
         <v>203</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="32">
         <f t="shared" si="67"/>
         <v>204</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="25">
         <f t="shared" si="68"/>
         <v>205</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="25">
         <f t="shared" si="69"/>
         <v>206</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="25">
         <f t="shared" si="70"/>
         <v>207</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="25">
         <f t="shared" si="71"/>
         <v>208</v>
       </c>
@@ -6336,14 +6348,14 @@
       <c r="AO27"/>
       <c r="AP27"/>
       <c r="AQ27"/>
-      <c r="AT27" s="43">
+      <c r="AT27" s="45">
         <v>4</v>
       </c>
-      <c r="AU27" s="23" t="str">
+      <c r="AU27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>04</v>
       </c>
-      <c r="AV27" s="23" t="str">
+      <c r="AV27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>14</v>
       </c>
@@ -6351,15 +6363,15 @@
         <f t="shared" si="73"/>
         <v>24</v>
       </c>
-      <c r="AX27" s="23" t="str">
+      <c r="AX27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>34</v>
       </c>
-      <c r="AY27" s="23" t="str">
+      <c r="AY27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>44</v>
       </c>
-      <c r="AZ27" s="23" t="str">
+      <c r="AZ27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>54</v>
       </c>
@@ -6367,133 +6379,133 @@
         <f t="shared" si="73"/>
         <v>64</v>
       </c>
-      <c r="BB27" s="23" t="str">
+      <c r="BB27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>74</v>
       </c>
-      <c r="BC27" s="23" t="str">
+      <c r="BC27" s="24" t="str">
         <f t="shared" si="73"/>
         <v>84</v>
       </c>
-      <c r="BE27" s="47" t="s">
+      <c r="BE27" s="49" t="s">
         <v>34</v>
       </c>
       <c r="BF27"/>
-      <c r="BG27" s="50" t="s">
+      <c r="BG27" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="BH27" s="52">
+      <c r="BH27" s="54">
         <v>36</v>
       </c>
-      <c r="BI27" s="52">
+      <c r="BI27" s="54">
         <f t="shared" si="75"/>
         <v>37</v>
       </c>
-      <c r="BJ27" s="52">
+      <c r="BJ27" s="54">
         <f t="shared" si="75"/>
         <v>38</v>
       </c>
-      <c r="BK27" s="55">
+      <c r="BK27" s="57">
         <f t="shared" si="75"/>
         <v>39</v>
       </c>
-      <c r="BL27" s="55">
+      <c r="BL27" s="57">
         <f t="shared" si="75"/>
         <v>40</v>
       </c>
-      <c r="BM27" s="55">
+      <c r="BM27" s="57">
         <f t="shared" si="75"/>
         <v>41</v>
       </c>
-      <c r="BN27" s="58">
+      <c r="BN27" s="60">
         <f t="shared" si="75"/>
         <v>42</v>
       </c>
-      <c r="BO27" s="58">
+      <c r="BO27" s="60">
         <f t="shared" si="75"/>
         <v>43</v>
       </c>
-      <c r="BP27" s="58">
+      <c r="BP27" s="60">
         <f t="shared" si="75"/>
         <v>44</v>
       </c>
       <c r="BQ27"/>
       <c r="BR27"/>
-      <c r="BS27" s="50">
+      <c r="BS27" s="52">
         <v>4</v>
       </c>
-      <c r="BT27" s="52"/>
-      <c r="BU27" s="52"/>
-      <c r="BV27" s="52"/>
-      <c r="BW27" s="55"/>
-      <c r="BX27" s="55"/>
-      <c r="BY27" s="55"/>
-      <c r="BZ27" s="58"/>
-      <c r="CA27" s="58"/>
-      <c r="CB27" s="58"/>
+      <c r="BT27" s="54"/>
+      <c r="BU27" s="54"/>
+      <c r="BV27" s="54"/>
+      <c r="BW27" s="57"/>
+      <c r="BX27" s="57"/>
+      <c r="BY27" s="57"/>
+      <c r="BZ27" s="60"/>
+      <c r="CA27" s="60"/>
+      <c r="CB27" s="60"/>
     </row>
     <row r="28" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C28" s="24">
+      <c r="C28" s="25">
         <f t="shared" si="72"/>
         <v>209</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="25">
         <f t="shared" si="57"/>
         <v>210</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="25">
         <f t="shared" si="58"/>
         <v>211</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="25">
         <f t="shared" si="59"/>
         <v>212</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="25">
         <f t="shared" si="60"/>
         <v>213</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="25">
         <f t="shared" si="61"/>
         <v>214</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="25">
         <f t="shared" si="62"/>
         <v>215</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="25">
         <f t="shared" si="63"/>
         <v>216</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="25">
         <f t="shared" si="64"/>
         <v>217</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="25">
         <f t="shared" si="65"/>
         <v>218</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="25">
         <f t="shared" si="66"/>
         <v>219</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="25">
         <f t="shared" si="67"/>
         <v>220</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="25">
         <f t="shared" si="68"/>
         <v>221</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="25">
         <f t="shared" si="69"/>
         <v>222</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="25">
         <f t="shared" si="70"/>
         <v>223</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="25">
         <f t="shared" si="71"/>
         <v>224</v>
       </c>
@@ -6522,164 +6534,164 @@
       <c r="AO28"/>
       <c r="AP28"/>
       <c r="AQ28"/>
-      <c r="AT28" s="43">
+      <c r="AT28" s="45">
         <v>3</v>
       </c>
-      <c r="AU28" s="23" t="str">
+      <c r="AU28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>03</v>
       </c>
-      <c r="AV28" s="23" t="str">
+      <c r="AV28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>13</v>
       </c>
-      <c r="AW28" s="23" t="str">
+      <c r="AW28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>23</v>
       </c>
-      <c r="AX28" s="23" t="str">
+      <c r="AX28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>33</v>
       </c>
-      <c r="AY28" s="23" t="str">
+      <c r="AY28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>43</v>
       </c>
-      <c r="AZ28" s="23" t="str">
+      <c r="AZ28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>53</v>
       </c>
-      <c r="BA28" s="23" t="str">
+      <c r="BA28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>63</v>
       </c>
-      <c r="BB28" s="23" t="str">
+      <c r="BB28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>73</v>
       </c>
-      <c r="BC28" s="23" t="str">
+      <c r="BC28" s="24" t="str">
         <f t="shared" si="73"/>
         <v>83</v>
       </c>
-      <c r="BE28" s="47" t="s">
+      <c r="BE28" s="49" t="s">
         <v>35</v>
       </c>
       <c r="BF28"/>
-      <c r="BG28" s="50" t="s">
+      <c r="BG28" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="BH28" s="52">
+      <c r="BH28" s="54">
         <v>45</v>
       </c>
-      <c r="BI28" s="52">
+      <c r="BI28" s="54">
         <f t="shared" si="75"/>
         <v>46</v>
       </c>
-      <c r="BJ28" s="52">
+      <c r="BJ28" s="54">
         <f t="shared" si="75"/>
         <v>47</v>
       </c>
-      <c r="BK28" s="55">
+      <c r="BK28" s="57">
         <f t="shared" si="75"/>
         <v>48</v>
       </c>
-      <c r="BL28" s="55">
+      <c r="BL28" s="57">
         <f t="shared" si="75"/>
         <v>49</v>
       </c>
-      <c r="BM28" s="55">
+      <c r="BM28" s="57">
         <f t="shared" si="75"/>
         <v>50</v>
       </c>
-      <c r="BN28" s="58">
+      <c r="BN28" s="60">
         <f t="shared" si="75"/>
         <v>51</v>
       </c>
-      <c r="BO28" s="58">
+      <c r="BO28" s="60">
         <f t="shared" si="75"/>
         <v>52</v>
       </c>
-      <c r="BP28" s="58">
+      <c r="BP28" s="60">
         <f t="shared" si="75"/>
         <v>53</v>
       </c>
       <c r="BQ28"/>
       <c r="BR28"/>
-      <c r="BS28" s="50">
+      <c r="BS28" s="52">
         <v>5</v>
       </c>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="55"/>
-      <c r="BX28" s="55"/>
-      <c r="BY28" s="55"/>
-      <c r="BZ28" s="58"/>
-      <c r="CA28" s="58"/>
-      <c r="CB28" s="58"/>
+      <c r="BT28" s="54"/>
+      <c r="BU28" s="54"/>
+      <c r="BV28" s="54"/>
+      <c r="BW28" s="57"/>
+      <c r="BX28" s="57"/>
+      <c r="BY28" s="57"/>
+      <c r="BZ28" s="60"/>
+      <c r="CA28" s="60"/>
+      <c r="CB28" s="60"/>
     </row>
     <row r="29" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C29" s="24">
+      <c r="C29" s="25">
         <f t="shared" si="72"/>
         <v>225</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="25">
         <f t="shared" si="57"/>
         <v>226</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="25">
         <f t="shared" si="58"/>
         <v>227</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="25">
         <f t="shared" si="59"/>
         <v>228</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="25">
         <f t="shared" si="60"/>
         <v>229</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="25">
         <f t="shared" si="61"/>
         <v>230</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="25">
         <f t="shared" si="62"/>
         <v>231</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="25">
         <f t="shared" si="63"/>
         <v>232</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="25">
         <f t="shared" si="64"/>
         <v>233</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="25">
         <f t="shared" si="65"/>
         <v>234</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="25">
         <f t="shared" si="66"/>
         <v>235</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="25">
         <f t="shared" si="67"/>
         <v>236</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="25">
         <f t="shared" si="68"/>
         <v>237</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="25">
         <f t="shared" si="69"/>
         <v>238</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="25">
         <f t="shared" si="70"/>
         <v>239</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="25">
         <f t="shared" si="71"/>
         <v>240</v>
       </c>
@@ -6708,38 +6720,38 @@
       <c r="AO29"/>
       <c r="AP29"/>
       <c r="AQ29"/>
-      <c r="AT29" s="43">
+      <c r="AT29" s="45">
         <v>2</v>
       </c>
       <c r="AU29" s="21" t="str">
         <f t="shared" si="73"/>
         <v>02</v>
       </c>
-      <c r="AV29" s="23" t="str">
+      <c r="AV29" s="24" t="str">
         <f t="shared" si="73"/>
         <v>12</v>
       </c>
-      <c r="AW29" s="23" t="str">
+      <c r="AW29" s="24" t="str">
         <f t="shared" si="73"/>
         <v>22</v>
       </c>
-      <c r="AX29" s="37" t="str">
+      <c r="AX29" s="39" t="str">
         <f t="shared" si="73"/>
         <v>32</v>
       </c>
-      <c r="AY29" s="38" t="str">
+      <c r="AY29" s="40" t="str">
         <f t="shared" si="73"/>
         <v>42</v>
       </c>
-      <c r="AZ29" s="37" t="str">
+      <c r="AZ29" s="39" t="str">
         <f t="shared" si="73"/>
         <v>52</v>
       </c>
-      <c r="BA29" s="23" t="str">
+      <c r="BA29" s="24" t="str">
         <f t="shared" si="73"/>
         <v>62</v>
       </c>
-      <c r="BB29" s="23" t="str">
+      <c r="BB29" s="24" t="str">
         <f t="shared" si="73"/>
         <v>72</v>
       </c>
@@ -6747,125 +6759,125 @@
         <f t="shared" si="73"/>
         <v>82</v>
       </c>
-      <c r="BE29" s="47" t="s">
+      <c r="BE29" s="49" t="s">
         <v>36</v>
       </c>
       <c r="BF29"/>
-      <c r="BG29" s="50" t="s">
+      <c r="BG29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BH29" s="53">
+      <c r="BH29" s="55">
         <v>54</v>
       </c>
-      <c r="BI29" s="53">
+      <c r="BI29" s="55">
         <f t="shared" si="75"/>
         <v>55</v>
       </c>
-      <c r="BJ29" s="53">
+      <c r="BJ29" s="55">
         <f t="shared" si="75"/>
         <v>56</v>
       </c>
-      <c r="BK29" s="56">
+      <c r="BK29" s="58">
         <f t="shared" si="75"/>
         <v>57</v>
       </c>
-      <c r="BL29" s="56">
+      <c r="BL29" s="58">
         <f t="shared" si="75"/>
         <v>58</v>
       </c>
-      <c r="BM29" s="56">
+      <c r="BM29" s="58">
         <f t="shared" si="75"/>
         <v>59</v>
       </c>
-      <c r="BN29" s="59">
+      <c r="BN29" s="61">
         <f t="shared" si="75"/>
         <v>60</v>
       </c>
-      <c r="BO29" s="59">
+      <c r="BO29" s="61">
         <f t="shared" si="75"/>
         <v>61</v>
       </c>
-      <c r="BP29" s="59">
+      <c r="BP29" s="61">
         <f t="shared" si="75"/>
         <v>62</v>
       </c>
       <c r="BQ29"/>
       <c r="BR29"/>
-      <c r="BS29" s="50">
+      <c r="BS29" s="52">
         <v>6</v>
       </c>
-      <c r="BT29" s="53"/>
-      <c r="BU29" s="53"/>
-      <c r="BV29" s="53"/>
-      <c r="BW29" s="56"/>
-      <c r="BX29" s="56"/>
-      <c r="BY29" s="56"/>
-      <c r="BZ29" s="59"/>
-      <c r="CA29" s="59"/>
-      <c r="CB29" s="59"/>
+      <c r="BT29" s="55"/>
+      <c r="BU29" s="55"/>
+      <c r="BV29" s="55"/>
+      <c r="BW29" s="58"/>
+      <c r="BX29" s="58"/>
+      <c r="BY29" s="58"/>
+      <c r="BZ29" s="61"/>
+      <c r="CA29" s="61"/>
+      <c r="CB29" s="61"/>
     </row>
     <row r="30" s="14" customFormat="1" customHeight="1" spans="3:80">
-      <c r="C30" s="24">
+      <c r="C30" s="25">
         <f t="shared" si="72"/>
         <v>241</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="25">
         <f t="shared" si="57"/>
         <v>242</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="25">
         <f t="shared" si="58"/>
         <v>243</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="25">
         <f t="shared" si="59"/>
         <v>244</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="25">
         <f t="shared" si="60"/>
         <v>245</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="25">
         <f t="shared" si="61"/>
         <v>246</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="25">
         <f t="shared" si="62"/>
         <v>247</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="25">
         <f t="shared" si="63"/>
         <v>248</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="25">
         <f t="shared" si="64"/>
         <v>249</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="25">
         <f t="shared" si="65"/>
         <v>250</v>
       </c>
-      <c r="M30" s="24">
+      <c r="M30" s="25">
         <f t="shared" si="66"/>
         <v>251</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="25">
         <f t="shared" si="67"/>
         <v>252</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="25">
         <f t="shared" si="68"/>
         <v>253</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="25">
         <f t="shared" si="69"/>
         <v>254</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="25">
         <f t="shared" si="70"/>
         <v>255</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="25">
         <f t="shared" si="71"/>
         <v>256</v>
       </c>
@@ -6894,111 +6906,111 @@
       <c r="AO30"/>
       <c r="AP30"/>
       <c r="AQ30"/>
-      <c r="AT30" s="43">
+      <c r="AT30" s="45">
         <v>1</v>
       </c>
-      <c r="AU30" s="23" t="str">
+      <c r="AU30" s="24" t="str">
         <f t="shared" si="73"/>
         <v>01</v>
       </c>
-      <c r="AV30" s="23" t="str">
+      <c r="AV30" s="24" t="str">
         <f t="shared" si="73"/>
         <v>11</v>
       </c>
-      <c r="AW30" s="23" t="str">
+      <c r="AW30" s="24" t="str">
         <f t="shared" si="73"/>
         <v>21</v>
       </c>
-      <c r="AX30" s="27" t="str">
+      <c r="AX30" s="29" t="str">
         <f t="shared" si="73"/>
         <v>31</v>
       </c>
-      <c r="AY30" s="37" t="str">
+      <c r="AY30" s="39" t="str">
         <f t="shared" si="73"/>
         <v>41</v>
       </c>
-      <c r="AZ30" s="27" t="str">
+      <c r="AZ30" s="29" t="str">
         <f t="shared" si="73"/>
         <v>51</v>
       </c>
-      <c r="BA30" s="23" t="str">
+      <c r="BA30" s="24" t="str">
         <f t="shared" si="73"/>
         <v>61</v>
       </c>
-      <c r="BB30" s="23" t="str">
+      <c r="BB30" s="24" t="str">
         <f t="shared" si="73"/>
         <v>71</v>
       </c>
-      <c r="BC30" s="23" t="str">
+      <c r="BC30" s="24" t="str">
         <f t="shared" si="73"/>
         <v>81</v>
       </c>
-      <c r="BE30" s="47" t="s">
+      <c r="BE30" s="49" t="s">
         <v>37</v>
       </c>
       <c r="BF30"/>
-      <c r="BG30" s="50" t="s">
+      <c r="BG30" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="BH30" s="53">
+      <c r="BH30" s="55">
         <v>63</v>
       </c>
-      <c r="BI30" s="53">
+      <c r="BI30" s="55">
         <f t="shared" si="75"/>
         <v>64</v>
       </c>
-      <c r="BJ30" s="53">
+      <c r="BJ30" s="55">
         <f t="shared" si="75"/>
         <v>65</v>
       </c>
-      <c r="BK30" s="56">
+      <c r="BK30" s="58">
         <f t="shared" si="75"/>
         <v>66</v>
       </c>
-      <c r="BL30" s="56">
+      <c r="BL30" s="58">
         <f t="shared" si="75"/>
         <v>67</v>
       </c>
-      <c r="BM30" s="56">
+      <c r="BM30" s="58">
         <f t="shared" si="75"/>
         <v>68</v>
       </c>
-      <c r="BN30" s="59">
+      <c r="BN30" s="61">
         <f t="shared" si="75"/>
         <v>69</v>
       </c>
-      <c r="BO30" s="59">
+      <c r="BO30" s="61">
         <f t="shared" si="75"/>
         <v>70</v>
       </c>
-      <c r="BP30" s="59">
+      <c r="BP30" s="61">
         <f t="shared" si="75"/>
         <v>71</v>
       </c>
       <c r="BQ30"/>
       <c r="BR30"/>
-      <c r="BS30" s="50">
+      <c r="BS30" s="52">
         <v>7</v>
       </c>
-      <c r="BT30" s="53"/>
-      <c r="BU30" s="53"/>
-      <c r="BV30" s="53"/>
-      <c r="BW30" s="56"/>
-      <c r="BX30" s="56"/>
-      <c r="BY30" s="56"/>
-      <c r="BZ30" s="59"/>
-      <c r="CA30" s="59"/>
-      <c r="CB30" s="59"/>
+      <c r="BT30" s="55"/>
+      <c r="BU30" s="55"/>
+      <c r="BV30" s="55"/>
+      <c r="BW30" s="58"/>
+      <c r="BX30" s="58"/>
+      <c r="BY30" s="58"/>
+      <c r="BZ30" s="61"/>
+      <c r="CA30" s="61"/>
+      <c r="CB30" s="61"/>
     </row>
     <row r="31" customHeight="1" spans="46:80">
-      <c r="AT31" s="43">
+      <c r="AT31" s="45">
         <v>0</v>
       </c>
-      <c r="AU31" s="23" t="str">
+      <c r="AU31" s="24" t="str">
         <f t="shared" si="73"/>
         <v>00</v>
       </c>
-      <c r="AV31" s="36" t="str">
+      <c r="AV31" s="38" t="str">
         <f t="shared" si="73"/>
         <v>10</v>
       </c>
@@ -7006,15 +7018,15 @@
         <f t="shared" si="73"/>
         <v>20</v>
       </c>
-      <c r="AX31" s="37" t="str">
+      <c r="AX31" s="39" t="str">
         <f t="shared" si="73"/>
         <v>30</v>
       </c>
-      <c r="AY31" s="27" t="str">
+      <c r="AY31" s="29" t="str">
         <f t="shared" si="73"/>
         <v>40</v>
       </c>
-      <c r="AZ31" s="37" t="str">
+      <c r="AZ31" s="39" t="str">
         <f t="shared" si="73"/>
         <v>50</v>
       </c>
@@ -7022,95 +7034,95 @@
         <f t="shared" si="73"/>
         <v>60</v>
       </c>
-      <c r="BB31" s="23" t="str">
+      <c r="BB31" s="24" t="str">
         <f t="shared" si="73"/>
         <v>70</v>
       </c>
-      <c r="BC31" s="23" t="str">
+      <c r="BC31" s="24" t="str">
         <f t="shared" si="73"/>
         <v>80</v>
       </c>
-      <c r="BE31" s="47"/>
-      <c r="BG31" s="50" t="s">
+      <c r="BE31" s="49"/>
+      <c r="BG31" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="BH31" s="53">
+      <c r="BH31" s="55">
         <v>72</v>
       </c>
-      <c r="BI31" s="53">
+      <c r="BI31" s="55">
         <f t="shared" si="75"/>
         <v>73</v>
       </c>
-      <c r="BJ31" s="53">
+      <c r="BJ31" s="55">
         <f t="shared" si="75"/>
         <v>74</v>
       </c>
-      <c r="BK31" s="56">
+      <c r="BK31" s="58">
         <f t="shared" si="75"/>
         <v>75</v>
       </c>
-      <c r="BL31" s="56">
+      <c r="BL31" s="58">
         <f t="shared" si="75"/>
         <v>76</v>
       </c>
-      <c r="BM31" s="56">
+      <c r="BM31" s="58">
         <f t="shared" si="75"/>
         <v>77</v>
       </c>
-      <c r="BN31" s="59">
+      <c r="BN31" s="61">
         <f t="shared" si="75"/>
         <v>78</v>
       </c>
-      <c r="BO31" s="59">
+      <c r="BO31" s="61">
         <f t="shared" si="75"/>
         <v>79</v>
       </c>
-      <c r="BP31" s="59">
+      <c r="BP31" s="61">
         <f t="shared" si="75"/>
         <v>80</v>
       </c>
-      <c r="BS31" s="50">
+      <c r="BS31" s="52">
         <v>8</v>
       </c>
-      <c r="BT31" s="53"/>
-      <c r="BU31" s="53"/>
-      <c r="BV31" s="53"/>
-      <c r="BW31" s="56"/>
-      <c r="BX31" s="56"/>
-      <c r="BY31" s="56"/>
-      <c r="BZ31" s="59"/>
-      <c r="CA31" s="59"/>
-      <c r="CB31" s="59"/>
+      <c r="BT31" s="55"/>
+      <c r="BU31" s="55"/>
+      <c r="BV31" s="55"/>
+      <c r="BW31" s="58"/>
+      <c r="BX31" s="58"/>
+      <c r="BY31" s="58"/>
+      <c r="BZ31" s="61"/>
+      <c r="CA31" s="61"/>
+      <c r="CB31" s="61"/>
     </row>
     <row r="32" customHeight="1" spans="46:55">
-      <c r="AT32" s="42" t="s">
+      <c r="AT32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AU32" s="43">
+      <c r="AU32" s="45">
         <v>0</v>
       </c>
-      <c r="AV32" s="43">
+      <c r="AV32" s="45">
         <v>1</v>
       </c>
-      <c r="AW32" s="43">
+      <c r="AW32" s="45">
         <v>2</v>
       </c>
-      <c r="AX32" s="43">
+      <c r="AX32" s="45">
         <v>3</v>
       </c>
-      <c r="AY32" s="43">
+      <c r="AY32" s="45">
         <v>4</v>
       </c>
-      <c r="AZ32" s="43">
+      <c r="AZ32" s="45">
         <v>5</v>
       </c>
-      <c r="BA32" s="43">
+      <c r="BA32" s="45">
         <v>6</v>
       </c>
-      <c r="BB32" s="43">
+      <c r="BB32" s="45">
         <v>7</v>
       </c>
-      <c r="BC32" s="43">
+      <c r="BC32" s="45">
         <v>8</v>
       </c>
     </row>
@@ -7118,16 +7130,16 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="AU33" s="43"/>
-      <c r="AV33" s="43"/>
-      <c r="AW33" s="43"/>
-      <c r="AX33" s="43"/>
-      <c r="AY33" s="43"/>
-      <c r="AZ33" s="43"/>
-      <c r="BA33" s="43"/>
-      <c r="BB33" s="43"/>
-      <c r="BC33" s="43"/>
-      <c r="BE33" s="47" t="s">
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
+      <c r="AW33" s="45"/>
+      <c r="AX33" s="45"/>
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="45"/>
+      <c r="BA33" s="45"/>
+      <c r="BB33" s="45"/>
+      <c r="BC33" s="45"/>
+      <c r="BE33" s="49" t="s">
         <v>39</v>
       </c>
       <c r="BH33" t="s">
@@ -7138,7 +7150,7 @@
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="BE34" s="47" t="s">
+      <c r="BE34" s="49" t="s">
         <v>39</v>
       </c>
       <c r="BH34" t="s">

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\BitChess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
-    <sheet name="cc" sheetId="1" r:id="rId1"/>
-    <sheet name="shudu" sheetId="2" r:id="rId2"/>
+    <sheet name="bitChess" sheetId="3" r:id="rId1"/>
+    <sheet name="cc" sheetId="1" r:id="rId2"/>
+    <sheet name="shudu" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>A</t>
   </si>
@@ -265,18 +271,77 @@
   <si>
     <t xml:space="preserve">        # 边框粗线</t>
   </si>
+  <si>
+    <t>Rook：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>row@</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndex</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证标黄0的布局唯一性</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>∑</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>左组合个数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>右组合个数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>按行索引</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>按列索引</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,18 +353,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,11 +375,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -319,6 +389,7 @@
       <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -326,18 +397,21 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -345,6 +419,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,6 +427,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -359,161 +435,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,19 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,258 +512,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -848,67 +634,77 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,185 +713,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,62 +924,136 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1624,26 +1340,3938 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK27" sqref="AK27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="19" width="4.25" style="43"/>
+    <col min="20" max="20" width="4.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.25" style="43"/>
+    <col min="23" max="23" width="4.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.25" style="43"/>
+    <col min="28" max="28" width="4.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="4.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
+        <v>2</v>
+      </c>
+      <c r="E2" s="71">
+        <v>3</v>
+      </c>
+      <c r="F2" s="72">
+        <v>4</v>
+      </c>
+      <c r="G2" s="71">
+        <v>5</v>
+      </c>
+      <c r="H2" s="70">
+        <v>6</v>
+      </c>
+      <c r="I2" s="73">
+        <v>7</v>
+      </c>
+      <c r="J2" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="75">
+        <f t="shared" ref="B3:J11" si="0">B2+9</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="62">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="62">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="63">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="64">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G3" s="63">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="62">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J3" s="76">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="77">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C4" s="62">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="62">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="64">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="65">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G4" s="64">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H4" s="62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="62">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J4" s="78">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="79">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C5" s="62">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="66">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="62">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="66">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="62">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H5" s="66">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I5" s="62">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J5" s="80">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="75">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="62">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="65">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E6" s="62">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="62">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H6" s="65">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="62">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J6" s="76">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="81">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C7" s="67">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D7" s="65">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E7" s="67">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F7" s="67">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G7" s="67">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="65">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="67">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="82">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="79">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C8" s="67">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D8" s="66">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E8" s="67">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F8" s="66">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G8" s="67">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H8" s="66">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I8" s="67">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="J8" s="80">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="77">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C9" s="67">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E9" s="64">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F9" s="65">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G9" s="64">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H9" s="67">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I9" s="67">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J9" s="78">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="81">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C10" s="67">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="D10" s="67">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E10" s="63">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F10" s="64">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G10" s="63">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="H10" s="67">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I10" s="67">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="J10" s="82">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="83">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C11" s="84">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D11" s="85">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E11" s="86">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F11" s="87">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G11" s="86">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="H11" s="85">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="I11" s="88">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="J11" s="89">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y13" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE13" s="90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="43">
+        <v>1</v>
+      </c>
+      <c r="K14" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="X14" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z14" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE14" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF14" s="43">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="92">
+        <v>1</v>
+      </c>
+      <c r="C15" s="92">
+        <v>1</v>
+      </c>
+      <c r="D15" s="95">
+        <v>1</v>
+      </c>
+      <c r="E15" s="95">
+        <v>1</v>
+      </c>
+      <c r="F15" s="95">
+        <v>1</v>
+      </c>
+      <c r="G15" s="95">
+        <v>1</v>
+      </c>
+      <c r="H15" s="95">
+        <v>1</v>
+      </c>
+      <c r="I15" s="95">
+        <v>1</v>
+      </c>
+      <c r="J15" s="95">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43">
+        <v>0</v>
+      </c>
+      <c r="P15" s="97">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="97">
+        <v>9</v>
+      </c>
+      <c r="S15" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="97">
+        <f>P15*R15</f>
+        <v>9</v>
+      </c>
+      <c r="X15" s="97">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" s="97">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB15" s="97">
+        <f>X15*Z15</f>
+        <v>10</v>
+      </c>
+      <c r="AE15" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF15" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="95">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="92">
+        <v>1</v>
+      </c>
+      <c r="C16" s="93">
+        <v>0</v>
+      </c>
+      <c r="D16" s="92">
+        <v>1</v>
+      </c>
+      <c r="E16" s="95">
+        <v>1</v>
+      </c>
+      <c r="F16" s="95">
+        <v>1</v>
+      </c>
+      <c r="G16" s="95">
+        <v>1</v>
+      </c>
+      <c r="H16" s="95">
+        <v>1</v>
+      </c>
+      <c r="I16" s="95">
+        <v>1</v>
+      </c>
+      <c r="J16" s="95">
+        <v>1</v>
+      </c>
+      <c r="K16" s="43">
+        <v>1</v>
+      </c>
+      <c r="P16" s="97">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="97">
+        <v>8</v>
+      </c>
+      <c r="S16" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="97">
+        <f t="shared" ref="T16:T23" si="1">P16*R16</f>
+        <v>16</v>
+      </c>
+      <c r="X16" s="97">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" s="97">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB16" s="97">
+        <f t="shared" ref="AB16:AB24" si="2">X16*Z16</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="92">
+        <v>1</v>
+      </c>
+      <c r="C17" s="93">
+        <v>0</v>
+      </c>
+      <c r="D17" s="93">
+        <v>0</v>
+      </c>
+      <c r="E17" s="92">
+        <v>1</v>
+      </c>
+      <c r="F17" s="95">
+        <v>1</v>
+      </c>
+      <c r="G17" s="95">
+        <v>1</v>
+      </c>
+      <c r="H17" s="95">
+        <v>1</v>
+      </c>
+      <c r="I17" s="95">
+        <v>1</v>
+      </c>
+      <c r="J17" s="95">
+        <v>1</v>
+      </c>
+      <c r="K17" s="43">
+        <v>2</v>
+      </c>
+      <c r="P17" s="97">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="97">
+        <v>7</v>
+      </c>
+      <c r="S17" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="97">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X17" s="97">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z17" s="97">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB17" s="97">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AF17" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="95">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="92">
+        <v>1</v>
+      </c>
+      <c r="C18" s="93">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="93">
+        <v>0</v>
+      </c>
+      <c r="F18" s="92">
+        <v>1</v>
+      </c>
+      <c r="G18" s="95">
+        <v>1</v>
+      </c>
+      <c r="H18" s="95">
+        <v>1</v>
+      </c>
+      <c r="I18" s="95">
+        <v>1</v>
+      </c>
+      <c r="J18" s="95">
+        <v>1</v>
+      </c>
+      <c r="K18" s="43">
+        <v>3</v>
+      </c>
+      <c r="P18" s="97">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="97">
+        <v>6</v>
+      </c>
+      <c r="S18" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="97">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="X18" s="97">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z18" s="97">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB18" s="97">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AF18" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="95">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="92">
+        <v>1</v>
+      </c>
+      <c r="C19" s="93">
+        <v>0</v>
+      </c>
+      <c r="D19" s="93">
+        <v>0</v>
+      </c>
+      <c r="E19" s="93">
+        <v>0</v>
+      </c>
+      <c r="F19" s="93">
+        <v>0</v>
+      </c>
+      <c r="G19" s="92">
+        <v>1</v>
+      </c>
+      <c r="H19" s="95">
+        <v>1</v>
+      </c>
+      <c r="I19" s="95">
+        <v>1</v>
+      </c>
+      <c r="J19" s="95">
+        <v>1</v>
+      </c>
+      <c r="K19" s="43">
+        <v>4</v>
+      </c>
+      <c r="P19" s="97">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="97">
+        <v>5</v>
+      </c>
+      <c r="S19" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="97">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="X19" s="97">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19" s="97">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB19" s="97">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="92">
+        <v>1</v>
+      </c>
+      <c r="C20" s="93">
+        <v>0</v>
+      </c>
+      <c r="D20" s="93">
+        <v>0</v>
+      </c>
+      <c r="E20" s="93">
+        <v>0</v>
+      </c>
+      <c r="F20" s="93">
+        <v>0</v>
+      </c>
+      <c r="G20" s="93">
+        <v>0</v>
+      </c>
+      <c r="H20" s="92">
+        <v>1</v>
+      </c>
+      <c r="I20" s="95">
+        <v>1</v>
+      </c>
+      <c r="J20" s="95">
+        <v>1</v>
+      </c>
+      <c r="K20" s="43">
+        <v>5</v>
+      </c>
+      <c r="P20" s="97">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="97">
+        <v>4</v>
+      </c>
+      <c r="S20" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="97">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="X20" s="97">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20" s="97">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB20" s="97">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AF20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="92">
+        <v>1</v>
+      </c>
+      <c r="C21" s="93">
+        <v>0</v>
+      </c>
+      <c r="D21" s="93">
+        <v>0</v>
+      </c>
+      <c r="E21" s="93">
+        <v>0</v>
+      </c>
+      <c r="F21" s="93">
+        <v>0</v>
+      </c>
+      <c r="G21" s="93">
+        <v>0</v>
+      </c>
+      <c r="H21" s="93">
+        <v>0</v>
+      </c>
+      <c r="I21" s="92">
+        <v>1</v>
+      </c>
+      <c r="J21" s="95">
+        <v>1</v>
+      </c>
+      <c r="K21" s="43">
+        <v>6</v>
+      </c>
+      <c r="P21" s="97">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="97">
+        <v>3</v>
+      </c>
+      <c r="S21" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T21" s="97">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X21" s="97">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21" s="97">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB21" s="97">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AF21" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="92">
+        <v>1</v>
+      </c>
+      <c r="C22" s="93">
+        <v>0</v>
+      </c>
+      <c r="D22" s="93">
+        <v>0</v>
+      </c>
+      <c r="E22" s="93">
+        <v>0</v>
+      </c>
+      <c r="F22" s="93">
+        <v>0</v>
+      </c>
+      <c r="G22" s="93">
+        <v>0</v>
+      </c>
+      <c r="H22" s="93">
+        <v>0</v>
+      </c>
+      <c r="I22" s="93">
+        <v>0</v>
+      </c>
+      <c r="J22" s="92">
+        <v>1</v>
+      </c>
+      <c r="K22" s="43">
+        <v>7</v>
+      </c>
+      <c r="P22" s="97">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="97">
+        <v>2</v>
+      </c>
+      <c r="S22" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="97">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="X22" s="97">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22" s="97">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB22" s="97">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AF22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="92">
+        <v>1</v>
+      </c>
+      <c r="C23" s="93">
+        <v>0</v>
+      </c>
+      <c r="D23" s="93">
+        <v>0</v>
+      </c>
+      <c r="E23" s="93">
+        <v>0</v>
+      </c>
+      <c r="F23" s="93">
+        <v>0</v>
+      </c>
+      <c r="G23" s="93">
+        <v>0</v>
+      </c>
+      <c r="H23" s="93">
+        <v>0</v>
+      </c>
+      <c r="I23" s="93">
+        <v>0</v>
+      </c>
+      <c r="J23" s="93">
+        <v>0</v>
+      </c>
+      <c r="K23" s="43">
+        <v>8</v>
+      </c>
+      <c r="P23" s="97">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="97">
+        <v>1</v>
+      </c>
+      <c r="S23" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="97">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="X23" s="97">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" s="97">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB23" s="97">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AF23" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="43">
+        <v>1</v>
+      </c>
+      <c r="K24" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="99">
+        <f>SUM(T15:T23)</f>
+        <v>165</v>
+      </c>
+      <c r="X24" s="97">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24" s="97">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB24" s="97">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE24" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF24" s="43">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="90"/>
+      <c r="B25" s="92">
+        <v>1</v>
+      </c>
+      <c r="C25" s="92">
+        <v>1</v>
+      </c>
+      <c r="D25" s="92">
+        <v>1</v>
+      </c>
+      <c r="E25" s="95">
+        <v>1</v>
+      </c>
+      <c r="F25" s="95">
+        <v>1</v>
+      </c>
+      <c r="G25" s="95">
+        <v>1</v>
+      </c>
+      <c r="H25" s="95">
+        <v>1</v>
+      </c>
+      <c r="I25" s="95">
+        <v>1</v>
+      </c>
+      <c r="J25" s="95">
+        <v>1</v>
+      </c>
+      <c r="K25" s="43">
+        <v>0</v>
+      </c>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB25" s="99">
+        <f>SUM(AB15:AB24)</f>
+        <v>220</v>
+      </c>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="95">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="92">
+        <v>1</v>
+      </c>
+      <c r="C26" s="92">
+        <v>1</v>
+      </c>
+      <c r="D26" s="93">
+        <v>0</v>
+      </c>
+      <c r="E26" s="92">
+        <v>1</v>
+      </c>
+      <c r="F26" s="95">
+        <v>1</v>
+      </c>
+      <c r="G26" s="95">
+        <v>1</v>
+      </c>
+      <c r="H26" s="95">
+        <v>1</v>
+      </c>
+      <c r="I26" s="95">
+        <v>1</v>
+      </c>
+      <c r="J26" s="95">
+        <v>1</v>
+      </c>
+      <c r="K26" s="43">
+        <v>1</v>
+      </c>
+      <c r="V26" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="W26" s="94">
+        <f>T24+AB25</f>
+        <v>385</v>
+      </c>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+    </row>
+    <row r="27" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="92">
+        <v>1</v>
+      </c>
+      <c r="C27" s="92">
+        <v>1</v>
+      </c>
+      <c r="D27" s="93">
+        <v>0</v>
+      </c>
+      <c r="E27" s="93">
+        <v>0</v>
+      </c>
+      <c r="F27" s="92">
+        <v>1</v>
+      </c>
+      <c r="G27" s="95">
+        <v>1</v>
+      </c>
+      <c r="H27" s="95">
+        <v>1</v>
+      </c>
+      <c r="I27" s="95">
+        <v>1</v>
+      </c>
+      <c r="J27" s="95">
+        <v>1</v>
+      </c>
+      <c r="K27" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="100"/>
+    </row>
+    <row r="28" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="92">
+        <v>1</v>
+      </c>
+      <c r="C28" s="92">
+        <v>1</v>
+      </c>
+      <c r="D28" s="93">
+        <v>0</v>
+      </c>
+      <c r="E28" s="93">
+        <v>0</v>
+      </c>
+      <c r="F28" s="93">
+        <v>0</v>
+      </c>
+      <c r="G28" s="92">
+        <v>1</v>
+      </c>
+      <c r="H28" s="95">
+        <v>1</v>
+      </c>
+      <c r="I28" s="95">
+        <v>1</v>
+      </c>
+      <c r="J28" s="95">
+        <v>1</v>
+      </c>
+      <c r="K28" s="43">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="95">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="92">
+        <v>1</v>
+      </c>
+      <c r="C29" s="92">
+        <v>1</v>
+      </c>
+      <c r="D29" s="93">
+        <v>0</v>
+      </c>
+      <c r="E29" s="93">
+        <v>0</v>
+      </c>
+      <c r="F29" s="93">
+        <v>0</v>
+      </c>
+      <c r="G29" s="93">
+        <v>0</v>
+      </c>
+      <c r="H29" s="92">
+        <v>1</v>
+      </c>
+      <c r="I29" s="95">
+        <v>1</v>
+      </c>
+      <c r="J29" s="95">
+        <v>1</v>
+      </c>
+      <c r="K29" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="95">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="92">
+        <v>1</v>
+      </c>
+      <c r="C30" s="92">
+        <v>1</v>
+      </c>
+      <c r="D30" s="93">
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
+        <v>0</v>
+      </c>
+      <c r="F30" s="93">
+        <v>0</v>
+      </c>
+      <c r="G30" s="93">
+        <v>0</v>
+      </c>
+      <c r="H30" s="93">
+        <v>0</v>
+      </c>
+      <c r="I30" s="92">
+        <v>1</v>
+      </c>
+      <c r="J30" s="95">
+        <v>1</v>
+      </c>
+      <c r="K30" s="43">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="95">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="92">
+        <v>1</v>
+      </c>
+      <c r="C31" s="92">
+        <v>1</v>
+      </c>
+      <c r="D31" s="93">
+        <v>0</v>
+      </c>
+      <c r="E31" s="93">
+        <v>0</v>
+      </c>
+      <c r="F31" s="93">
+        <v>0</v>
+      </c>
+      <c r="G31" s="93">
+        <v>0</v>
+      </c>
+      <c r="H31" s="93">
+        <v>0</v>
+      </c>
+      <c r="I31" s="93">
+        <v>0</v>
+      </c>
+      <c r="J31" s="92">
+        <v>1</v>
+      </c>
+      <c r="K31" s="43">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="95">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="92">
+        <v>1</v>
+      </c>
+      <c r="C32" s="92">
+        <v>1</v>
+      </c>
+      <c r="D32" s="93">
+        <v>0</v>
+      </c>
+      <c r="E32" s="93">
+        <v>0</v>
+      </c>
+      <c r="F32" s="93">
+        <v>0</v>
+      </c>
+      <c r="G32" s="93">
+        <v>0</v>
+      </c>
+      <c r="H32" s="93">
+        <v>0</v>
+      </c>
+      <c r="I32" s="93">
+        <v>0</v>
+      </c>
+      <c r="J32" s="93">
+        <v>0</v>
+      </c>
+      <c r="K32" s="43">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="43">
+        <v>8</v>
+      </c>
+      <c r="AF33" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="43">
+        <v>1</v>
+      </c>
+      <c r="K34" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="90"/>
+      <c r="B35" s="93">
+        <v>0</v>
+      </c>
+      <c r="C35" s="92">
+        <v>1</v>
+      </c>
+      <c r="D35" s="92">
+        <v>1</v>
+      </c>
+      <c r="E35" s="95">
+        <v>1</v>
+      </c>
+      <c r="F35" s="95">
+        <v>1</v>
+      </c>
+      <c r="G35" s="95">
+        <v>1</v>
+      </c>
+      <c r="H35" s="95">
+        <v>1</v>
+      </c>
+      <c r="I35" s="95">
+        <v>1</v>
+      </c>
+      <c r="J35" s="95">
+        <v>1</v>
+      </c>
+      <c r="K35" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="90"/>
+      <c r="B36" s="93">
+        <v>0</v>
+      </c>
+      <c r="C36" s="92">
+        <v>1</v>
+      </c>
+      <c r="D36" s="93">
+        <v>0</v>
+      </c>
+      <c r="E36" s="92">
+        <v>1</v>
+      </c>
+      <c r="F36" s="95">
+        <v>1</v>
+      </c>
+      <c r="G36" s="95">
+        <v>1</v>
+      </c>
+      <c r="H36" s="95">
+        <v>1</v>
+      </c>
+      <c r="I36" s="95">
+        <v>1</v>
+      </c>
+      <c r="J36" s="95">
+        <v>1</v>
+      </c>
+      <c r="K36" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="90"/>
+      <c r="B37" s="93">
+        <v>0</v>
+      </c>
+      <c r="C37" s="92">
+        <v>1</v>
+      </c>
+      <c r="D37" s="93">
+        <v>0</v>
+      </c>
+      <c r="E37" s="93">
+        <v>0</v>
+      </c>
+      <c r="F37" s="92">
+        <v>1</v>
+      </c>
+      <c r="G37" s="95">
+        <v>1</v>
+      </c>
+      <c r="H37" s="95">
+        <v>1</v>
+      </c>
+      <c r="I37" s="95">
+        <v>1</v>
+      </c>
+      <c r="J37" s="95">
+        <v>1</v>
+      </c>
+      <c r="K37" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="93">
+        <v>0</v>
+      </c>
+      <c r="C38" s="92">
+        <v>1</v>
+      </c>
+      <c r="D38" s="93">
+        <v>0</v>
+      </c>
+      <c r="E38" s="93">
+        <v>0</v>
+      </c>
+      <c r="F38" s="93">
+        <v>0</v>
+      </c>
+      <c r="G38" s="92">
+        <v>1</v>
+      </c>
+      <c r="H38" s="95">
+        <v>1</v>
+      </c>
+      <c r="I38" s="95">
+        <v>1</v>
+      </c>
+      <c r="J38" s="95">
+        <v>1</v>
+      </c>
+      <c r="K38" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="93">
+        <v>0</v>
+      </c>
+      <c r="C39" s="92">
+        <v>1</v>
+      </c>
+      <c r="D39" s="93">
+        <v>0</v>
+      </c>
+      <c r="E39" s="93">
+        <v>0</v>
+      </c>
+      <c r="F39" s="93">
+        <v>0</v>
+      </c>
+      <c r="G39" s="93">
+        <v>0</v>
+      </c>
+      <c r="H39" s="92">
+        <v>1</v>
+      </c>
+      <c r="I39" s="95">
+        <v>1</v>
+      </c>
+      <c r="J39" s="95">
+        <v>1</v>
+      </c>
+      <c r="K39" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="93">
+        <v>0</v>
+      </c>
+      <c r="C40" s="92">
+        <v>1</v>
+      </c>
+      <c r="D40" s="93">
+        <v>0</v>
+      </c>
+      <c r="E40" s="93">
+        <v>0</v>
+      </c>
+      <c r="F40" s="93">
+        <v>0</v>
+      </c>
+      <c r="G40" s="93">
+        <v>0</v>
+      </c>
+      <c r="H40" s="93">
+        <v>0</v>
+      </c>
+      <c r="I40" s="92">
+        <v>1</v>
+      </c>
+      <c r="J40" s="95">
+        <v>1</v>
+      </c>
+      <c r="K40" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="93">
+        <v>0</v>
+      </c>
+      <c r="C41" s="92">
+        <v>1</v>
+      </c>
+      <c r="D41" s="93">
+        <v>0</v>
+      </c>
+      <c r="E41" s="93">
+        <v>0</v>
+      </c>
+      <c r="F41" s="93">
+        <v>0</v>
+      </c>
+      <c r="G41" s="93">
+        <v>0</v>
+      </c>
+      <c r="H41" s="93">
+        <v>0</v>
+      </c>
+      <c r="I41" s="93">
+        <v>0</v>
+      </c>
+      <c r="J41" s="92">
+        <v>1</v>
+      </c>
+      <c r="K41" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="93">
+        <v>0</v>
+      </c>
+      <c r="C42" s="92">
+        <v>1</v>
+      </c>
+      <c r="D42" s="93">
+        <v>0</v>
+      </c>
+      <c r="E42" s="93">
+        <v>0</v>
+      </c>
+      <c r="F42" s="93">
+        <v>0</v>
+      </c>
+      <c r="G42" s="93">
+        <v>0</v>
+      </c>
+      <c r="H42" s="93">
+        <v>0</v>
+      </c>
+      <c r="I42" s="93">
+        <v>0</v>
+      </c>
+      <c r="J42" s="93">
+        <v>0</v>
+      </c>
+      <c r="K42" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="93"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="43">
+        <v>1</v>
+      </c>
+      <c r="K44" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="90"/>
+      <c r="B45" s="95">
+        <v>1</v>
+      </c>
+      <c r="C45" s="92">
+        <v>1</v>
+      </c>
+      <c r="D45" s="92">
+        <v>1</v>
+      </c>
+      <c r="E45" s="92">
+        <v>1</v>
+      </c>
+      <c r="F45" s="95">
+        <v>1</v>
+      </c>
+      <c r="G45" s="95">
+        <v>1</v>
+      </c>
+      <c r="H45" s="95">
+        <v>1</v>
+      </c>
+      <c r="I45" s="95">
+        <v>1</v>
+      </c>
+      <c r="J45" s="95">
+        <v>1</v>
+      </c>
+      <c r="K45" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="95">
+        <v>1</v>
+      </c>
+      <c r="C46" s="92">
+        <v>1</v>
+      </c>
+      <c r="D46" s="92">
+        <v>1</v>
+      </c>
+      <c r="E46" s="93">
+        <v>0</v>
+      </c>
+      <c r="F46" s="92">
+        <v>1</v>
+      </c>
+      <c r="G46" s="95">
+        <v>1</v>
+      </c>
+      <c r="H46" s="95">
+        <v>1</v>
+      </c>
+      <c r="I46" s="95">
+        <v>1</v>
+      </c>
+      <c r="J46" s="95">
+        <v>1</v>
+      </c>
+      <c r="K46" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="95">
+        <v>1</v>
+      </c>
+      <c r="C47" s="92">
+        <v>1</v>
+      </c>
+      <c r="D47" s="92">
+        <v>1</v>
+      </c>
+      <c r="E47" s="93">
+        <v>0</v>
+      </c>
+      <c r="F47" s="93">
+        <v>0</v>
+      </c>
+      <c r="G47" s="92">
+        <v>1</v>
+      </c>
+      <c r="H47" s="95">
+        <v>1</v>
+      </c>
+      <c r="I47" s="95">
+        <v>1</v>
+      </c>
+      <c r="J47" s="95">
+        <v>1</v>
+      </c>
+      <c r="K47" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="95">
+        <v>1</v>
+      </c>
+      <c r="C48" s="92">
+        <v>1</v>
+      </c>
+      <c r="D48" s="92">
+        <v>1</v>
+      </c>
+      <c r="E48" s="93">
+        <v>0</v>
+      </c>
+      <c r="F48" s="93">
+        <v>0</v>
+      </c>
+      <c r="G48" s="93">
+        <v>0</v>
+      </c>
+      <c r="H48" s="92">
+        <v>1</v>
+      </c>
+      <c r="I48" s="95">
+        <v>1</v>
+      </c>
+      <c r="J48" s="95">
+        <v>1</v>
+      </c>
+      <c r="K48" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="95">
+        <v>1</v>
+      </c>
+      <c r="C49" s="92">
+        <v>1</v>
+      </c>
+      <c r="D49" s="92">
+        <v>1</v>
+      </c>
+      <c r="E49" s="93">
+        <v>0</v>
+      </c>
+      <c r="F49" s="93">
+        <v>0</v>
+      </c>
+      <c r="G49" s="93">
+        <v>0</v>
+      </c>
+      <c r="H49" s="93">
+        <v>0</v>
+      </c>
+      <c r="I49" s="92">
+        <v>1</v>
+      </c>
+      <c r="J49" s="95">
+        <v>1</v>
+      </c>
+      <c r="K49" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="95">
+        <v>1</v>
+      </c>
+      <c r="C50" s="92">
+        <v>1</v>
+      </c>
+      <c r="D50" s="92">
+        <v>1</v>
+      </c>
+      <c r="E50" s="93">
+        <v>0</v>
+      </c>
+      <c r="F50" s="93">
+        <v>0</v>
+      </c>
+      <c r="G50" s="93">
+        <v>0</v>
+      </c>
+      <c r="H50" s="93">
+        <v>0</v>
+      </c>
+      <c r="I50" s="93">
+        <v>0</v>
+      </c>
+      <c r="J50" s="92">
+        <v>1</v>
+      </c>
+      <c r="K50" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="95">
+        <v>1</v>
+      </c>
+      <c r="C51" s="92">
+        <v>1</v>
+      </c>
+      <c r="D51" s="92">
+        <v>1</v>
+      </c>
+      <c r="E51" s="93">
+        <v>0</v>
+      </c>
+      <c r="F51" s="93">
+        <v>0</v>
+      </c>
+      <c r="G51" s="93">
+        <v>0</v>
+      </c>
+      <c r="H51" s="93">
+        <v>0</v>
+      </c>
+      <c r="I51" s="93">
+        <v>0</v>
+      </c>
+      <c r="J51" s="93">
+        <v>0</v>
+      </c>
+      <c r="K51" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="95"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="95"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="43">
+        <v>1</v>
+      </c>
+      <c r="K54" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="90"/>
+      <c r="B55" s="92">
+        <v>1</v>
+      </c>
+      <c r="C55" s="93">
+        <v>0</v>
+      </c>
+      <c r="D55" s="92">
+        <v>1</v>
+      </c>
+      <c r="E55" s="92">
+        <v>1</v>
+      </c>
+      <c r="F55" s="95">
+        <v>1</v>
+      </c>
+      <c r="G55" s="95">
+        <v>1</v>
+      </c>
+      <c r="H55" s="95">
+        <v>1</v>
+      </c>
+      <c r="I55" s="95">
+        <v>1</v>
+      </c>
+      <c r="J55" s="95">
+        <v>1</v>
+      </c>
+      <c r="K55" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="92">
+        <v>1</v>
+      </c>
+      <c r="C56" s="93">
+        <v>0</v>
+      </c>
+      <c r="D56" s="92">
+        <v>1</v>
+      </c>
+      <c r="E56" s="93">
+        <v>0</v>
+      </c>
+      <c r="F56" s="92">
+        <v>1</v>
+      </c>
+      <c r="G56" s="95">
+        <v>1</v>
+      </c>
+      <c r="H56" s="95">
+        <v>1</v>
+      </c>
+      <c r="I56" s="95">
+        <v>1</v>
+      </c>
+      <c r="J56" s="95">
+        <v>1</v>
+      </c>
+      <c r="K56" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="92">
+        <v>1</v>
+      </c>
+      <c r="C57" s="93">
+        <v>0</v>
+      </c>
+      <c r="D57" s="92">
+        <v>1</v>
+      </c>
+      <c r="E57" s="93">
+        <v>0</v>
+      </c>
+      <c r="F57" s="93">
+        <v>0</v>
+      </c>
+      <c r="G57" s="92">
+        <v>1</v>
+      </c>
+      <c r="H57" s="95">
+        <v>1</v>
+      </c>
+      <c r="I57" s="95">
+        <v>1</v>
+      </c>
+      <c r="J57" s="95">
+        <v>1</v>
+      </c>
+      <c r="K57" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="92">
+        <v>1</v>
+      </c>
+      <c r="C58" s="93">
+        <v>0</v>
+      </c>
+      <c r="D58" s="92">
+        <v>1</v>
+      </c>
+      <c r="E58" s="93">
+        <v>0</v>
+      </c>
+      <c r="F58" s="93">
+        <v>0</v>
+      </c>
+      <c r="G58" s="93">
+        <v>0</v>
+      </c>
+      <c r="H58" s="92">
+        <v>1</v>
+      </c>
+      <c r="I58" s="95">
+        <v>1</v>
+      </c>
+      <c r="J58" s="95">
+        <v>1</v>
+      </c>
+      <c r="K58" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="92">
+        <v>1</v>
+      </c>
+      <c r="C59" s="93">
+        <v>0</v>
+      </c>
+      <c r="D59" s="92">
+        <v>1</v>
+      </c>
+      <c r="E59" s="93">
+        <v>0</v>
+      </c>
+      <c r="F59" s="93">
+        <v>0</v>
+      </c>
+      <c r="G59" s="93">
+        <v>0</v>
+      </c>
+      <c r="H59" s="93">
+        <v>0</v>
+      </c>
+      <c r="I59" s="92">
+        <v>1</v>
+      </c>
+      <c r="J59" s="95">
+        <v>1</v>
+      </c>
+      <c r="K59" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="92">
+        <v>1</v>
+      </c>
+      <c r="C60" s="93">
+        <v>0</v>
+      </c>
+      <c r="D60" s="92">
+        <v>1</v>
+      </c>
+      <c r="E60" s="93">
+        <v>0</v>
+      </c>
+      <c r="F60" s="93">
+        <v>0</v>
+      </c>
+      <c r="G60" s="93">
+        <v>0</v>
+      </c>
+      <c r="H60" s="93">
+        <v>0</v>
+      </c>
+      <c r="I60" s="93">
+        <v>0</v>
+      </c>
+      <c r="J60" s="92">
+        <v>1</v>
+      </c>
+      <c r="K60" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="92">
+        <v>1</v>
+      </c>
+      <c r="C61" s="93">
+        <v>0</v>
+      </c>
+      <c r="D61" s="92">
+        <v>1</v>
+      </c>
+      <c r="E61" s="93">
+        <v>0</v>
+      </c>
+      <c r="F61" s="93">
+        <v>0</v>
+      </c>
+      <c r="G61" s="93">
+        <v>0</v>
+      </c>
+      <c r="H61" s="93">
+        <v>0</v>
+      </c>
+      <c r="I61" s="93">
+        <v>0</v>
+      </c>
+      <c r="J61" s="93">
+        <v>0</v>
+      </c>
+      <c r="K61" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="92"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="92"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="43">
+        <v>1</v>
+      </c>
+      <c r="K64" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="90"/>
+      <c r="B65" s="93">
+        <v>0</v>
+      </c>
+      <c r="C65" s="93">
+        <v>0</v>
+      </c>
+      <c r="D65" s="92">
+        <v>1</v>
+      </c>
+      <c r="E65" s="92">
+        <v>1</v>
+      </c>
+      <c r="F65" s="95">
+        <v>1</v>
+      </c>
+      <c r="G65" s="95">
+        <v>1</v>
+      </c>
+      <c r="H65" s="95">
+        <v>1</v>
+      </c>
+      <c r="I65" s="95">
+        <v>1</v>
+      </c>
+      <c r="J65" s="95">
+        <v>1</v>
+      </c>
+      <c r="K65" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="93">
+        <v>0</v>
+      </c>
+      <c r="C66" s="93">
+        <v>0</v>
+      </c>
+      <c r="D66" s="92">
+        <v>1</v>
+      </c>
+      <c r="E66" s="93">
+        <v>0</v>
+      </c>
+      <c r="F66" s="92">
+        <v>1</v>
+      </c>
+      <c r="G66" s="95">
+        <v>1</v>
+      </c>
+      <c r="H66" s="95">
+        <v>1</v>
+      </c>
+      <c r="I66" s="95">
+        <v>1</v>
+      </c>
+      <c r="J66" s="95">
+        <v>1</v>
+      </c>
+      <c r="K66" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="93">
+        <v>0</v>
+      </c>
+      <c r="C67" s="93">
+        <v>0</v>
+      </c>
+      <c r="D67" s="92">
+        <v>1</v>
+      </c>
+      <c r="E67" s="93">
+        <v>0</v>
+      </c>
+      <c r="F67" s="93">
+        <v>0</v>
+      </c>
+      <c r="G67" s="92">
+        <v>1</v>
+      </c>
+      <c r="H67" s="95">
+        <v>1</v>
+      </c>
+      <c r="I67" s="95">
+        <v>1</v>
+      </c>
+      <c r="J67" s="95">
+        <v>1</v>
+      </c>
+      <c r="K67" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="93">
+        <v>0</v>
+      </c>
+      <c r="C68" s="93">
+        <v>0</v>
+      </c>
+      <c r="D68" s="92">
+        <v>1</v>
+      </c>
+      <c r="E68" s="93">
+        <v>0</v>
+      </c>
+      <c r="F68" s="93">
+        <v>0</v>
+      </c>
+      <c r="G68" s="93">
+        <v>0</v>
+      </c>
+      <c r="H68" s="92">
+        <v>1</v>
+      </c>
+      <c r="I68" s="95">
+        <v>1</v>
+      </c>
+      <c r="J68" s="95">
+        <v>1</v>
+      </c>
+      <c r="K68" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="93">
+        <v>0</v>
+      </c>
+      <c r="C69" s="93">
+        <v>0</v>
+      </c>
+      <c r="D69" s="92">
+        <v>1</v>
+      </c>
+      <c r="E69" s="93">
+        <v>0</v>
+      </c>
+      <c r="F69" s="93">
+        <v>0</v>
+      </c>
+      <c r="G69" s="93">
+        <v>0</v>
+      </c>
+      <c r="H69" s="93">
+        <v>0</v>
+      </c>
+      <c r="I69" s="92">
+        <v>1</v>
+      </c>
+      <c r="J69" s="95">
+        <v>1</v>
+      </c>
+      <c r="K69" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="93">
+        <v>0</v>
+      </c>
+      <c r="C70" s="93">
+        <v>0</v>
+      </c>
+      <c r="D70" s="92">
+        <v>1</v>
+      </c>
+      <c r="E70" s="93">
+        <v>0</v>
+      </c>
+      <c r="F70" s="93">
+        <v>0</v>
+      </c>
+      <c r="G70" s="93">
+        <v>0</v>
+      </c>
+      <c r="H70" s="93">
+        <v>0</v>
+      </c>
+      <c r="I70" s="93">
+        <v>0</v>
+      </c>
+      <c r="J70" s="92">
+        <v>1</v>
+      </c>
+      <c r="K70" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="93">
+        <v>0</v>
+      </c>
+      <c r="C71" s="93">
+        <v>0</v>
+      </c>
+      <c r="D71" s="92">
+        <v>1</v>
+      </c>
+      <c r="E71" s="93">
+        <v>0</v>
+      </c>
+      <c r="F71" s="93">
+        <v>0</v>
+      </c>
+      <c r="G71" s="93">
+        <v>0</v>
+      </c>
+      <c r="H71" s="93">
+        <v>0</v>
+      </c>
+      <c r="I71" s="93">
+        <v>0</v>
+      </c>
+      <c r="J71" s="93">
+        <v>0</v>
+      </c>
+      <c r="K71" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="93"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="43">
+        <v>1</v>
+      </c>
+      <c r="K74" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="90"/>
+      <c r="B75" s="95">
+        <v>1</v>
+      </c>
+      <c r="C75" s="95">
+        <v>1</v>
+      </c>
+      <c r="D75" s="92">
+        <v>1</v>
+      </c>
+      <c r="E75" s="92">
+        <v>1</v>
+      </c>
+      <c r="F75" s="92">
+        <v>1</v>
+      </c>
+      <c r="G75" s="95">
+        <v>1</v>
+      </c>
+      <c r="H75" s="95">
+        <v>1</v>
+      </c>
+      <c r="I75" s="95">
+        <v>1</v>
+      </c>
+      <c r="J75" s="95">
+        <v>1</v>
+      </c>
+      <c r="K75" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="95">
+        <v>1</v>
+      </c>
+      <c r="C76" s="95">
+        <v>1</v>
+      </c>
+      <c r="D76" s="92">
+        <v>1</v>
+      </c>
+      <c r="E76" s="92">
+        <v>1</v>
+      </c>
+      <c r="F76" s="93">
+        <v>0</v>
+      </c>
+      <c r="G76" s="92">
+        <v>1</v>
+      </c>
+      <c r="H76" s="95">
+        <v>1</v>
+      </c>
+      <c r="I76" s="95">
+        <v>1</v>
+      </c>
+      <c r="J76" s="95">
+        <v>1</v>
+      </c>
+      <c r="K76" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="95">
+        <v>1</v>
+      </c>
+      <c r="C77" s="95">
+        <v>1</v>
+      </c>
+      <c r="D77" s="92">
+        <v>1</v>
+      </c>
+      <c r="E77" s="92">
+        <v>1</v>
+      </c>
+      <c r="F77" s="93">
+        <v>0</v>
+      </c>
+      <c r="G77" s="93">
+        <v>0</v>
+      </c>
+      <c r="H77" s="92">
+        <v>1</v>
+      </c>
+      <c r="I77" s="95">
+        <v>1</v>
+      </c>
+      <c r="J77" s="95">
+        <v>1</v>
+      </c>
+      <c r="K77" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="95">
+        <v>1</v>
+      </c>
+      <c r="C78" s="95">
+        <v>1</v>
+      </c>
+      <c r="D78" s="92">
+        <v>1</v>
+      </c>
+      <c r="E78" s="92">
+        <v>1</v>
+      </c>
+      <c r="F78" s="93">
+        <v>0</v>
+      </c>
+      <c r="G78" s="93">
+        <v>0</v>
+      </c>
+      <c r="H78" s="93">
+        <v>0</v>
+      </c>
+      <c r="I78" s="92">
+        <v>1</v>
+      </c>
+      <c r="J78" s="95">
+        <v>1</v>
+      </c>
+      <c r="K78" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="95">
+        <v>1</v>
+      </c>
+      <c r="C79" s="95">
+        <v>1</v>
+      </c>
+      <c r="D79" s="92">
+        <v>1</v>
+      </c>
+      <c r="E79" s="92">
+        <v>1</v>
+      </c>
+      <c r="F79" s="93">
+        <v>0</v>
+      </c>
+      <c r="G79" s="93">
+        <v>0</v>
+      </c>
+      <c r="H79" s="93">
+        <v>0</v>
+      </c>
+      <c r="I79" s="93">
+        <v>0</v>
+      </c>
+      <c r="J79" s="92">
+        <v>1</v>
+      </c>
+      <c r="K79" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="95">
+        <v>1</v>
+      </c>
+      <c r="C80" s="95">
+        <v>1</v>
+      </c>
+      <c r="D80" s="92">
+        <v>1</v>
+      </c>
+      <c r="E80" s="92">
+        <v>1</v>
+      </c>
+      <c r="F80" s="93">
+        <v>0</v>
+      </c>
+      <c r="G80" s="93">
+        <v>0</v>
+      </c>
+      <c r="H80" s="93">
+        <v>0</v>
+      </c>
+      <c r="I80" s="93">
+        <v>0</v>
+      </c>
+      <c r="J80" s="93">
+        <v>0</v>
+      </c>
+      <c r="K80" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="93"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="43">
+        <v>1</v>
+      </c>
+      <c r="K84" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="90"/>
+      <c r="B85" s="95">
+        <v>1</v>
+      </c>
+      <c r="C85" s="92">
+        <v>1</v>
+      </c>
+      <c r="D85" s="93">
+        <v>0</v>
+      </c>
+      <c r="E85" s="92">
+        <v>1</v>
+      </c>
+      <c r="F85" s="92">
+        <v>1</v>
+      </c>
+      <c r="G85" s="95">
+        <v>1</v>
+      </c>
+      <c r="H85" s="95">
+        <v>1</v>
+      </c>
+      <c r="I85" s="95">
+        <v>1</v>
+      </c>
+      <c r="J85" s="95">
+        <v>1</v>
+      </c>
+      <c r="K85" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="95">
+        <v>1</v>
+      </c>
+      <c r="C86" s="92">
+        <v>1</v>
+      </c>
+      <c r="D86" s="93">
+        <v>0</v>
+      </c>
+      <c r="E86" s="92">
+        <v>1</v>
+      </c>
+      <c r="F86" s="93">
+        <v>0</v>
+      </c>
+      <c r="G86" s="92">
+        <v>1</v>
+      </c>
+      <c r="H86" s="95">
+        <v>1</v>
+      </c>
+      <c r="I86" s="95">
+        <v>1</v>
+      </c>
+      <c r="J86" s="95">
+        <v>1</v>
+      </c>
+      <c r="K86" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="95">
+        <v>1</v>
+      </c>
+      <c r="C87" s="92">
+        <v>1</v>
+      </c>
+      <c r="D87" s="93">
+        <v>0</v>
+      </c>
+      <c r="E87" s="92">
+        <v>1</v>
+      </c>
+      <c r="F87" s="93">
+        <v>0</v>
+      </c>
+      <c r="G87" s="93">
+        <v>0</v>
+      </c>
+      <c r="H87" s="92">
+        <v>1</v>
+      </c>
+      <c r="I87" s="95">
+        <v>1</v>
+      </c>
+      <c r="J87" s="95">
+        <v>1</v>
+      </c>
+      <c r="K87" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="95">
+        <v>1</v>
+      </c>
+      <c r="C88" s="92">
+        <v>1</v>
+      </c>
+      <c r="D88" s="93">
+        <v>0</v>
+      </c>
+      <c r="E88" s="92">
+        <v>1</v>
+      </c>
+      <c r="F88" s="93">
+        <v>0</v>
+      </c>
+      <c r="G88" s="93">
+        <v>0</v>
+      </c>
+      <c r="H88" s="93">
+        <v>0</v>
+      </c>
+      <c r="I88" s="92">
+        <v>1</v>
+      </c>
+      <c r="J88" s="95">
+        <v>1</v>
+      </c>
+      <c r="K88" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="95">
+        <v>1</v>
+      </c>
+      <c r="C89" s="92">
+        <v>1</v>
+      </c>
+      <c r="D89" s="93">
+        <v>0</v>
+      </c>
+      <c r="E89" s="92">
+        <v>1</v>
+      </c>
+      <c r="F89" s="93">
+        <v>0</v>
+      </c>
+      <c r="G89" s="93">
+        <v>0</v>
+      </c>
+      <c r="H89" s="93">
+        <v>0</v>
+      </c>
+      <c r="I89" s="93">
+        <v>0</v>
+      </c>
+      <c r="J89" s="92">
+        <v>1</v>
+      </c>
+      <c r="K89" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="95">
+        <v>1</v>
+      </c>
+      <c r="C90" s="92">
+        <v>1</v>
+      </c>
+      <c r="D90" s="93">
+        <v>0</v>
+      </c>
+      <c r="E90" s="92">
+        <v>1</v>
+      </c>
+      <c r="F90" s="93">
+        <v>0</v>
+      </c>
+      <c r="G90" s="93">
+        <v>0</v>
+      </c>
+      <c r="H90" s="93">
+        <v>0</v>
+      </c>
+      <c r="I90" s="93">
+        <v>0</v>
+      </c>
+      <c r="J90" s="93">
+        <v>0</v>
+      </c>
+      <c r="K90" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="95"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="93"/>
+      <c r="K91" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="95"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="93"/>
+      <c r="I92" s="93"/>
+      <c r="J92" s="93"/>
+      <c r="K92" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="95"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
+      <c r="I93" s="93"/>
+      <c r="J93" s="93"/>
+      <c r="K93" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="43">
+        <v>1</v>
+      </c>
+      <c r="K94" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="90"/>
+      <c r="B95" s="92">
+        <v>1</v>
+      </c>
+      <c r="C95" s="93">
+        <v>0</v>
+      </c>
+      <c r="D95" s="93">
+        <v>0</v>
+      </c>
+      <c r="E95" s="92">
+        <v>1</v>
+      </c>
+      <c r="F95" s="92">
+        <v>1</v>
+      </c>
+      <c r="G95" s="95">
+        <v>1</v>
+      </c>
+      <c r="H95" s="95">
+        <v>1</v>
+      </c>
+      <c r="I95" s="95">
+        <v>1</v>
+      </c>
+      <c r="J95" s="95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="92">
+        <v>1</v>
+      </c>
+      <c r="C96" s="93">
+        <v>0</v>
+      </c>
+      <c r="D96" s="93">
+        <v>0</v>
+      </c>
+      <c r="E96" s="92">
+        <v>1</v>
+      </c>
+      <c r="F96" s="93">
+        <v>0</v>
+      </c>
+      <c r="G96" s="92">
+        <v>1</v>
+      </c>
+      <c r="H96" s="95">
+        <v>1</v>
+      </c>
+      <c r="I96" s="95">
+        <v>1</v>
+      </c>
+      <c r="J96" s="95">
+        <v>1</v>
+      </c>
+      <c r="K96" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="92">
+        <v>1</v>
+      </c>
+      <c r="C97" s="93">
+        <v>0</v>
+      </c>
+      <c r="D97" s="93">
+        <v>0</v>
+      </c>
+      <c r="E97" s="92">
+        <v>1</v>
+      </c>
+      <c r="F97" s="93">
+        <v>0</v>
+      </c>
+      <c r="G97" s="93">
+        <v>0</v>
+      </c>
+      <c r="H97" s="92">
+        <v>1</v>
+      </c>
+      <c r="I97" s="95">
+        <v>1</v>
+      </c>
+      <c r="J97" s="95">
+        <v>1</v>
+      </c>
+      <c r="K97" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="92">
+        <v>1</v>
+      </c>
+      <c r="C98" s="93">
+        <v>0</v>
+      </c>
+      <c r="D98" s="93">
+        <v>0</v>
+      </c>
+      <c r="E98" s="92">
+        <v>1</v>
+      </c>
+      <c r="F98" s="93">
+        <v>0</v>
+      </c>
+      <c r="G98" s="93">
+        <v>0</v>
+      </c>
+      <c r="H98" s="93">
+        <v>0</v>
+      </c>
+      <c r="I98" s="92">
+        <v>1</v>
+      </c>
+      <c r="J98" s="95">
+        <v>1</v>
+      </c>
+      <c r="K98" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="92">
+        <v>1</v>
+      </c>
+      <c r="C99" s="93">
+        <v>0</v>
+      </c>
+      <c r="D99" s="93">
+        <v>0</v>
+      </c>
+      <c r="E99" s="92">
+        <v>1</v>
+      </c>
+      <c r="F99" s="93">
+        <v>0</v>
+      </c>
+      <c r="G99" s="93">
+        <v>0</v>
+      </c>
+      <c r="H99" s="93">
+        <v>0</v>
+      </c>
+      <c r="I99" s="93">
+        <v>0</v>
+      </c>
+      <c r="J99" s="92">
+        <v>1</v>
+      </c>
+      <c r="K99" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="92">
+        <v>1</v>
+      </c>
+      <c r="C100" s="93">
+        <v>0</v>
+      </c>
+      <c r="D100" s="93">
+        <v>0</v>
+      </c>
+      <c r="E100" s="92">
+        <v>1</v>
+      </c>
+      <c r="F100" s="93">
+        <v>0</v>
+      </c>
+      <c r="G100" s="93">
+        <v>0</v>
+      </c>
+      <c r="H100" s="93">
+        <v>0</v>
+      </c>
+      <c r="I100" s="93">
+        <v>0</v>
+      </c>
+      <c r="J100" s="93">
+        <v>0</v>
+      </c>
+      <c r="K100" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="92"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="93"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="93"/>
+      <c r="I101" s="93"/>
+      <c r="J101" s="93"/>
+      <c r="K101" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="92"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
+      <c r="K102" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="92"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="93"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="93"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="93"/>
+      <c r="K103" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="43">
+        <v>1</v>
+      </c>
+      <c r="K104" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="90"/>
+      <c r="B105" s="93">
+        <v>0</v>
+      </c>
+      <c r="C105" s="93">
+        <v>0</v>
+      </c>
+      <c r="D105" s="93">
+        <v>0</v>
+      </c>
+      <c r="E105" s="92">
+        <v>1</v>
+      </c>
+      <c r="F105" s="92">
+        <v>1</v>
+      </c>
+      <c r="G105" s="95">
+        <v>1</v>
+      </c>
+      <c r="H105" s="95">
+        <v>1</v>
+      </c>
+      <c r="I105" s="95">
+        <v>1</v>
+      </c>
+      <c r="J105" s="95">
+        <v>1</v>
+      </c>
+      <c r="K105" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="93">
+        <v>0</v>
+      </c>
+      <c r="C106" s="93">
+        <v>0</v>
+      </c>
+      <c r="D106" s="93">
+        <v>0</v>
+      </c>
+      <c r="E106" s="92">
+        <v>1</v>
+      </c>
+      <c r="F106" s="93">
+        <v>0</v>
+      </c>
+      <c r="G106" s="92">
+        <v>1</v>
+      </c>
+      <c r="H106" s="95">
+        <v>1</v>
+      </c>
+      <c r="I106" s="95">
+        <v>1</v>
+      </c>
+      <c r="J106" s="95">
+        <v>1</v>
+      </c>
+      <c r="K106" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="93">
+        <v>0</v>
+      </c>
+      <c r="C107" s="93">
+        <v>0</v>
+      </c>
+      <c r="D107" s="93">
+        <v>0</v>
+      </c>
+      <c r="E107" s="92">
+        <v>1</v>
+      </c>
+      <c r="F107" s="93">
+        <v>0</v>
+      </c>
+      <c r="G107" s="93">
+        <v>0</v>
+      </c>
+      <c r="H107" s="92">
+        <v>1</v>
+      </c>
+      <c r="I107" s="95">
+        <v>1</v>
+      </c>
+      <c r="J107" s="95">
+        <v>1</v>
+      </c>
+      <c r="K107" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="93">
+        <v>0</v>
+      </c>
+      <c r="C108" s="93">
+        <v>0</v>
+      </c>
+      <c r="D108" s="93">
+        <v>0</v>
+      </c>
+      <c r="E108" s="92">
+        <v>1</v>
+      </c>
+      <c r="F108" s="93">
+        <v>0</v>
+      </c>
+      <c r="G108" s="93">
+        <v>0</v>
+      </c>
+      <c r="H108" s="93">
+        <v>0</v>
+      </c>
+      <c r="I108" s="92">
+        <v>1</v>
+      </c>
+      <c r="J108" s="95">
+        <v>1</v>
+      </c>
+      <c r="K108" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="93">
+        <v>0</v>
+      </c>
+      <c r="C109" s="93">
+        <v>0</v>
+      </c>
+      <c r="D109" s="93">
+        <v>0</v>
+      </c>
+      <c r="E109" s="92">
+        <v>1</v>
+      </c>
+      <c r="F109" s="93">
+        <v>0</v>
+      </c>
+      <c r="G109" s="93">
+        <v>0</v>
+      </c>
+      <c r="H109" s="93">
+        <v>0</v>
+      </c>
+      <c r="I109" s="93">
+        <v>0</v>
+      </c>
+      <c r="J109" s="92">
+        <v>1</v>
+      </c>
+      <c r="K109" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="93">
+        <v>0</v>
+      </c>
+      <c r="C110" s="93">
+        <v>0</v>
+      </c>
+      <c r="D110" s="93">
+        <v>0</v>
+      </c>
+      <c r="E110" s="92">
+        <v>1</v>
+      </c>
+      <c r="F110" s="93">
+        <v>0</v>
+      </c>
+      <c r="G110" s="93">
+        <v>0</v>
+      </c>
+      <c r="H110" s="93">
+        <v>0</v>
+      </c>
+      <c r="I110" s="93">
+        <v>0</v>
+      </c>
+      <c r="J110" s="93">
+        <v>0</v>
+      </c>
+      <c r="K110" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="93"/>
+      <c r="C111" s="93"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="93"/>
+      <c r="G111" s="93"/>
+      <c r="H111" s="93"/>
+      <c r="I111" s="93"/>
+      <c r="J111" s="93"/>
+      <c r="K111" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="93"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="93"/>
+      <c r="G112" s="93"/>
+      <c r="H112" s="93"/>
+      <c r="I112" s="93"/>
+      <c r="J112" s="93"/>
+      <c r="K112" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="93"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="93"/>
+      <c r="I113" s="93"/>
+      <c r="J113" s="93"/>
+      <c r="K113" s="43">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="29" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="29.1" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="31" width="3.625" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="3.625" style="15"/>
     <col min="61" max="61" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="3:76">
+    <row r="1" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +5372,7 @@
       <c r="BW1" s="43"/>
       <c r="BX1" s="43"/>
     </row>
-    <row r="2" customHeight="1" spans="2:75">
+    <row r="2" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17">
         <v>0</v>
       </c>
@@ -2003,7 +5631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:75">
+    <row r="3" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -2271,7 +5899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:75">
+    <row r="4" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -2539,7 +6167,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:75">
+    <row r="5" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -2807,7 +6435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:75">
+    <row r="6" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -3075,7 +6703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:75">
+    <row r="7" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="23">
         <v>5</v>
       </c>
@@ -3343,7 +6971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:75">
+    <row r="8" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23">
         <v>6</v>
       </c>
@@ -3611,7 +7239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:75">
+    <row r="9" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23">
         <v>7</v>
       </c>
@@ -3879,7 +7507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:75">
+    <row r="10" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23">
         <v>8</v>
       </c>
@@ -4147,7 +7775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:75">
+    <row r="11" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="23">
         <v>9</v>
       </c>
@@ -4414,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:75">
+    <row r="12" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4507,7 +8135,7 @@
       <c r="BV12" s="43"/>
       <c r="BW12" s="43"/>
     </row>
-    <row r="13" customHeight="1" spans="35:76">
+    <row r="13" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI13" s="43">
         <v>0</v>
       </c>
@@ -4582,7 +8210,7 @@
       <c r="BW13" s="43"/>
       <c r="BX13" s="43"/>
     </row>
-    <row r="15" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="15" spans="2:76" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="25">
         <v>1</v>
       </c>
@@ -4680,7 +8308,7 @@
       <c r="BW15"/>
       <c r="BX15"/>
     </row>
-    <row r="16" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="16" spans="2:76" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="25">
         <f>C15+16</f>
         <v>17</v>
@@ -4791,7 +8419,7 @@
       <c r="BW16"/>
       <c r="BX16"/>
     </row>
-    <row r="17" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="17" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="25">
         <f t="shared" ref="C17:C30" si="72">C16+16</f>
         <v>33</v>
@@ -4904,7 +8532,7 @@
       <c r="BW17"/>
       <c r="BX17"/>
     </row>
-    <row r="18" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="18" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="25">
         <f t="shared" si="72"/>
         <v>49</v>
@@ -5017,7 +8645,7 @@
       <c r="BW18"/>
       <c r="BX18"/>
     </row>
-    <row r="19" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="19" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="25">
         <f t="shared" si="72"/>
         <v>65</v>
@@ -5130,7 +8758,7 @@
       <c r="BW19"/>
       <c r="BX19"/>
     </row>
-    <row r="20" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="20" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="25">
         <f t="shared" si="72"/>
         <v>81</v>
@@ -5241,7 +8869,7 @@
       <c r="BW20"/>
       <c r="BX20"/>
     </row>
-    <row r="21" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="21" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="25">
         <f t="shared" si="72"/>
         <v>97</v>
@@ -5349,7 +8977,7 @@
       <c r="BW21"/>
       <c r="BX21"/>
     </row>
-    <row r="22" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="22" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="25">
         <f t="shared" si="72"/>
         <v>113</v>
@@ -5532,7 +9160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="23" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="25">
         <f t="shared" si="72"/>
         <v>129</v>
@@ -5709,7 +9337,7 @@
       <c r="CA23" s="59"/>
       <c r="CB23" s="59"/>
     </row>
-    <row r="24" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="24" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="25">
         <f t="shared" si="72"/>
         <v>145</v>
@@ -5886,7 +9514,7 @@
       <c r="CA24" s="59"/>
       <c r="CB24" s="59"/>
     </row>
-    <row r="25" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="25" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="25">
         <f t="shared" si="72"/>
         <v>161</v>
@@ -6072,7 +9700,7 @@
       <c r="CA25" s="59"/>
       <c r="CB25" s="59"/>
     </row>
-    <row r="26" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="26" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="25">
         <f t="shared" si="72"/>
         <v>177</v>
@@ -6258,7 +9886,7 @@
       <c r="CA26" s="60"/>
       <c r="CB26" s="60"/>
     </row>
-    <row r="27" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="27" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="25">
         <f t="shared" si="72"/>
         <v>193</v>
@@ -6444,7 +10072,7 @@
       <c r="CA27" s="60"/>
       <c r="CB27" s="60"/>
     </row>
-    <row r="28" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="28" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="25">
         <f t="shared" si="72"/>
         <v>209</v>
@@ -6630,7 +10258,7 @@
       <c r="CA28" s="60"/>
       <c r="CB28" s="60"/>
     </row>
-    <row r="29" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="29" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="25">
         <f t="shared" si="72"/>
         <v>225</v>
@@ -6816,7 +10444,7 @@
       <c r="CA29" s="61"/>
       <c r="CB29" s="61"/>
     </row>
-    <row r="30" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="30" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="25">
         <f t="shared" si="72"/>
         <v>241</v>
@@ -7002,7 +10630,7 @@
       <c r="CA30" s="61"/>
       <c r="CB30" s="61"/>
     </row>
-    <row r="31" customHeight="1" spans="46:80">
+    <row r="31" spans="3:80" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AT31" s="45">
         <v>0</v>
       </c>
@@ -7094,7 +10722,7 @@
       <c r="CA31" s="61"/>
       <c r="CB31" s="61"/>
     </row>
-    <row r="32" customHeight="1" spans="46:55">
+    <row r="32" spans="3:80" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AT32" s="44" t="s">
         <v>18</v>
       </c>
@@ -7126,7 +10754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:60">
+    <row r="33" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -7146,7 +10774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:60">
+    <row r="34" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -7157,7 +10785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:60">
+    <row r="35" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -7165,7 +10793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:60">
+    <row r="36" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -7173,7 +10801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:60">
+    <row r="37" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -7181,7 +10809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:60">
+    <row r="38" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -7189,12 +10817,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:1">
+    <row r="39" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:60">
+    <row r="40" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -7202,7 +10830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:60">
+    <row r="41" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -7210,7 +10838,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:60">
+    <row r="42" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -7218,7 +10846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:60">
+    <row r="43" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -7226,7 +10854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:60">
+    <row r="44" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -7234,7 +10862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:60">
+    <row r="45" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -7242,7 +10870,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:60">
+    <row r="46" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -7250,7 +10878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:60">
+    <row r="47" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -7258,7 +10886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:60">
+    <row r="48" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -7266,7 +10894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:60">
+    <row r="49" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -7274,7 +10902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:60">
+    <row r="50" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -7282,7 +10910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:60">
+    <row r="51" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7290,7 +10918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:60">
+    <row r="52" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -7298,7 +10926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:60">
+    <row r="53" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -7306,150 +10934,149 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:1">
+    <row r="54" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:1">
+    <row r="55" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:1">
+    <row r="56" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:1">
+    <row r="57" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:1">
+    <row r="58" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:1">
+    <row r="59" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:1">
+    <row r="60" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:1">
+    <row r="61" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:1">
+    <row r="62" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:1">
+    <row r="63" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:1">
+    <row r="64" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:1">
+    <row r="65" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:1">
+    <row r="66" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:1">
+    <row r="67" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:1">
+    <row r="68" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:1">
+    <row r="69" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:1">
+    <row r="70" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:1">
+    <row r="71" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:1">
+    <row r="72" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:1">
+    <row r="73" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:1">
+    <row r="74" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:1">
+    <row r="75" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:1">
+    <row r="76" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:1">
+    <row r="77" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="10" width="4" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -7481,7 +11108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7521,7 +11148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -7561,7 +11188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -7601,7 +11228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -7641,7 +11268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -7681,7 +11308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -7721,7 +11348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -7761,7 +11388,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -7801,7 +11428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -7842,7 +11469,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
   <si>
     <t>A</t>
   </si>
@@ -336,12 +336,60 @@
     <t>Cannon：</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>col@</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合个数等于绿色格子的个数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>random[]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero[]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rook、Cannon：</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon add:</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>int from</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>int length</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[length]</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合成二进制数字，进一步组合成StateBoard，Index, ToBoard</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +497,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -737,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,9 +1076,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,10 +1088,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,7 +1205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1346,3913 +1414,5357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO113"/>
+  <dimension ref="B1:CF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK27" sqref="AK27"/>
+    <sheetView tabSelected="1" topLeftCell="B75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="19" width="4.25" style="43"/>
-    <col min="20" max="20" width="4.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.25" style="43"/>
-    <col min="23" max="23" width="4.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.25" style="43"/>
-    <col min="28" max="28" width="4.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="4.25" style="43"/>
+    <col min="1" max="20" width="4.25" style="43"/>
+    <col min="21" max="21" width="4.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.25" style="43"/>
+    <col min="24" max="24" width="4.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.25" style="43"/>
+    <col min="29" max="29" width="4.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:84" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68">
-        <v>0</v>
-      </c>
-      <c r="C2" s="69">
-        <v>1</v>
-      </c>
-      <c r="D2" s="70">
+      <c r="N2" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX2" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ2" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV2" s="91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="68">
+        <v>0</v>
+      </c>
+      <c r="D3" s="69">
+        <v>1</v>
+      </c>
+      <c r="E3" s="70">
         <v>2</v>
       </c>
-      <c r="E2" s="71">
+      <c r="F3" s="71">
         <v>3</v>
       </c>
-      <c r="F2" s="72">
+      <c r="G3" s="72">
         <v>4</v>
       </c>
-      <c r="G2" s="71">
+      <c r="H3" s="71">
         <v>5</v>
       </c>
-      <c r="H2" s="70">
+      <c r="I3" s="70">
         <v>6</v>
       </c>
-      <c r="I2" s="73">
+      <c r="J3" s="73">
         <v>7</v>
       </c>
-      <c r="J2" s="74">
+      <c r="K3" s="74">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="75">
-        <f t="shared" ref="B3:J11" si="0">B2+9</f>
+      <c r="N3" s="90">
+        <v>1</v>
+      </c>
+      <c r="O3" s="92">
+        <v>1</v>
+      </c>
+      <c r="P3" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="92">
+        <v>1</v>
+      </c>
+      <c r="R3" s="92">
+        <v>1</v>
+      </c>
+      <c r="S3" s="92">
+        <v>1</v>
+      </c>
+      <c r="T3" s="92">
+        <v>1</v>
+      </c>
+      <c r="U3" s="92">
+        <v>1</v>
+      </c>
+      <c r="V3" s="92">
+        <v>1</v>
+      </c>
+      <c r="W3" s="92">
+        <v>1</v>
+      </c>
+      <c r="X3" s="92">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="92"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="93"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="94"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="92">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="92"/>
+      <c r="BT3" s="92"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="93">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="93">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="93">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="93">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="93">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+    </row>
+    <row r="4" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="75">
+        <f t="shared" ref="C4:K12" si="0">C3+9</f>
         <v>9</v>
       </c>
-      <c r="C3" s="62">
+      <c r="D4" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D3" s="62">
+      <c r="E4" s="62">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E3" s="63">
+      <c r="F4" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F3" s="64">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G3" s="63">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H3" s="62">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I3" s="62">
+      <c r="J4" s="62">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J3" s="76">
+      <c r="K4" s="76">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="O4" s="92">
+        <v>1</v>
+      </c>
+      <c r="P4" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="93">
+        <v>0</v>
+      </c>
+      <c r="R4" s="93">
+        <v>0</v>
+      </c>
+      <c r="S4" s="93">
+        <v>0</v>
+      </c>
+      <c r="T4" s="93">
+        <v>0</v>
+      </c>
+      <c r="U4" s="93">
+        <v>0</v>
+      </c>
+      <c r="V4" s="93">
+        <v>0</v>
+      </c>
+      <c r="W4" s="93">
+        <v>0</v>
+      </c>
+      <c r="X4" s="93">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="43">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="92"/>
+      <c r="AL4" s="43">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="92"/>
+      <c r="AY4" s="92">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="92">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BK4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="93"/>
+      <c r="BW4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="93">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="93">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="93">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="93"/>
+      <c r="CF4" s="93"/>
+    </row>
+    <row r="5" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="77">
+      <c r="C5" s="77">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C4" s="62">
+      <c r="D5" s="62">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D4" s="62">
+      <c r="E5" s="62">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E4" s="64">
+      <c r="F5" s="64">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F4" s="65">
+      <c r="G5" s="65">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G4" s="64">
+      <c r="H5" s="64">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H4" s="62">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I4" s="62">
+      <c r="J5" s="62">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J4" s="78">
+      <c r="K5" s="78">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="O5" s="94"/>
+      <c r="P5" s="92">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="93">
+        <v>0</v>
+      </c>
+      <c r="R5" s="93">
+        <v>0</v>
+      </c>
+      <c r="S5" s="93">
+        <v>0</v>
+      </c>
+      <c r="T5" s="93">
+        <v>0</v>
+      </c>
+      <c r="U5" s="93">
+        <v>0</v>
+      </c>
+      <c r="V5" s="93">
+        <v>0</v>
+      </c>
+      <c r="W5" s="93">
+        <v>0</v>
+      </c>
+      <c r="X5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="92">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="93"/>
+      <c r="AM5" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="93"/>
+      <c r="AX5" s="43">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="92">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="92"/>
+      <c r="BH5" s="92"/>
+      <c r="BJ5" s="43">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="92"/>
+      <c r="BV5" s="43">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="92">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="92">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="92">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="92">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="92">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="92">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="92"/>
+      <c r="CF5" s="92"/>
+    </row>
+    <row r="6" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="79">
+      <c r="C6" s="79">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C5" s="62">
+      <c r="D6" s="62">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D5" s="66">
+      <c r="E6" s="66">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E5" s="62">
+      <c r="F6" s="62">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F5" s="66">
+      <c r="G6" s="66">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G5" s="62">
+      <c r="H6" s="62">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H5" s="66">
+      <c r="I6" s="66">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I5" s="62">
+      <c r="J6" s="62">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="J5" s="80">
+      <c r="K6" s="80">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="92">
+        <v>1</v>
+      </c>
+      <c r="R6" s="93">
+        <v>0</v>
+      </c>
+      <c r="S6" s="93">
+        <v>0</v>
+      </c>
+      <c r="T6" s="93">
+        <v>0</v>
+      </c>
+      <c r="U6" s="93">
+        <v>0</v>
+      </c>
+      <c r="V6" s="93">
+        <v>0</v>
+      </c>
+      <c r="W6" s="93">
+        <v>0</v>
+      </c>
+      <c r="X6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="92">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="93"/>
+      <c r="AM6" s="94"/>
+      <c r="AN6" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="93"/>
+      <c r="AY6" s="92">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="93"/>
+      <c r="BK6" s="92">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="93"/>
+      <c r="BT6" s="93"/>
+      <c r="BW6" s="92">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="93">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="93">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="93">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="93"/>
+    </row>
+    <row r="7" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="75">
+      <c r="C7" s="75">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C6" s="62">
+      <c r="D7" s="62">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D6" s="65">
+      <c r="E7" s="65">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="E6" s="62">
+      <c r="F7" s="62">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F6" s="62">
+      <c r="G7" s="62">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G6" s="62">
+      <c r="H7" s="62">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="H6" s="65">
+      <c r="I7" s="65">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I6" s="62">
+      <c r="J7" s="62">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="J6" s="76">
+      <c r="K7" s="76">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="92">
+        <v>1</v>
+      </c>
+      <c r="S7" s="93">
+        <v>0</v>
+      </c>
+      <c r="T7" s="93">
+        <v>0</v>
+      </c>
+      <c r="U7" s="93">
+        <v>0</v>
+      </c>
+      <c r="V7" s="93">
+        <v>0</v>
+      </c>
+      <c r="W7" s="93">
+        <v>0</v>
+      </c>
+      <c r="X7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="93"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="92">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="93"/>
+      <c r="AY7" s="94"/>
+      <c r="AZ7" s="92">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="93"/>
+      <c r="BH7" s="93"/>
+      <c r="BK7" s="94"/>
+      <c r="BL7" s="92">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="93"/>
+      <c r="BT7" s="93"/>
+      <c r="BW7" s="94"/>
+      <c r="BX7" s="92">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="93">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="93">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="93">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="93"/>
+      <c r="CF7" s="93"/>
+    </row>
+    <row r="8" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="81">
+      <c r="C8" s="81">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C7" s="67">
+      <c r="D8" s="67">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D7" s="65">
+      <c r="E8" s="65">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="E7" s="67">
+      <c r="F8" s="67">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F7" s="67">
+      <c r="G8" s="67">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G7" s="67">
+      <c r="H8" s="67">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H7" s="65">
+      <c r="I8" s="65">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="I7" s="67">
+      <c r="J8" s="67">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="J7" s="82">
+      <c r="K8" s="82">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23">
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="92">
+        <v>1</v>
+      </c>
+      <c r="T8" s="93">
+        <v>0</v>
+      </c>
+      <c r="U8" s="93">
+        <v>0</v>
+      </c>
+      <c r="V8" s="93">
+        <v>0</v>
+      </c>
+      <c r="W8" s="93">
+        <v>0</v>
+      </c>
+      <c r="X8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="92">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="93"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="92">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="93"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="92">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="93"/>
+      <c r="BH8" s="93"/>
+      <c r="BK8" s="94"/>
+      <c r="BL8" s="94"/>
+      <c r="BM8" s="92">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="93"/>
+      <c r="BT8" s="93"/>
+      <c r="BW8" s="94"/>
+      <c r="BX8" s="94"/>
+      <c r="BY8" s="92">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="93">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="93">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="93"/>
+      <c r="CF8" s="93"/>
+    </row>
+    <row r="9" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="79">
+      <c r="C9" s="79">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C8" s="67">
+      <c r="D9" s="67">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D8" s="66">
+      <c r="E9" s="66">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E8" s="67">
+      <c r="F9" s="67">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F8" s="66">
+      <c r="G9" s="66">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G8" s="67">
+      <c r="H9" s="67">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="H8" s="66">
+      <c r="I9" s="66">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I8" s="67">
+      <c r="J9" s="67">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="J8" s="80">
+      <c r="K9" s="80">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="92">
+        <v>1</v>
+      </c>
+      <c r="U9" s="93">
+        <v>0</v>
+      </c>
+      <c r="V9" s="93">
+        <v>0</v>
+      </c>
+      <c r="W9" s="93">
+        <v>0</v>
+      </c>
+      <c r="X9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="92">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="93"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="92">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="93"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="92">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="93"/>
+      <c r="BH9" s="93"/>
+      <c r="BK9" s="94"/>
+      <c r="BL9" s="94"/>
+      <c r="BM9" s="94"/>
+      <c r="BN9" s="92">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="93"/>
+      <c r="BT9" s="93"/>
+      <c r="BW9" s="94"/>
+      <c r="BX9" s="94"/>
+      <c r="BY9" s="94"/>
+      <c r="BZ9" s="92">
+        <v>1</v>
+      </c>
+      <c r="CA9" s="93">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="93"/>
+      <c r="CF9" s="93"/>
+    </row>
+    <row r="10" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="77">
+      <c r="C10" s="77">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C9" s="67">
+      <c r="D10" s="67">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D9" s="67">
+      <c r="E10" s="67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E9" s="64">
+      <c r="F10" s="64">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F9" s="65">
+      <c r="G10" s="65">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="G9" s="64">
+      <c r="H10" s="64">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="H9" s="67">
+      <c r="I10" s="67">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="I9" s="67">
+      <c r="J10" s="67">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J9" s="78">
+      <c r="K10" s="78">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23">
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="92">
+        <v>1</v>
+      </c>
+      <c r="V10" s="93">
+        <v>0</v>
+      </c>
+      <c r="W10" s="93">
+        <v>0</v>
+      </c>
+      <c r="X10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="92">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="93"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="92">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="93"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="92">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="93">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="93">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="93"/>
+      <c r="BK10" s="94"/>
+      <c r="BL10" s="94"/>
+      <c r="BM10" s="94"/>
+      <c r="BN10" s="94"/>
+      <c r="BO10" s="92">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="93">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="93"/>
+      <c r="BT10" s="93"/>
+      <c r="BW10" s="94"/>
+      <c r="BX10" s="94"/>
+      <c r="BY10" s="94"/>
+      <c r="BZ10" s="94"/>
+      <c r="CA10" s="92">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="93">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="93"/>
+      <c r="CF10" s="93"/>
+    </row>
+    <row r="11" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="81">
+      <c r="C11" s="81">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C10" s="67">
+      <c r="D11" s="67">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="D10" s="67">
+      <c r="E11" s="67">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="E10" s="63">
+      <c r="F11" s="63">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="F10" s="64">
+      <c r="G11" s="64">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G10" s="63">
+      <c r="H11" s="63">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="H10" s="67">
+      <c r="I11" s="67">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="I10" s="67">
+      <c r="J11" s="67">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="J10" s="82">
+      <c r="K11" s="82">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="92">
+        <v>1</v>
+      </c>
+      <c r="W11" s="93">
+        <v>0</v>
+      </c>
+      <c r="X11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="93"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="94"/>
+      <c r="AS11" s="92">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="93"/>
+      <c r="AY11" s="94"/>
+      <c r="AZ11" s="94"/>
+      <c r="BA11" s="94"/>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="92">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="93">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="93"/>
+      <c r="BH11" s="93"/>
+      <c r="BK11" s="94"/>
+      <c r="BL11" s="94"/>
+      <c r="BM11" s="94"/>
+      <c r="BN11" s="94"/>
+      <c r="BO11" s="94"/>
+      <c r="BP11" s="92">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="93">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="93"/>
+      <c r="BT11" s="93"/>
+      <c r="BW11" s="94"/>
+      <c r="BX11" s="94"/>
+      <c r="BY11" s="94"/>
+      <c r="BZ11" s="94"/>
+      <c r="CA11" s="94"/>
+      <c r="CB11" s="92">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="93">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="93"/>
+      <c r="CF11" s="93"/>
+    </row>
+    <row r="12" spans="2:84" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="83">
+      <c r="C12" s="83">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C11" s="84">
+      <c r="D12" s="84">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="D11" s="85">
+      <c r="E12" s="85">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="E11" s="86">
+      <c r="F12" s="86">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F11" s="87">
+      <c r="G12" s="87">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G11" s="86">
+      <c r="H12" s="86">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="H11" s="85">
+      <c r="I12" s="85">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="I11" s="88">
+      <c r="J12" s="88">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="J11" s="89">
+      <c r="K12" s="89">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="92">
+        <v>1</v>
+      </c>
+      <c r="X12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="93"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="92">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="93">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="93"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="92">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="93">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="93"/>
+      <c r="BH12" s="93"/>
+      <c r="BK12" s="94"/>
+      <c r="BL12" s="94"/>
+      <c r="BM12" s="94"/>
+      <c r="BN12" s="94"/>
+      <c r="BO12" s="94"/>
+      <c r="BP12" s="94"/>
+      <c r="BQ12" s="92">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="93">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="93"/>
+      <c r="BW12" s="94"/>
+      <c r="BX12" s="94"/>
+      <c r="BY12" s="94"/>
+      <c r="BZ12" s="94"/>
+      <c r="CA12" s="94"/>
+      <c r="CB12" s="94"/>
+      <c r="CC12" s="92">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="93">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="93"/>
+      <c r="CF12" s="93"/>
+    </row>
+    <row r="13" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" s="43">
+        <v>0</v>
+      </c>
+      <c r="P13" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>2</v>
+      </c>
+      <c r="R13" s="43">
+        <v>3</v>
+      </c>
+      <c r="S13" s="43">
+        <v>4</v>
+      </c>
+      <c r="T13" s="43">
+        <v>5</v>
+      </c>
+      <c r="U13" s="43">
+        <v>6</v>
+      </c>
+      <c r="V13" s="43">
+        <v>7</v>
+      </c>
+      <c r="W13" s="43">
+        <v>8</v>
+      </c>
+      <c r="X13" s="43">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" s="43">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="43">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="43">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="43">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="43">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="43">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="43">
+        <v>7</v>
+      </c>
+      <c r="AI13" s="43">
+        <v>8</v>
+      </c>
+      <c r="AJ13" s="43">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM13" s="43">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="43">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="43">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="43">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="43">
+        <v>4</v>
+      </c>
+      <c r="AR13" s="43">
+        <v>5</v>
+      </c>
+      <c r="AS13" s="43">
+        <v>6</v>
+      </c>
+      <c r="AT13" s="43">
+        <v>7</v>
+      </c>
+      <c r="AU13" s="43">
+        <v>8</v>
+      </c>
+      <c r="AV13" s="43">
+        <v>9</v>
+      </c>
+      <c r="AX13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY13" s="43">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="43">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="43">
+        <v>2</v>
+      </c>
+      <c r="BB13" s="43">
+        <v>3</v>
+      </c>
+      <c r="BC13" s="43">
+        <v>4</v>
+      </c>
+      <c r="BD13" s="43">
+        <v>5</v>
+      </c>
+      <c r="BE13" s="43">
+        <v>6</v>
+      </c>
+      <c r="BF13" s="43">
+        <v>7</v>
+      </c>
+      <c r="BG13" s="43">
+        <v>8</v>
+      </c>
+      <c r="BH13" s="43">
+        <v>9</v>
+      </c>
+      <c r="BJ13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="BK13" s="43">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="43">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="43">
+        <v>2</v>
+      </c>
+      <c r="BN13" s="43">
+        <v>3</v>
+      </c>
+      <c r="BO13" s="43">
+        <v>4</v>
+      </c>
+      <c r="BP13" s="43">
+        <v>5</v>
+      </c>
+      <c r="BQ13" s="43">
+        <v>6</v>
+      </c>
+      <c r="BR13" s="43">
+        <v>7</v>
+      </c>
+      <c r="BS13" s="43">
+        <v>8</v>
+      </c>
+      <c r="BT13" s="43">
+        <v>9</v>
+      </c>
+      <c r="BV13" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW13" s="43">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="43">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="43">
+        <v>2</v>
+      </c>
+      <c r="BZ13" s="43">
+        <v>3</v>
+      </c>
+      <c r="CA13" s="43">
+        <v>4</v>
+      </c>
+      <c r="CB13" s="43">
+        <v>5</v>
+      </c>
+      <c r="CC13" s="43">
+        <v>6</v>
+      </c>
+      <c r="CD13" s="43">
+        <v>7</v>
+      </c>
+      <c r="CE13" s="43">
+        <v>8</v>
+      </c>
+      <c r="CF13" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N14" s="95"/>
+    </row>
+    <row r="15" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="L15" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="Q13" s="90" t="s">
+      <c r="R15" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="Y13" s="90" t="s">
+      <c r="Z15" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="AE13" s="90" t="s">
+      <c r="AF15" s="90" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="91" t="s">
+    <row r="16" spans="2:84" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="43">
-        <v>1</v>
-      </c>
-      <c r="K14" s="90" t="s">
+      <c r="C16" s="43">
+        <v>1</v>
+      </c>
+      <c r="L16" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="96" t="s">
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R16" s="101"/>
+      <c r="S16" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="X14" s="96" t="s">
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="Z14" s="48" t="s">
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="AE14" s="91" t="s">
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AF16" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="AF14" s="43">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="90" t="s">
+      <c r="AG16" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="90" t="s">
+    <row r="17" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="92">
-        <v>1</v>
-      </c>
-      <c r="C15" s="92">
-        <v>1</v>
-      </c>
-      <c r="D15" s="95">
-        <v>1</v>
-      </c>
-      <c r="E15" s="95">
-        <v>1</v>
-      </c>
-      <c r="F15" s="95">
-        <v>1</v>
-      </c>
-      <c r="G15" s="95">
-        <v>1</v>
-      </c>
-      <c r="H15" s="95">
-        <v>1</v>
-      </c>
-      <c r="I15" s="95">
-        <v>1</v>
-      </c>
-      <c r="J15" s="95">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43">
-        <v>0</v>
-      </c>
-      <c r="P15" s="97">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="98" t="s">
+      <c r="C17" s="92">
+        <v>1</v>
+      </c>
+      <c r="D17" s="92">
+        <v>1</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="96">
+        <v>1</v>
+      </c>
+      <c r="R17" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R15" s="97">
+      <c r="S17" s="96">
         <v>9</v>
       </c>
-      <c r="S15" s="98" t="s">
+      <c r="T17" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T15" s="97">
-        <f>P15*R15</f>
+      <c r="U17" s="100">
+        <f>Q17*S17</f>
         <v>9</v>
       </c>
-      <c r="X15" s="97">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="98" t="s">
+      <c r="Y17" s="96">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z15" s="97">
+      <c r="AA17" s="96">
         <v>10</v>
       </c>
-      <c r="AA15" s="98" t="s">
+      <c r="AB17" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB15" s="97">
-        <f>X15*Z15</f>
+      <c r="AC17" s="100">
+        <f>Y17*AA17</f>
         <v>10</v>
       </c>
-      <c r="AE15" s="90" t="s">
+      <c r="AF17" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="AF15" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="95">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="92">
-        <v>1</v>
-      </c>
-      <c r="C16" s="93">
-        <v>0</v>
-      </c>
-      <c r="D16" s="92">
-        <v>1</v>
-      </c>
-      <c r="E16" s="95">
-        <v>1</v>
-      </c>
-      <c r="F16" s="95">
-        <v>1</v>
-      </c>
-      <c r="G16" s="95">
-        <v>1</v>
-      </c>
-      <c r="H16" s="95">
-        <v>1</v>
-      </c>
-      <c r="I16" s="95">
-        <v>1</v>
-      </c>
-      <c r="J16" s="95">
-        <v>1</v>
-      </c>
-      <c r="K16" s="43">
-        <v>1</v>
-      </c>
-      <c r="P16" s="97">
+      <c r="AG17" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="94"/>
+      <c r="AJ17" s="94"/>
+      <c r="AK17" s="94"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="43">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="92">
+        <v>1</v>
+      </c>
+      <c r="D18" s="93">
+        <v>0</v>
+      </c>
+      <c r="E18" s="92">
+        <v>1</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="96">
         <v>2</v>
       </c>
-      <c r="Q16" s="98" t="s">
+      <c r="R18" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="97">
+      <c r="S18" s="96">
         <v>8</v>
       </c>
-      <c r="S16" s="98" t="s">
+      <c r="T18" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T16" s="97">
-        <f t="shared" ref="T16:T23" si="1">P16*R16</f>
+      <c r="U18" s="100">
+        <f t="shared" ref="U18:U25" si="1">Q18*S18</f>
         <v>16</v>
       </c>
-      <c r="X16" s="97">
+      <c r="Y18" s="96">
         <v>2</v>
       </c>
-      <c r="Y16" s="98" t="s">
+      <c r="Z18" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z16" s="97">
+      <c r="AA18" s="96">
         <v>9</v>
       </c>
-      <c r="AA16" s="98" t="s">
+      <c r="AB18" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB16" s="97">
-        <f t="shared" ref="AB16:AB24" si="2">X16*Z16</f>
+      <c r="AC18" s="100">
+        <f t="shared" ref="AC18:AC26" si="2">Y18*AA18</f>
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="92">
-        <v>1</v>
-      </c>
-      <c r="C17" s="93">
-        <v>0</v>
-      </c>
-      <c r="D17" s="93">
-        <v>0</v>
-      </c>
-      <c r="E17" s="92">
-        <v>1</v>
-      </c>
-      <c r="F17" s="95">
-        <v>1</v>
-      </c>
-      <c r="G17" s="95">
-        <v>1</v>
-      </c>
-      <c r="H17" s="95">
-        <v>1</v>
-      </c>
-      <c r="I17" s="95">
-        <v>1</v>
-      </c>
-      <c r="J17" s="95">
-        <v>1</v>
-      </c>
-      <c r="K17" s="43">
+    <row r="19" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="92">
+        <v>1</v>
+      </c>
+      <c r="D19" s="93">
+        <v>0</v>
+      </c>
+      <c r="E19" s="93">
+        <v>0</v>
+      </c>
+      <c r="F19" s="92">
+        <v>1</v>
+      </c>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="43">
         <v>2</v>
       </c>
-      <c r="P17" s="97">
+      <c r="Q19" s="96">
         <v>3</v>
       </c>
-      <c r="Q17" s="98" t="s">
+      <c r="R19" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R17" s="97">
+      <c r="S19" s="96">
         <v>7</v>
       </c>
-      <c r="S17" s="98" t="s">
+      <c r="T19" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T17" s="97">
+      <c r="U19" s="100">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="X17" s="97">
+      <c r="Y19" s="96">
         <v>3</v>
       </c>
-      <c r="Y17" s="98" t="s">
+      <c r="Z19" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z17" s="97">
+      <c r="AA19" s="96">
         <v>8</v>
       </c>
-      <c r="AA17" s="98" t="s">
+      <c r="AB19" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB17" s="97">
+      <c r="AC19" s="100">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AF17" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="95">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="95">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="92">
-        <v>1</v>
-      </c>
-      <c r="C18" s="93">
-        <v>0</v>
-      </c>
-      <c r="D18" s="93">
-        <v>0</v>
-      </c>
-      <c r="E18" s="93">
-        <v>0</v>
-      </c>
-      <c r="F18" s="92">
-        <v>1</v>
-      </c>
-      <c r="G18" s="95">
-        <v>1</v>
-      </c>
-      <c r="H18" s="95">
-        <v>1</v>
-      </c>
-      <c r="I18" s="95">
-        <v>1</v>
-      </c>
-      <c r="J18" s="95">
-        <v>1</v>
-      </c>
-      <c r="K18" s="43">
+      <c r="AG19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+    </row>
+    <row r="20" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="92">
+        <v>1</v>
+      </c>
+      <c r="D20" s="93">
+        <v>0</v>
+      </c>
+      <c r="E20" s="93">
+        <v>0</v>
+      </c>
+      <c r="F20" s="93">
+        <v>0</v>
+      </c>
+      <c r="G20" s="92">
+        <v>1</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="43">
         <v>3</v>
       </c>
-      <c r="P18" s="97">
+      <c r="Q20" s="96">
         <v>4</v>
       </c>
-      <c r="Q18" s="98" t="s">
+      <c r="R20" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R18" s="97">
+      <c r="S20" s="96">
         <v>6</v>
       </c>
-      <c r="S18" s="98" t="s">
+      <c r="T20" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T18" s="97">
+      <c r="U20" s="100">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="X18" s="97">
+      <c r="Y20" s="96">
         <v>4</v>
       </c>
-      <c r="Y18" s="98" t="s">
+      <c r="Z20" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z18" s="97">
+      <c r="AA20" s="96">
         <v>7</v>
       </c>
-      <c r="AA18" s="98" t="s">
+      <c r="AB20" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB18" s="97">
+      <c r="AC20" s="100">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AF18" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="93">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="95">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="92">
-        <v>1</v>
-      </c>
-      <c r="C19" s="93">
-        <v>0</v>
-      </c>
-      <c r="D19" s="93">
-        <v>0</v>
-      </c>
-      <c r="E19" s="93">
-        <v>0</v>
-      </c>
-      <c r="F19" s="93">
-        <v>0</v>
-      </c>
-      <c r="G19" s="92">
-        <v>1</v>
-      </c>
-      <c r="H19" s="95">
-        <v>1</v>
-      </c>
-      <c r="I19" s="95">
-        <v>1</v>
-      </c>
-      <c r="J19" s="95">
-        <v>1</v>
-      </c>
-      <c r="K19" s="43">
+      <c r="AG20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+    </row>
+    <row r="21" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="92">
+        <v>1</v>
+      </c>
+      <c r="D21" s="93">
+        <v>0</v>
+      </c>
+      <c r="E21" s="93">
+        <v>0</v>
+      </c>
+      <c r="F21" s="93">
+        <v>0</v>
+      </c>
+      <c r="G21" s="93">
+        <v>0</v>
+      </c>
+      <c r="H21" s="92">
+        <v>1</v>
+      </c>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="43">
         <v>4</v>
       </c>
-      <c r="P19" s="97">
+      <c r="Q21" s="96">
         <v>5</v>
       </c>
-      <c r="Q19" s="98" t="s">
+      <c r="R21" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R19" s="97">
+      <c r="S21" s="96">
         <v>5</v>
       </c>
-      <c r="S19" s="98" t="s">
+      <c r="T21" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T19" s="97">
+      <c r="U21" s="100">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="X19" s="97">
+      <c r="Y21" s="96">
         <v>5</v>
       </c>
-      <c r="Y19" s="98" t="s">
+      <c r="Z21" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z19" s="97">
+      <c r="AA21" s="96">
         <v>6</v>
       </c>
-      <c r="AA19" s="98" t="s">
+      <c r="AB21" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB19" s="97">
+      <c r="AC21" s="100">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="AF19" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="93">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="92">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL19" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="92">
-        <v>1</v>
-      </c>
-      <c r="C20" s="93">
-        <v>0</v>
-      </c>
-      <c r="D20" s="93">
-        <v>0</v>
-      </c>
-      <c r="E20" s="93">
-        <v>0</v>
-      </c>
-      <c r="F20" s="93">
-        <v>0</v>
-      </c>
-      <c r="G20" s="93">
-        <v>0</v>
-      </c>
-      <c r="H20" s="92">
-        <v>1</v>
-      </c>
-      <c r="I20" s="95">
-        <v>1</v>
-      </c>
-      <c r="J20" s="95">
-        <v>1</v>
-      </c>
-      <c r="K20" s="43">
+      <c r="AG21" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="94"/>
+    </row>
+    <row r="22" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="92">
+        <v>1</v>
+      </c>
+      <c r="D22" s="93">
+        <v>0</v>
+      </c>
+      <c r="E22" s="93">
+        <v>0</v>
+      </c>
+      <c r="F22" s="93">
+        <v>0</v>
+      </c>
+      <c r="G22" s="93">
+        <v>0</v>
+      </c>
+      <c r="H22" s="93">
+        <v>0</v>
+      </c>
+      <c r="I22" s="92">
+        <v>1</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="43">
         <v>5</v>
       </c>
-      <c r="P20" s="97">
+      <c r="Q22" s="96">
         <v>6</v>
       </c>
-      <c r="Q20" s="98" t="s">
+      <c r="R22" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="97">
+      <c r="S22" s="96">
         <v>4</v>
       </c>
-      <c r="S20" s="98" t="s">
+      <c r="T22" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T20" s="97">
+      <c r="U22" s="100">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="X20" s="97">
+      <c r="Y22" s="96">
         <v>6</v>
       </c>
-      <c r="Y20" s="98" t="s">
+      <c r="Z22" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z20" s="97">
+      <c r="AA22" s="96">
         <v>5</v>
       </c>
-      <c r="AA20" s="98" t="s">
+      <c r="AB22" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB20" s="97">
+      <c r="AC22" s="100">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="AF20" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="93">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="92">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="92">
-        <v>1</v>
-      </c>
-      <c r="C21" s="93">
-        <v>0</v>
-      </c>
-      <c r="D21" s="93">
-        <v>0</v>
-      </c>
-      <c r="E21" s="93">
-        <v>0</v>
-      </c>
-      <c r="F21" s="93">
-        <v>0</v>
-      </c>
-      <c r="G21" s="93">
-        <v>0</v>
-      </c>
-      <c r="H21" s="93">
-        <v>0</v>
-      </c>
-      <c r="I21" s="92">
-        <v>1</v>
-      </c>
-      <c r="J21" s="95">
-        <v>1</v>
-      </c>
-      <c r="K21" s="43">
+      <c r="AG22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+    </row>
+    <row r="23" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="92">
+        <v>1</v>
+      </c>
+      <c r="D23" s="93">
+        <v>0</v>
+      </c>
+      <c r="E23" s="93">
+        <v>0</v>
+      </c>
+      <c r="F23" s="93">
+        <v>0</v>
+      </c>
+      <c r="G23" s="93">
+        <v>0</v>
+      </c>
+      <c r="H23" s="93">
+        <v>0</v>
+      </c>
+      <c r="I23" s="93">
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <v>1</v>
+      </c>
+      <c r="K23" s="94"/>
+      <c r="L23" s="43">
         <v>6</v>
       </c>
-      <c r="P21" s="97">
+      <c r="Q23" s="96">
         <v>7</v>
       </c>
-      <c r="Q21" s="98" t="s">
+      <c r="R23" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R21" s="97">
+      <c r="S23" s="96">
         <v>3</v>
       </c>
-      <c r="S21" s="98" t="s">
+      <c r="T23" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T21" s="97">
+      <c r="U23" s="100">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="X21" s="97">
+      <c r="Y23" s="96">
         <v>7</v>
       </c>
-      <c r="Y21" s="98" t="s">
+      <c r="Z23" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z21" s="97">
+      <c r="AA23" s="96">
         <v>4</v>
       </c>
-      <c r="AA21" s="98" t="s">
+      <c r="AB23" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB21" s="97">
+      <c r="AC23" s="100">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="AF21" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="93">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="93">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="92">
-        <v>1</v>
-      </c>
-      <c r="C22" s="93">
-        <v>0</v>
-      </c>
-      <c r="D22" s="93">
-        <v>0</v>
-      </c>
-      <c r="E22" s="93">
-        <v>0</v>
-      </c>
-      <c r="F22" s="93">
-        <v>0</v>
-      </c>
-      <c r="G22" s="93">
-        <v>0</v>
-      </c>
-      <c r="H22" s="93">
-        <v>0</v>
-      </c>
-      <c r="I22" s="93">
-        <v>0</v>
-      </c>
-      <c r="J22" s="92">
-        <v>1</v>
-      </c>
-      <c r="K22" s="43">
+      <c r="AG23" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="94"/>
+      <c r="AO23" s="94"/>
+    </row>
+    <row r="24" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="92">
+        <v>1</v>
+      </c>
+      <c r="D24" s="93">
+        <v>0</v>
+      </c>
+      <c r="E24" s="93">
+        <v>0</v>
+      </c>
+      <c r="F24" s="93">
+        <v>0</v>
+      </c>
+      <c r="G24" s="93">
+        <v>0</v>
+      </c>
+      <c r="H24" s="93">
+        <v>0</v>
+      </c>
+      <c r="I24" s="93">
+        <v>0</v>
+      </c>
+      <c r="J24" s="93">
+        <v>0</v>
+      </c>
+      <c r="K24" s="92">
+        <v>1</v>
+      </c>
+      <c r="L24" s="43">
         <v>7</v>
       </c>
-      <c r="P22" s="97">
+      <c r="Q24" s="96">
         <v>8</v>
       </c>
-      <c r="Q22" s="98" t="s">
+      <c r="R24" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R22" s="97">
+      <c r="S24" s="96">
         <v>2</v>
       </c>
-      <c r="S22" s="98" t="s">
+      <c r="T24" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T22" s="97">
+      <c r="U24" s="100">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="X22" s="97">
+      <c r="Y24" s="96">
         <v>8</v>
       </c>
-      <c r="Y22" s="98" t="s">
+      <c r="Z24" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z22" s="97">
+      <c r="AA24" s="96">
         <v>3</v>
       </c>
-      <c r="AA22" s="98" t="s">
+      <c r="AB24" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB22" s="97">
+      <c r="AC24" s="100">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AF22" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="93">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="93">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="93">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="92">
-        <v>1</v>
-      </c>
-      <c r="C23" s="93">
-        <v>0</v>
-      </c>
-      <c r="D23" s="93">
-        <v>0</v>
-      </c>
-      <c r="E23" s="93">
-        <v>0</v>
-      </c>
-      <c r="F23" s="93">
-        <v>0</v>
-      </c>
-      <c r="G23" s="93">
-        <v>0</v>
-      </c>
-      <c r="H23" s="93">
-        <v>0</v>
-      </c>
-      <c r="I23" s="93">
-        <v>0</v>
-      </c>
-      <c r="J23" s="93">
-        <v>0</v>
-      </c>
-      <c r="K23" s="43">
+      <c r="AG24" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="94"/>
+    </row>
+    <row r="25" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="92">
+        <v>1</v>
+      </c>
+      <c r="D25" s="93">
+        <v>0</v>
+      </c>
+      <c r="E25" s="93">
+        <v>0</v>
+      </c>
+      <c r="F25" s="93">
+        <v>0</v>
+      </c>
+      <c r="G25" s="93">
+        <v>0</v>
+      </c>
+      <c r="H25" s="93">
+        <v>0</v>
+      </c>
+      <c r="I25" s="93">
+        <v>0</v>
+      </c>
+      <c r="J25" s="93">
+        <v>0</v>
+      </c>
+      <c r="K25" s="93">
+        <v>0</v>
+      </c>
+      <c r="L25" s="43">
         <v>8</v>
       </c>
-      <c r="P23" s="97">
+      <c r="Q25" s="96">
         <v>9</v>
       </c>
-      <c r="Q23" s="98" t="s">
+      <c r="R25" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="R23" s="97">
-        <v>1</v>
-      </c>
-      <c r="S23" s="98" t="s">
+      <c r="S25" s="96">
+        <v>1</v>
+      </c>
+      <c r="T25" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="T23" s="97">
+      <c r="U25" s="100">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="X23" s="97">
+      <c r="Y25" s="96">
         <v>9</v>
       </c>
-      <c r="Y23" s="98" t="s">
+      <c r="Z25" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z23" s="97">
+      <c r="AA25" s="96">
         <v>2</v>
       </c>
-      <c r="AA23" s="98" t="s">
+      <c r="AB25" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB23" s="97">
+      <c r="AC25" s="100">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AF23" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="92">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="93">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="93">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="93">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="93">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="91" t="s">
+      <c r="AG25" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="43">
-        <v>1</v>
-      </c>
-      <c r="K24" s="90" t="s">
+      <c r="D26" s="43">
+        <v>1</v>
+      </c>
+      <c r="L26" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="98" t="s">
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="T24" s="99">
-        <f>SUM(T15:T23)</f>
+      <c r="U26" s="103">
+        <f>SUM(U17:U25)</f>
         <v>165</v>
       </c>
-      <c r="X24" s="97">
+      <c r="Y26" s="96">
         <v>10</v>
       </c>
-      <c r="Y24" s="98" t="s">
+      <c r="Z26" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Z24" s="97">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="98" t="s">
+      <c r="AA26" s="96">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AB24" s="97">
+      <c r="AC26" s="100">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AE24" s="91" t="s">
+      <c r="AF26" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="AF24" s="43">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="90" t="s">
+      <c r="AG26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="90"/>
-      <c r="B25" s="92">
-        <v>1</v>
-      </c>
-      <c r="C25" s="92">
-        <v>1</v>
-      </c>
-      <c r="D25" s="92">
-        <v>1</v>
-      </c>
-      <c r="E25" s="95">
-        <v>1</v>
-      </c>
-      <c r="F25" s="95">
-        <v>1</v>
-      </c>
-      <c r="G25" s="95">
-        <v>1</v>
-      </c>
-      <c r="H25" s="95">
-        <v>1</v>
-      </c>
-      <c r="I25" s="95">
-        <v>1</v>
-      </c>
-      <c r="J25" s="95">
-        <v>1</v>
-      </c>
-      <c r="K25" s="43">
-        <v>0</v>
-      </c>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="98" t="s">
+    <row r="27" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="90"/>
+      <c r="C27" s="92">
+        <v>1</v>
+      </c>
+      <c r="D27" s="92">
+        <v>1</v>
+      </c>
+      <c r="E27" s="92">
+        <v>1</v>
+      </c>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="96"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="AB25" s="99">
-        <f>SUM(AB15:AB24)</f>
+      <c r="AC27" s="103">
+        <f>SUM(AC17:AC26)</f>
         <v>220</v>
       </c>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="95">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="95">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="95">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="92">
-        <v>1</v>
-      </c>
-      <c r="C26" s="92">
-        <v>1</v>
-      </c>
-      <c r="D26" s="93">
-        <v>0</v>
-      </c>
-      <c r="E26" s="92">
-        <v>1</v>
-      </c>
-      <c r="F26" s="95">
-        <v>1</v>
-      </c>
-      <c r="G26" s="95">
-        <v>1</v>
-      </c>
-      <c r="H26" s="95">
-        <v>1</v>
-      </c>
-      <c r="I26" s="95">
-        <v>1</v>
-      </c>
-      <c r="J26" s="95">
-        <v>1</v>
-      </c>
-      <c r="K26" s="43">
-        <v>1</v>
-      </c>
-      <c r="V26" s="90" t="s">
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="94"/>
+      <c r="AP27" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="92">
+        <v>1</v>
+      </c>
+      <c r="D28" s="92">
+        <v>1</v>
+      </c>
+      <c r="E28" s="93">
+        <v>0</v>
+      </c>
+      <c r="F28" s="92">
+        <v>1</v>
+      </c>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="43">
+        <v>1</v>
+      </c>
+      <c r="W28" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="W26" s="94">
-        <f>T24+AB25</f>
+      <c r="X28" s="104">
+        <f>U26+AC27</f>
         <v>385</v>
       </c>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="100"/>
-      <c r="AK26" s="100"/>
-      <c r="AL26" s="100"/>
-      <c r="AM26" s="100"/>
-      <c r="AN26" s="100"/>
-      <c r="AO26" s="100"/>
-    </row>
-    <row r="27" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="92">
-        <v>1</v>
-      </c>
-      <c r="C27" s="92">
-        <v>1</v>
-      </c>
-      <c r="D27" s="93">
-        <v>0</v>
-      </c>
-      <c r="E27" s="93">
-        <v>0</v>
-      </c>
-      <c r="F27" s="92">
-        <v>1</v>
-      </c>
-      <c r="G27" s="95">
-        <v>1</v>
-      </c>
-      <c r="H27" s="95">
-        <v>1</v>
-      </c>
-      <c r="I27" s="95">
-        <v>1</v>
-      </c>
-      <c r="J27" s="95">
-        <v>1</v>
-      </c>
-      <c r="K27" s="43">
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+    </row>
+    <row r="29" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="92">
+        <v>1</v>
+      </c>
+      <c r="D29" s="92">
+        <v>1</v>
+      </c>
+      <c r="E29" s="93">
+        <v>0</v>
+      </c>
+      <c r="F29" s="93">
+        <v>0</v>
+      </c>
+      <c r="G29" s="92">
+        <v>1</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="43">
         <v>2</v>
       </c>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="100"/>
-      <c r="AK27" s="100"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="100"/>
-      <c r="AN27" s="100"/>
-    </row>
-    <row r="28" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="92">
-        <v>1</v>
-      </c>
-      <c r="C28" s="92">
-        <v>1</v>
-      </c>
-      <c r="D28" s="93">
-        <v>0</v>
-      </c>
-      <c r="E28" s="93">
-        <v>0</v>
-      </c>
-      <c r="F28" s="93">
-        <v>0</v>
-      </c>
-      <c r="G28" s="92">
-        <v>1</v>
-      </c>
-      <c r="H28" s="95">
-        <v>1</v>
-      </c>
-      <c r="I28" s="95">
-        <v>1</v>
-      </c>
-      <c r="J28" s="95">
-        <v>1</v>
-      </c>
-      <c r="K28" s="43">
+      <c r="AG29" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+    </row>
+    <row r="30" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="92">
+        <v>1</v>
+      </c>
+      <c r="D30" s="92">
+        <v>1</v>
+      </c>
+      <c r="E30" s="93">
+        <v>0</v>
+      </c>
+      <c r="F30" s="93">
+        <v>0</v>
+      </c>
+      <c r="G30" s="93">
+        <v>0</v>
+      </c>
+      <c r="H30" s="92">
+        <v>1</v>
+      </c>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="43">
         <v>3</v>
       </c>
-      <c r="AF28" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="92">
-        <v>1</v>
-      </c>
-      <c r="AJ28" s="95">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="92">
-        <v>1</v>
-      </c>
-      <c r="C29" s="92">
-        <v>1</v>
-      </c>
-      <c r="D29" s="93">
-        <v>0</v>
-      </c>
-      <c r="E29" s="93">
-        <v>0</v>
-      </c>
-      <c r="F29" s="93">
-        <v>0</v>
-      </c>
-      <c r="G29" s="93">
-        <v>0</v>
-      </c>
-      <c r="H29" s="92">
-        <v>1</v>
-      </c>
-      <c r="I29" s="95">
-        <v>1</v>
-      </c>
-      <c r="J29" s="95">
-        <v>1</v>
-      </c>
-      <c r="K29" s="43">
+      <c r="AG30" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="94"/>
+      <c r="AN30" s="94"/>
+      <c r="AO30" s="94"/>
+    </row>
+    <row r="31" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="92">
+        <v>1</v>
+      </c>
+      <c r="D31" s="92">
+        <v>1</v>
+      </c>
+      <c r="E31" s="93">
+        <v>0</v>
+      </c>
+      <c r="F31" s="93">
+        <v>0</v>
+      </c>
+      <c r="G31" s="93">
+        <v>0</v>
+      </c>
+      <c r="H31" s="93">
+        <v>0</v>
+      </c>
+      <c r="I31" s="92">
+        <v>1</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="43">
         <v>4</v>
       </c>
-      <c r="AF29" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="92">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="95">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="92">
-        <v>1</v>
-      </c>
-      <c r="C30" s="92">
-        <v>1</v>
-      </c>
-      <c r="D30" s="93">
-        <v>0</v>
-      </c>
-      <c r="E30" s="93">
-        <v>0</v>
-      </c>
-      <c r="F30" s="93">
-        <v>0</v>
-      </c>
-      <c r="G30" s="93">
-        <v>0</v>
-      </c>
-      <c r="H30" s="93">
-        <v>0</v>
-      </c>
-      <c r="I30" s="92">
-        <v>1</v>
-      </c>
-      <c r="J30" s="95">
-        <v>1</v>
-      </c>
-      <c r="K30" s="43">
+      <c r="AG31" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="94"/>
+      <c r="AN31" s="94"/>
+      <c r="AO31" s="94"/>
+    </row>
+    <row r="32" spans="2:44" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="92">
+        <v>1</v>
+      </c>
+      <c r="D32" s="92">
+        <v>1</v>
+      </c>
+      <c r="E32" s="93">
+        <v>0</v>
+      </c>
+      <c r="F32" s="93">
+        <v>0</v>
+      </c>
+      <c r="G32" s="93">
+        <v>0</v>
+      </c>
+      <c r="H32" s="93">
+        <v>0</v>
+      </c>
+      <c r="I32" s="93">
+        <v>0</v>
+      </c>
+      <c r="J32" s="92">
+        <v>1</v>
+      </c>
+      <c r="K32" s="94"/>
+      <c r="L32" s="43">
         <v>5</v>
       </c>
-      <c r="AF30" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="92">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="95">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="92">
-        <v>1</v>
-      </c>
-      <c r="C31" s="92">
-        <v>1</v>
-      </c>
-      <c r="D31" s="93">
-        <v>0</v>
-      </c>
-      <c r="E31" s="93">
-        <v>0</v>
-      </c>
-      <c r="F31" s="93">
-        <v>0</v>
-      </c>
-      <c r="G31" s="93">
-        <v>0</v>
-      </c>
-      <c r="H31" s="93">
-        <v>0</v>
-      </c>
-      <c r="I31" s="93">
-        <v>0</v>
-      </c>
-      <c r="J31" s="92">
-        <v>1</v>
-      </c>
-      <c r="K31" s="43">
+      <c r="AG32" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+    </row>
+    <row r="33" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="92">
+        <v>1</v>
+      </c>
+      <c r="D33" s="92">
+        <v>1</v>
+      </c>
+      <c r="E33" s="93">
+        <v>0</v>
+      </c>
+      <c r="F33" s="93">
+        <v>0</v>
+      </c>
+      <c r="G33" s="93">
+        <v>0</v>
+      </c>
+      <c r="H33" s="93">
+        <v>0</v>
+      </c>
+      <c r="I33" s="93">
+        <v>0</v>
+      </c>
+      <c r="J33" s="93">
+        <v>0</v>
+      </c>
+      <c r="K33" s="92">
+        <v>1</v>
+      </c>
+      <c r="L33" s="43">
         <v>6</v>
       </c>
-      <c r="AF31" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="93">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="92">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="95">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="92">
-        <v>1</v>
-      </c>
-      <c r="C32" s="92">
-        <v>1</v>
-      </c>
-      <c r="D32" s="93">
-        <v>0</v>
-      </c>
-      <c r="E32" s="93">
-        <v>0</v>
-      </c>
-      <c r="F32" s="93">
-        <v>0</v>
-      </c>
-      <c r="G32" s="93">
-        <v>0</v>
-      </c>
-      <c r="H32" s="93">
-        <v>0</v>
-      </c>
-      <c r="I32" s="93">
-        <v>0</v>
-      </c>
-      <c r="J32" s="93">
-        <v>0</v>
-      </c>
-      <c r="K32" s="43">
+      <c r="AG33" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="94"/>
+    </row>
+    <row r="34" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="92">
+        <v>1</v>
+      </c>
+      <c r="D34" s="92">
+        <v>1</v>
+      </c>
+      <c r="E34" s="93">
+        <v>0</v>
+      </c>
+      <c r="F34" s="93">
+        <v>0</v>
+      </c>
+      <c r="G34" s="93">
+        <v>0</v>
+      </c>
+      <c r="H34" s="93">
+        <v>0</v>
+      </c>
+      <c r="I34" s="93">
+        <v>0</v>
+      </c>
+      <c r="J34" s="93">
+        <v>0</v>
+      </c>
+      <c r="K34" s="93">
+        <v>0</v>
+      </c>
+      <c r="L34" s="43">
         <v>7</v>
       </c>
-      <c r="AF32" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="93">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="93">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="92">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="43">
+      <c r="AG34" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="93">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="43">
         <v>8</v>
       </c>
-      <c r="AF33" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="93">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="92">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="93">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="93">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="93">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="93">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="93">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="91" t="s">
+    </row>
+    <row r="36" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="43">
-        <v>1</v>
-      </c>
-      <c r="K34" s="90" t="s">
+      <c r="D36" s="43">
+        <v>1</v>
+      </c>
+      <c r="L36" s="90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="90"/>
-      <c r="B35" s="93">
-        <v>0</v>
-      </c>
-      <c r="C35" s="92">
-        <v>1</v>
-      </c>
-      <c r="D35" s="92">
-        <v>1</v>
-      </c>
-      <c r="E35" s="95">
-        <v>1</v>
-      </c>
-      <c r="F35" s="95">
-        <v>1</v>
-      </c>
-      <c r="G35" s="95">
-        <v>1</v>
-      </c>
-      <c r="H35" s="95">
-        <v>1</v>
-      </c>
-      <c r="I35" s="95">
-        <v>1</v>
-      </c>
-      <c r="J35" s="95">
-        <v>1</v>
-      </c>
-      <c r="K35" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="90"/>
-      <c r="B36" s="93">
-        <v>0</v>
-      </c>
-      <c r="C36" s="92">
-        <v>1</v>
-      </c>
-      <c r="D36" s="93">
-        <v>0</v>
-      </c>
-      <c r="E36" s="92">
-        <v>1</v>
-      </c>
-      <c r="F36" s="95">
-        <v>1</v>
-      </c>
-      <c r="G36" s="95">
-        <v>1</v>
-      </c>
-      <c r="H36" s="95">
-        <v>1</v>
-      </c>
-      <c r="I36" s="95">
-        <v>1</v>
-      </c>
-      <c r="J36" s="95">
-        <v>1</v>
-      </c>
-      <c r="K36" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="90"/>
-      <c r="B37" s="93">
-        <v>0</v>
-      </c>
-      <c r="C37" s="92">
-        <v>1</v>
-      </c>
-      <c r="D37" s="93">
-        <v>0</v>
-      </c>
-      <c r="E37" s="93">
-        <v>0</v>
-      </c>
-      <c r="F37" s="92">
-        <v>1</v>
-      </c>
-      <c r="G37" s="95">
-        <v>1</v>
-      </c>
-      <c r="H37" s="95">
-        <v>1</v>
-      </c>
-      <c r="I37" s="95">
-        <v>1</v>
-      </c>
-      <c r="J37" s="95">
-        <v>1</v>
-      </c>
-      <c r="K37" s="43">
+      <c r="AF36" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ36" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="90"/>
+      <c r="C37" s="93">
+        <v>0</v>
+      </c>
+      <c r="D37" s="92">
+        <v>1</v>
+      </c>
+      <c r="E37" s="92">
+        <v>1</v>
+      </c>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="90"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="94"/>
+      <c r="AI37" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="94"/>
+      <c r="AM37" s="94"/>
+      <c r="AN37" s="94"/>
+      <c r="AO37" s="94"/>
+      <c r="AP37" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="90"/>
+      <c r="C38" s="93">
+        <v>0</v>
+      </c>
+      <c r="D38" s="92">
+        <v>1</v>
+      </c>
+      <c r="E38" s="93">
+        <v>0</v>
+      </c>
+      <c r="F38" s="92">
+        <v>1</v>
+      </c>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="90"/>
+      <c r="C39" s="93">
+        <v>0</v>
+      </c>
+      <c r="D39" s="92">
+        <v>1</v>
+      </c>
+      <c r="E39" s="93">
+        <v>0</v>
+      </c>
+      <c r="F39" s="93">
+        <v>0</v>
+      </c>
+      <c r="G39" s="92">
+        <v>1</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="43">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="93">
-        <v>0</v>
-      </c>
-      <c r="C38" s="92">
-        <v>1</v>
-      </c>
-      <c r="D38" s="93">
-        <v>0</v>
-      </c>
-      <c r="E38" s="93">
-        <v>0</v>
-      </c>
-      <c r="F38" s="93">
-        <v>0</v>
-      </c>
-      <c r="G38" s="92">
-        <v>1</v>
-      </c>
-      <c r="H38" s="95">
-        <v>1</v>
-      </c>
-      <c r="I38" s="95">
-        <v>1</v>
-      </c>
-      <c r="J38" s="95">
-        <v>1</v>
-      </c>
-      <c r="K38" s="43">
+      <c r="AG39" s="94"/>
+      <c r="AH39" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="94"/>
+      <c r="AN39" s="94"/>
+      <c r="AO39" s="94"/>
+    </row>
+    <row r="40" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="93">
+        <v>0</v>
+      </c>
+      <c r="D40" s="92">
+        <v>1</v>
+      </c>
+      <c r="E40" s="93">
+        <v>0</v>
+      </c>
+      <c r="F40" s="93">
+        <v>0</v>
+      </c>
+      <c r="G40" s="93">
+        <v>0</v>
+      </c>
+      <c r="H40" s="92">
+        <v>1</v>
+      </c>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="43">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="93">
-        <v>0</v>
-      </c>
-      <c r="C39" s="92">
-        <v>1</v>
-      </c>
-      <c r="D39" s="93">
-        <v>0</v>
-      </c>
-      <c r="E39" s="93">
-        <v>0</v>
-      </c>
-      <c r="F39" s="93">
-        <v>0</v>
-      </c>
-      <c r="G39" s="93">
-        <v>0</v>
-      </c>
-      <c r="H39" s="92">
-        <v>1</v>
-      </c>
-      <c r="I39" s="95">
-        <v>1</v>
-      </c>
-      <c r="J39" s="95">
-        <v>1</v>
-      </c>
-      <c r="K39" s="43">
+      <c r="AG40" s="94"/>
+      <c r="AH40" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="94"/>
+      <c r="AO40" s="94"/>
+    </row>
+    <row r="41" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="93">
+        <v>0</v>
+      </c>
+      <c r="D41" s="92">
+        <v>1</v>
+      </c>
+      <c r="E41" s="93">
+        <v>0</v>
+      </c>
+      <c r="F41" s="93">
+        <v>0</v>
+      </c>
+      <c r="G41" s="93">
+        <v>0</v>
+      </c>
+      <c r="H41" s="93">
+        <v>0</v>
+      </c>
+      <c r="I41" s="92">
+        <v>1</v>
+      </c>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="93">
-        <v>0</v>
-      </c>
-      <c r="C40" s="92">
-        <v>1</v>
-      </c>
-      <c r="D40" s="93">
-        <v>0</v>
-      </c>
-      <c r="E40" s="93">
-        <v>0</v>
-      </c>
-      <c r="F40" s="93">
-        <v>0</v>
-      </c>
-      <c r="G40" s="93">
-        <v>0</v>
-      </c>
-      <c r="H40" s="93">
-        <v>0</v>
-      </c>
-      <c r="I40" s="92">
-        <v>1</v>
-      </c>
-      <c r="J40" s="95">
-        <v>1</v>
-      </c>
-      <c r="K40" s="43">
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="94"/>
+    </row>
+    <row r="42" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="93">
+        <v>0</v>
+      </c>
+      <c r="D42" s="92">
+        <v>1</v>
+      </c>
+      <c r="E42" s="93">
+        <v>0</v>
+      </c>
+      <c r="F42" s="93">
+        <v>0</v>
+      </c>
+      <c r="G42" s="93">
+        <v>0</v>
+      </c>
+      <c r="H42" s="93">
+        <v>0</v>
+      </c>
+      <c r="I42" s="93">
+        <v>0</v>
+      </c>
+      <c r="J42" s="92">
+        <v>1</v>
+      </c>
+      <c r="K42" s="94"/>
+      <c r="L42" s="43">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="93">
-        <v>0</v>
-      </c>
-      <c r="C41" s="92">
-        <v>1</v>
-      </c>
-      <c r="D41" s="93">
-        <v>0</v>
-      </c>
-      <c r="E41" s="93">
-        <v>0</v>
-      </c>
-      <c r="F41" s="93">
-        <v>0</v>
-      </c>
-      <c r="G41" s="93">
-        <v>0</v>
-      </c>
-      <c r="H41" s="93">
-        <v>0</v>
-      </c>
-      <c r="I41" s="93">
-        <v>0</v>
-      </c>
-      <c r="J41" s="92">
-        <v>1</v>
-      </c>
-      <c r="K41" s="43">
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="92">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="93">
+        <v>0</v>
+      </c>
+      <c r="D43" s="92">
+        <v>1</v>
+      </c>
+      <c r="E43" s="93">
+        <v>0</v>
+      </c>
+      <c r="F43" s="93">
+        <v>0</v>
+      </c>
+      <c r="G43" s="93">
+        <v>0</v>
+      </c>
+      <c r="H43" s="93">
+        <v>0</v>
+      </c>
+      <c r="I43" s="93">
+        <v>0</v>
+      </c>
+      <c r="J43" s="93">
+        <v>0</v>
+      </c>
+      <c r="K43" s="92">
+        <v>1</v>
+      </c>
+      <c r="L43" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="93">
-        <v>0</v>
-      </c>
-      <c r="C42" s="92">
-        <v>1</v>
-      </c>
-      <c r="D42" s="93">
-        <v>0</v>
-      </c>
-      <c r="E42" s="93">
-        <v>0</v>
-      </c>
-      <c r="F42" s="93">
-        <v>0</v>
-      </c>
-      <c r="G42" s="93">
-        <v>0</v>
-      </c>
-      <c r="H42" s="93">
-        <v>0</v>
-      </c>
-      <c r="I42" s="93">
-        <v>0</v>
-      </c>
-      <c r="J42" s="93">
-        <v>0</v>
-      </c>
-      <c r="K42" s="43">
+    <row r="44" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="93">
+        <v>0</v>
+      </c>
+      <c r="D44" s="92">
+        <v>1</v>
+      </c>
+      <c r="E44" s="93">
+        <v>0</v>
+      </c>
+      <c r="F44" s="93">
+        <v>0</v>
+      </c>
+      <c r="G44" s="93">
+        <v>0</v>
+      </c>
+      <c r="H44" s="93">
+        <v>0</v>
+      </c>
+      <c r="I44" s="93">
+        <v>0</v>
+      </c>
+      <c r="J44" s="93">
+        <v>0</v>
+      </c>
+      <c r="K44" s="93">
+        <v>0</v>
+      </c>
+      <c r="L44" s="43">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="93"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="43">
+      <c r="AG44" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="92">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="94"/>
+      <c r="AN44" s="94"/>
+      <c r="AO44" s="94"/>
+    </row>
+    <row r="45" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="93"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="93"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="91" t="s">
+      <c r="AG45" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="92">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="94"/>
+      <c r="AO45" s="94"/>
+    </row>
+    <row r="46" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="43">
-        <v>1</v>
-      </c>
-      <c r="K44" s="90" t="s">
+      <c r="E46" s="43">
+        <v>1</v>
+      </c>
+      <c r="L46" s="90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="90"/>
-      <c r="B45" s="95">
-        <v>1</v>
-      </c>
-      <c r="C45" s="92">
-        <v>1</v>
-      </c>
-      <c r="D45" s="92">
-        <v>1</v>
-      </c>
-      <c r="E45" s="92">
-        <v>1</v>
-      </c>
-      <c r="F45" s="95">
-        <v>1</v>
-      </c>
-      <c r="G45" s="95">
-        <v>1</v>
-      </c>
-      <c r="H45" s="95">
-        <v>1</v>
-      </c>
-      <c r="I45" s="95">
-        <v>1</v>
-      </c>
-      <c r="J45" s="95">
-        <v>1</v>
-      </c>
-      <c r="K45" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="95">
-        <v>1</v>
-      </c>
-      <c r="C46" s="92">
-        <v>1</v>
-      </c>
-      <c r="D46" s="92">
-        <v>1</v>
-      </c>
-      <c r="E46" s="93">
-        <v>0</v>
-      </c>
-      <c r="F46" s="92">
-        <v>1</v>
-      </c>
-      <c r="G46" s="95">
-        <v>1</v>
-      </c>
-      <c r="H46" s="95">
-        <v>1</v>
-      </c>
-      <c r="I46" s="95">
-        <v>1</v>
-      </c>
-      <c r="J46" s="95">
-        <v>1</v>
-      </c>
-      <c r="K46" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="95">
-        <v>1</v>
-      </c>
-      <c r="C47" s="92">
-        <v>1</v>
-      </c>
+      <c r="AG46" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="92">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="94"/>
+    </row>
+    <row r="47" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="90"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="92">
         <v>1</v>
       </c>
-      <c r="E47" s="93">
-        <v>0</v>
-      </c>
-      <c r="F47" s="93">
-        <v>0</v>
-      </c>
-      <c r="G47" s="92">
-        <v>1</v>
-      </c>
-      <c r="H47" s="95">
-        <v>1</v>
-      </c>
-      <c r="I47" s="95">
-        <v>1</v>
-      </c>
-      <c r="J47" s="95">
-        <v>1</v>
-      </c>
-      <c r="K47" s="43">
+      <c r="E47" s="92">
+        <v>1</v>
+      </c>
+      <c r="F47" s="92">
+        <v>1</v>
+      </c>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="92">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="92">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="92">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="92">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="93">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="93">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="93">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="94"/>
+      <c r="D48" s="92">
+        <v>1</v>
+      </c>
+      <c r="E48" s="92">
+        <v>1</v>
+      </c>
+      <c r="F48" s="93">
+        <v>0</v>
+      </c>
+      <c r="G48" s="92">
+        <v>1</v>
+      </c>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="94"/>
+      <c r="D49" s="92">
+        <v>1</v>
+      </c>
+      <c r="E49" s="92">
+        <v>1</v>
+      </c>
+      <c r="F49" s="93">
+        <v>0</v>
+      </c>
+      <c r="G49" s="93">
+        <v>0</v>
+      </c>
+      <c r="H49" s="92">
+        <v>1</v>
+      </c>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="95">
-        <v>1</v>
-      </c>
-      <c r="C48" s="92">
-        <v>1</v>
-      </c>
-      <c r="D48" s="92">
-        <v>1</v>
-      </c>
-      <c r="E48" s="93">
-        <v>0</v>
-      </c>
-      <c r="F48" s="93">
-        <v>0</v>
-      </c>
-      <c r="G48" s="93">
-        <v>0</v>
-      </c>
-      <c r="H48" s="92">
-        <v>1</v>
-      </c>
-      <c r="I48" s="95">
-        <v>1</v>
-      </c>
-      <c r="J48" s="95">
-        <v>1</v>
-      </c>
-      <c r="K48" s="43">
+    <row r="50" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="94"/>
+      <c r="D50" s="92">
+        <v>1</v>
+      </c>
+      <c r="E50" s="92">
+        <v>1</v>
+      </c>
+      <c r="F50" s="93">
+        <v>0</v>
+      </c>
+      <c r="G50" s="93">
+        <v>0</v>
+      </c>
+      <c r="H50" s="93">
+        <v>0</v>
+      </c>
+      <c r="I50" s="92">
+        <v>1</v>
+      </c>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="95">
-        <v>1</v>
-      </c>
-      <c r="C49" s="92">
-        <v>1</v>
-      </c>
-      <c r="D49" s="92">
-        <v>1</v>
-      </c>
-      <c r="E49" s="93">
-        <v>0</v>
-      </c>
-      <c r="F49" s="93">
-        <v>0</v>
-      </c>
-      <c r="G49" s="93">
-        <v>0</v>
-      </c>
-      <c r="H49" s="93">
-        <v>0</v>
-      </c>
-      <c r="I49" s="92">
-        <v>1</v>
-      </c>
-      <c r="J49" s="95">
-        <v>1</v>
-      </c>
-      <c r="K49" s="43">
+    <row r="51" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C51" s="94"/>
+      <c r="D51" s="92">
+        <v>1</v>
+      </c>
+      <c r="E51" s="92">
+        <v>1</v>
+      </c>
+      <c r="F51" s="93">
+        <v>0</v>
+      </c>
+      <c r="G51" s="93">
+        <v>0</v>
+      </c>
+      <c r="H51" s="93">
+        <v>0</v>
+      </c>
+      <c r="I51" s="93">
+        <v>0</v>
+      </c>
+      <c r="J51" s="92">
+        <v>1</v>
+      </c>
+      <c r="K51" s="94"/>
+      <c r="L51" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="95">
-        <v>1</v>
-      </c>
-      <c r="C50" s="92">
-        <v>1</v>
-      </c>
-      <c r="D50" s="92">
-        <v>1</v>
-      </c>
-      <c r="E50" s="93">
-        <v>0</v>
-      </c>
-      <c r="F50" s="93">
-        <v>0</v>
-      </c>
-      <c r="G50" s="93">
-        <v>0</v>
-      </c>
-      <c r="H50" s="93">
-        <v>0</v>
-      </c>
-      <c r="I50" s="93">
-        <v>0</v>
-      </c>
-      <c r="J50" s="92">
-        <v>1</v>
-      </c>
-      <c r="K50" s="43">
+    <row r="52" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C52" s="94"/>
+      <c r="D52" s="92">
+        <v>1</v>
+      </c>
+      <c r="E52" s="92">
+        <v>1</v>
+      </c>
+      <c r="F52" s="93">
+        <v>0</v>
+      </c>
+      <c r="G52" s="93">
+        <v>0</v>
+      </c>
+      <c r="H52" s="93">
+        <v>0</v>
+      </c>
+      <c r="I52" s="93">
+        <v>0</v>
+      </c>
+      <c r="J52" s="93">
+        <v>0</v>
+      </c>
+      <c r="K52" s="92">
+        <v>1</v>
+      </c>
+      <c r="L52" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="95">
-        <v>1</v>
-      </c>
-      <c r="C51" s="92">
-        <v>1</v>
-      </c>
-      <c r="D51" s="92">
-        <v>1</v>
-      </c>
-      <c r="E51" s="93">
-        <v>0</v>
-      </c>
-      <c r="F51" s="93">
-        <v>0</v>
-      </c>
-      <c r="G51" s="93">
-        <v>0</v>
-      </c>
-      <c r="H51" s="93">
-        <v>0</v>
-      </c>
-      <c r="I51" s="93">
-        <v>0</v>
-      </c>
-      <c r="J51" s="93">
-        <v>0</v>
-      </c>
-      <c r="K51" s="43">
+    <row r="53" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="94"/>
+      <c r="D53" s="92">
+        <v>1</v>
+      </c>
+      <c r="E53" s="92">
+        <v>1</v>
+      </c>
+      <c r="F53" s="93">
+        <v>0</v>
+      </c>
+      <c r="G53" s="93">
+        <v>0</v>
+      </c>
+      <c r="H53" s="93">
+        <v>0</v>
+      </c>
+      <c r="I53" s="93">
+        <v>0</v>
+      </c>
+      <c r="J53" s="93">
+        <v>0</v>
+      </c>
+      <c r="K53" s="93">
+        <v>0</v>
+      </c>
+      <c r="L53" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="95"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="43">
+    <row r="54" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="94"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="95"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="43">
+    <row r="55" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="94"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="91" t="s">
+    <row r="56" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="43">
-        <v>1</v>
-      </c>
-      <c r="K54" s="90" t="s">
+      <c r="E56" s="43">
+        <v>1</v>
+      </c>
+      <c r="L56" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="90"/>
-      <c r="B55" s="92">
-        <v>1</v>
-      </c>
-      <c r="C55" s="93">
-        <v>0</v>
-      </c>
-      <c r="D55" s="92">
-        <v>1</v>
-      </c>
-      <c r="E55" s="92">
-        <v>1</v>
-      </c>
-      <c r="F55" s="95">
-        <v>1</v>
-      </c>
-      <c r="G55" s="95">
-        <v>1</v>
-      </c>
-      <c r="H55" s="95">
-        <v>1</v>
-      </c>
-      <c r="I55" s="95">
-        <v>1</v>
-      </c>
-      <c r="J55" s="95">
-        <v>1</v>
-      </c>
-      <c r="K55" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="92">
-        <v>1</v>
-      </c>
-      <c r="C56" s="93">
-        <v>0</v>
-      </c>
-      <c r="D56" s="92">
-        <v>1</v>
-      </c>
-      <c r="E56" s="93">
-        <v>0</v>
-      </c>
-      <c r="F56" s="92">
-        <v>1</v>
-      </c>
-      <c r="G56" s="95">
-        <v>1</v>
-      </c>
-      <c r="H56" s="95">
-        <v>1</v>
-      </c>
-      <c r="I56" s="95">
-        <v>1</v>
-      </c>
-      <c r="J56" s="95">
-        <v>1</v>
-      </c>
-      <c r="K56" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="92">
-        <v>1</v>
-      </c>
-      <c r="C57" s="93">
-        <v>0</v>
-      </c>
-      <c r="D57" s="92">
-        <v>1</v>
-      </c>
-      <c r="E57" s="93">
-        <v>0</v>
-      </c>
-      <c r="F57" s="93">
-        <v>0</v>
-      </c>
-      <c r="G57" s="92">
-        <v>1</v>
-      </c>
-      <c r="H57" s="95">
-        <v>1</v>
-      </c>
-      <c r="I57" s="95">
-        <v>1</v>
-      </c>
-      <c r="J57" s="95">
-        <v>1</v>
-      </c>
-      <c r="K57" s="43">
+    <row r="57" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="90"/>
+      <c r="C57" s="92">
+        <v>1</v>
+      </c>
+      <c r="D57" s="93">
+        <v>0</v>
+      </c>
+      <c r="E57" s="92">
+        <v>1</v>
+      </c>
+      <c r="F57" s="92">
+        <v>1</v>
+      </c>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="92">
+        <v>1</v>
+      </c>
+      <c r="D58" s="93">
+        <v>0</v>
+      </c>
+      <c r="E58" s="92">
+        <v>1</v>
+      </c>
+      <c r="F58" s="93">
+        <v>0</v>
+      </c>
+      <c r="G58" s="92">
+        <v>1</v>
+      </c>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="92">
+        <v>1</v>
+      </c>
+      <c r="D59" s="93">
+        <v>0</v>
+      </c>
+      <c r="E59" s="92">
+        <v>1</v>
+      </c>
+      <c r="F59" s="93">
+        <v>0</v>
+      </c>
+      <c r="G59" s="93">
+        <v>0</v>
+      </c>
+      <c r="H59" s="92">
+        <v>1</v>
+      </c>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="92">
-        <v>1</v>
-      </c>
-      <c r="C58" s="93">
-        <v>0</v>
-      </c>
-      <c r="D58" s="92">
-        <v>1</v>
-      </c>
-      <c r="E58" s="93">
-        <v>0</v>
-      </c>
-      <c r="F58" s="93">
-        <v>0</v>
-      </c>
-      <c r="G58" s="93">
-        <v>0</v>
-      </c>
-      <c r="H58" s="92">
-        <v>1</v>
-      </c>
-      <c r="I58" s="95">
-        <v>1</v>
-      </c>
-      <c r="J58" s="95">
-        <v>1</v>
-      </c>
-      <c r="K58" s="43">
+    <row r="60" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="92">
+        <v>1</v>
+      </c>
+      <c r="D60" s="93">
+        <v>0</v>
+      </c>
+      <c r="E60" s="92">
+        <v>1</v>
+      </c>
+      <c r="F60" s="93">
+        <v>0</v>
+      </c>
+      <c r="G60" s="93">
+        <v>0</v>
+      </c>
+      <c r="H60" s="93">
+        <v>0</v>
+      </c>
+      <c r="I60" s="92">
+        <v>1</v>
+      </c>
+      <c r="J60" s="94"/>
+      <c r="K60" s="94"/>
+      <c r="L60" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="92">
-        <v>1</v>
-      </c>
-      <c r="C59" s="93">
-        <v>0</v>
-      </c>
-      <c r="D59" s="92">
-        <v>1</v>
-      </c>
-      <c r="E59" s="93">
-        <v>0</v>
-      </c>
-      <c r="F59" s="93">
-        <v>0</v>
-      </c>
-      <c r="G59" s="93">
-        <v>0</v>
-      </c>
-      <c r="H59" s="93">
-        <v>0</v>
-      </c>
-      <c r="I59" s="92">
-        <v>1</v>
-      </c>
-      <c r="J59" s="95">
-        <v>1</v>
-      </c>
-      <c r="K59" s="43">
+    <row r="61" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="92">
+        <v>1</v>
+      </c>
+      <c r="D61" s="93">
+        <v>0</v>
+      </c>
+      <c r="E61" s="92">
+        <v>1</v>
+      </c>
+      <c r="F61" s="93">
+        <v>0</v>
+      </c>
+      <c r="G61" s="93">
+        <v>0</v>
+      </c>
+      <c r="H61" s="93">
+        <v>0</v>
+      </c>
+      <c r="I61" s="93">
+        <v>0</v>
+      </c>
+      <c r="J61" s="92">
+        <v>1</v>
+      </c>
+      <c r="K61" s="94"/>
+      <c r="L61" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="92">
-        <v>1</v>
-      </c>
-      <c r="C60" s="93">
-        <v>0</v>
-      </c>
-      <c r="D60" s="92">
-        <v>1</v>
-      </c>
-      <c r="E60" s="93">
-        <v>0</v>
-      </c>
-      <c r="F60" s="93">
-        <v>0</v>
-      </c>
-      <c r="G60" s="93">
-        <v>0</v>
-      </c>
-      <c r="H60" s="93">
-        <v>0</v>
-      </c>
-      <c r="I60" s="93">
-        <v>0</v>
-      </c>
-      <c r="J60" s="92">
-        <v>1</v>
-      </c>
-      <c r="K60" s="43">
+    <row r="62" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="92">
+        <v>1</v>
+      </c>
+      <c r="D62" s="93">
+        <v>0</v>
+      </c>
+      <c r="E62" s="92">
+        <v>1</v>
+      </c>
+      <c r="F62" s="93">
+        <v>0</v>
+      </c>
+      <c r="G62" s="93">
+        <v>0</v>
+      </c>
+      <c r="H62" s="93">
+        <v>0</v>
+      </c>
+      <c r="I62" s="93">
+        <v>0</v>
+      </c>
+      <c r="J62" s="93">
+        <v>0</v>
+      </c>
+      <c r="K62" s="92">
+        <v>1</v>
+      </c>
+      <c r="L62" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="92">
-        <v>1</v>
-      </c>
-      <c r="C61" s="93">
-        <v>0</v>
-      </c>
-      <c r="D61" s="92">
-        <v>1</v>
-      </c>
-      <c r="E61" s="93">
-        <v>0</v>
-      </c>
-      <c r="F61" s="93">
-        <v>0</v>
-      </c>
-      <c r="G61" s="93">
-        <v>0</v>
-      </c>
-      <c r="H61" s="93">
-        <v>0</v>
-      </c>
-      <c r="I61" s="93">
-        <v>0</v>
-      </c>
-      <c r="J61" s="93">
-        <v>0</v>
-      </c>
-      <c r="K61" s="43">
+    <row r="63" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="92">
+        <v>1</v>
+      </c>
+      <c r="D63" s="93">
+        <v>0</v>
+      </c>
+      <c r="E63" s="92">
+        <v>1</v>
+      </c>
+      <c r="F63" s="93">
+        <v>0</v>
+      </c>
+      <c r="G63" s="93">
+        <v>0</v>
+      </c>
+      <c r="H63" s="93">
+        <v>0</v>
+      </c>
+      <c r="I63" s="93">
+        <v>0</v>
+      </c>
+      <c r="J63" s="93">
+        <v>0</v>
+      </c>
+      <c r="K63" s="93">
+        <v>0</v>
+      </c>
+      <c r="L63" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="92"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="43">
+    <row r="64" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="92"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="93"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="93"/>
-      <c r="J63" s="93"/>
-      <c r="K63" s="43">
+    <row r="65" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="91" t="s">
+    <row r="66" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="43">
-        <v>1</v>
-      </c>
-      <c r="K64" s="90" t="s">
+      <c r="E66" s="43">
+        <v>1</v>
+      </c>
+      <c r="L66" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="90"/>
-      <c r="B65" s="93">
-        <v>0</v>
-      </c>
-      <c r="C65" s="93">
-        <v>0</v>
-      </c>
-      <c r="D65" s="92">
-        <v>1</v>
-      </c>
-      <c r="E65" s="92">
-        <v>1</v>
-      </c>
-      <c r="F65" s="95">
-        <v>1</v>
-      </c>
-      <c r="G65" s="95">
-        <v>1</v>
-      </c>
-      <c r="H65" s="95">
-        <v>1</v>
-      </c>
-      <c r="I65" s="95">
-        <v>1</v>
-      </c>
-      <c r="J65" s="95">
-        <v>1</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="93">
-        <v>0</v>
-      </c>
-      <c r="C66" s="93">
-        <v>0</v>
-      </c>
-      <c r="D66" s="92">
-        <v>1</v>
-      </c>
-      <c r="E66" s="93">
-        <v>0</v>
-      </c>
-      <c r="F66" s="92">
-        <v>1</v>
-      </c>
-      <c r="G66" s="95">
-        <v>1</v>
-      </c>
-      <c r="H66" s="95">
-        <v>1</v>
-      </c>
-      <c r="I66" s="95">
-        <v>1</v>
-      </c>
-      <c r="J66" s="95">
-        <v>1</v>
-      </c>
-      <c r="K66" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="93">
-        <v>0</v>
-      </c>
+    <row r="67" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="90"/>
       <c r="C67" s="93">
         <v>0</v>
       </c>
-      <c r="D67" s="92">
-        <v>1</v>
-      </c>
-      <c r="E67" s="93">
-        <v>0</v>
-      </c>
-      <c r="F67" s="93">
-        <v>0</v>
-      </c>
-      <c r="G67" s="92">
-        <v>1</v>
-      </c>
-      <c r="H67" s="95">
-        <v>1</v>
-      </c>
-      <c r="I67" s="95">
-        <v>1</v>
-      </c>
-      <c r="J67" s="95">
-        <v>1</v>
-      </c>
-      <c r="K67" s="43">
+      <c r="D67" s="93">
+        <v>0</v>
+      </c>
+      <c r="E67" s="92">
+        <v>1</v>
+      </c>
+      <c r="F67" s="92">
+        <v>1</v>
+      </c>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="93">
+        <v>0</v>
+      </c>
+      <c r="D68" s="93">
+        <v>0</v>
+      </c>
+      <c r="E68" s="92">
+        <v>1</v>
+      </c>
+      <c r="F68" s="93">
+        <v>0</v>
+      </c>
+      <c r="G68" s="92">
+        <v>1</v>
+      </c>
+      <c r="H68" s="94"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="94"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="93">
+        <v>0</v>
+      </c>
+      <c r="D69" s="93">
+        <v>0</v>
+      </c>
+      <c r="E69" s="92">
+        <v>1</v>
+      </c>
+      <c r="F69" s="93">
+        <v>0</v>
+      </c>
+      <c r="G69" s="93">
+        <v>0</v>
+      </c>
+      <c r="H69" s="92">
+        <v>1</v>
+      </c>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="94"/>
+      <c r="L69" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="93">
-        <v>0</v>
-      </c>
-      <c r="C68" s="93">
-        <v>0</v>
-      </c>
-      <c r="D68" s="92">
-        <v>1</v>
-      </c>
-      <c r="E68" s="93">
-        <v>0</v>
-      </c>
-      <c r="F68" s="93">
-        <v>0</v>
-      </c>
-      <c r="G68" s="93">
-        <v>0</v>
-      </c>
-      <c r="H68" s="92">
-        <v>1</v>
-      </c>
-      <c r="I68" s="95">
-        <v>1</v>
-      </c>
-      <c r="J68" s="95">
-        <v>1</v>
-      </c>
-      <c r="K68" s="43">
+    <row r="70" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="93">
+        <v>0</v>
+      </c>
+      <c r="D70" s="93">
+        <v>0</v>
+      </c>
+      <c r="E70" s="92">
+        <v>1</v>
+      </c>
+      <c r="F70" s="93">
+        <v>0</v>
+      </c>
+      <c r="G70" s="93">
+        <v>0</v>
+      </c>
+      <c r="H70" s="93">
+        <v>0</v>
+      </c>
+      <c r="I70" s="92">
+        <v>1</v>
+      </c>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="93">
-        <v>0</v>
-      </c>
-      <c r="C69" s="93">
-        <v>0</v>
-      </c>
-      <c r="D69" s="92">
-        <v>1</v>
-      </c>
-      <c r="E69" s="93">
-        <v>0</v>
-      </c>
-      <c r="F69" s="93">
-        <v>0</v>
-      </c>
-      <c r="G69" s="93">
-        <v>0</v>
-      </c>
-      <c r="H69" s="93">
-        <v>0</v>
-      </c>
-      <c r="I69" s="92">
-        <v>1</v>
-      </c>
-      <c r="J69" s="95">
-        <v>1</v>
-      </c>
-      <c r="K69" s="43">
+    <row r="71" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="93">
+        <v>0</v>
+      </c>
+      <c r="D71" s="93">
+        <v>0</v>
+      </c>
+      <c r="E71" s="92">
+        <v>1</v>
+      </c>
+      <c r="F71" s="93">
+        <v>0</v>
+      </c>
+      <c r="G71" s="93">
+        <v>0</v>
+      </c>
+      <c r="H71" s="93">
+        <v>0</v>
+      </c>
+      <c r="I71" s="93">
+        <v>0</v>
+      </c>
+      <c r="J71" s="92">
+        <v>1</v>
+      </c>
+      <c r="K71" s="94"/>
+      <c r="L71" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="93">
-        <v>0</v>
-      </c>
-      <c r="C70" s="93">
-        <v>0</v>
-      </c>
-      <c r="D70" s="92">
-        <v>1</v>
-      </c>
-      <c r="E70" s="93">
-        <v>0</v>
-      </c>
-      <c r="F70" s="93">
-        <v>0</v>
-      </c>
-      <c r="G70" s="93">
-        <v>0</v>
-      </c>
-      <c r="H70" s="93">
-        <v>0</v>
-      </c>
-      <c r="I70" s="93">
-        <v>0</v>
-      </c>
-      <c r="J70" s="92">
-        <v>1</v>
-      </c>
-      <c r="K70" s="43">
+    <row r="72" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="93">
+        <v>0</v>
+      </c>
+      <c r="D72" s="93">
+        <v>0</v>
+      </c>
+      <c r="E72" s="92">
+        <v>1</v>
+      </c>
+      <c r="F72" s="93">
+        <v>0</v>
+      </c>
+      <c r="G72" s="93">
+        <v>0</v>
+      </c>
+      <c r="H72" s="93">
+        <v>0</v>
+      </c>
+      <c r="I72" s="93">
+        <v>0</v>
+      </c>
+      <c r="J72" s="93">
+        <v>0</v>
+      </c>
+      <c r="K72" s="92">
+        <v>1</v>
+      </c>
+      <c r="L72" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="93">
-        <v>0</v>
-      </c>
-      <c r="C71" s="93">
-        <v>0</v>
-      </c>
-      <c r="D71" s="92">
-        <v>1</v>
-      </c>
-      <c r="E71" s="93">
-        <v>0</v>
-      </c>
-      <c r="F71" s="93">
-        <v>0</v>
-      </c>
-      <c r="G71" s="93">
-        <v>0</v>
-      </c>
-      <c r="H71" s="93">
-        <v>0</v>
-      </c>
-      <c r="I71" s="93">
-        <v>0</v>
-      </c>
-      <c r="J71" s="93">
-        <v>0</v>
-      </c>
-      <c r="K71" s="43">
+    <row r="73" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="93">
+        <v>0</v>
+      </c>
+      <c r="D73" s="93">
+        <v>0</v>
+      </c>
+      <c r="E73" s="92">
+        <v>1</v>
+      </c>
+      <c r="F73" s="93">
+        <v>0</v>
+      </c>
+      <c r="G73" s="93">
+        <v>0</v>
+      </c>
+      <c r="H73" s="93">
+        <v>0</v>
+      </c>
+      <c r="I73" s="93">
+        <v>0</v>
+      </c>
+      <c r="J73" s="93">
+        <v>0</v>
+      </c>
+      <c r="K73" s="93">
+        <v>0</v>
+      </c>
+      <c r="L73" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="43">
+    <row r="74" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="93"/>
-      <c r="C73" s="93"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="43">
+    <row r="75" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="93"/>
+      <c r="J75" s="93"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="91" t="s">
+    <row r="76" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="43">
-        <v>1</v>
-      </c>
-      <c r="K74" s="90" t="s">
+      <c r="F76" s="43">
+        <v>1</v>
+      </c>
+      <c r="L76" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="90"/>
-      <c r="B75" s="95">
-        <v>1</v>
-      </c>
-      <c r="C75" s="95">
-        <v>1</v>
-      </c>
-      <c r="D75" s="92">
-        <v>1</v>
-      </c>
-      <c r="E75" s="92">
-        <v>1</v>
-      </c>
-      <c r="F75" s="92">
-        <v>1</v>
-      </c>
-      <c r="G75" s="95">
-        <v>1</v>
-      </c>
-      <c r="H75" s="95">
-        <v>1</v>
-      </c>
-      <c r="I75" s="95">
-        <v>1</v>
-      </c>
-      <c r="J75" s="95">
-        <v>1</v>
-      </c>
-      <c r="K75" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="95">
-        <v>1</v>
-      </c>
-      <c r="C76" s="95">
-        <v>1</v>
-      </c>
-      <c r="D76" s="92">
-        <v>1</v>
-      </c>
-      <c r="E76" s="92">
-        <v>1</v>
-      </c>
-      <c r="F76" s="93">
-        <v>0</v>
-      </c>
-      <c r="G76" s="92">
-        <v>1</v>
-      </c>
-      <c r="H76" s="95">
-        <v>1</v>
-      </c>
-      <c r="I76" s="95">
-        <v>1</v>
-      </c>
-      <c r="J76" s="95">
-        <v>1</v>
-      </c>
-      <c r="K76" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="95">
-        <v>1</v>
-      </c>
-      <c r="C77" s="95">
-        <v>1</v>
-      </c>
-      <c r="D77" s="92">
-        <v>1</v>
-      </c>
+    <row r="77" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="90"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
       <c r="E77" s="92">
         <v>1</v>
       </c>
-      <c r="F77" s="93">
-        <v>0</v>
-      </c>
-      <c r="G77" s="93">
-        <v>0</v>
-      </c>
-      <c r="H77" s="92">
-        <v>1</v>
-      </c>
-      <c r="I77" s="95">
-        <v>1</v>
-      </c>
-      <c r="J77" s="95">
-        <v>1</v>
-      </c>
-      <c r="K77" s="43">
+      <c r="F77" s="92">
+        <v>1</v>
+      </c>
+      <c r="G77" s="92">
+        <v>1</v>
+      </c>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
+      <c r="K77" s="94"/>
+      <c r="L77" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="92">
+        <v>1</v>
+      </c>
+      <c r="F78" s="92">
+        <v>1</v>
+      </c>
+      <c r="G78" s="93">
+        <v>0</v>
+      </c>
+      <c r="H78" s="92">
+        <v>1</v>
+      </c>
+      <c r="I78" s="94"/>
+      <c r="J78" s="94"/>
+      <c r="K78" s="94"/>
+      <c r="L78" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="92">
+        <v>1</v>
+      </c>
+      <c r="F79" s="92">
+        <v>1</v>
+      </c>
+      <c r="G79" s="93">
+        <v>0</v>
+      </c>
+      <c r="H79" s="93">
+        <v>0</v>
+      </c>
+      <c r="I79" s="92">
+        <v>1</v>
+      </c>
+      <c r="J79" s="94"/>
+      <c r="K79" s="94"/>
+      <c r="L79" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="95">
-        <v>1</v>
-      </c>
-      <c r="C78" s="95">
-        <v>1</v>
-      </c>
-      <c r="D78" s="92">
-        <v>1</v>
-      </c>
-      <c r="E78" s="92">
-        <v>1</v>
-      </c>
-      <c r="F78" s="93">
-        <v>0</v>
-      </c>
-      <c r="G78" s="93">
-        <v>0</v>
-      </c>
-      <c r="H78" s="93">
-        <v>0</v>
-      </c>
-      <c r="I78" s="92">
-        <v>1</v>
-      </c>
-      <c r="J78" s="95">
-        <v>1</v>
-      </c>
-      <c r="K78" s="43">
+    <row r="80" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="92">
+        <v>1</v>
+      </c>
+      <c r="F80" s="92">
+        <v>1</v>
+      </c>
+      <c r="G80" s="93">
+        <v>0</v>
+      </c>
+      <c r="H80" s="93">
+        <v>0</v>
+      </c>
+      <c r="I80" s="93">
+        <v>0</v>
+      </c>
+      <c r="J80" s="92">
+        <v>1</v>
+      </c>
+      <c r="K80" s="94"/>
+      <c r="L80" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="95">
-        <v>1</v>
-      </c>
-      <c r="C79" s="95">
-        <v>1</v>
-      </c>
-      <c r="D79" s="92">
-        <v>1</v>
-      </c>
-      <c r="E79" s="92">
-        <v>1</v>
-      </c>
-      <c r="F79" s="93">
-        <v>0</v>
-      </c>
-      <c r="G79" s="93">
-        <v>0</v>
-      </c>
-      <c r="H79" s="93">
-        <v>0</v>
-      </c>
-      <c r="I79" s="93">
-        <v>0</v>
-      </c>
-      <c r="J79" s="92">
-        <v>1</v>
-      </c>
-      <c r="K79" s="43">
+    <row r="81" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="92">
+        <v>1</v>
+      </c>
+      <c r="F81" s="92">
+        <v>1</v>
+      </c>
+      <c r="G81" s="93">
+        <v>0</v>
+      </c>
+      <c r="H81" s="93">
+        <v>0</v>
+      </c>
+      <c r="I81" s="93">
+        <v>0</v>
+      </c>
+      <c r="J81" s="93">
+        <v>0</v>
+      </c>
+      <c r="K81" s="92">
+        <v>1</v>
+      </c>
+      <c r="L81" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="95">
-        <v>1</v>
-      </c>
-      <c r="C80" s="95">
-        <v>1</v>
-      </c>
-      <c r="D80" s="92">
-        <v>1</v>
-      </c>
-      <c r="E80" s="92">
-        <v>1</v>
-      </c>
-      <c r="F80" s="93">
-        <v>0</v>
-      </c>
-      <c r="G80" s="93">
-        <v>0</v>
-      </c>
-      <c r="H80" s="93">
-        <v>0</v>
-      </c>
-      <c r="I80" s="93">
-        <v>0</v>
-      </c>
-      <c r="J80" s="93">
-        <v>0</v>
-      </c>
-      <c r="K80" s="43">
+    <row r="82" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="94"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="92">
+        <v>1</v>
+      </c>
+      <c r="F82" s="92">
+        <v>1</v>
+      </c>
+      <c r="G82" s="93">
+        <v>0</v>
+      </c>
+      <c r="H82" s="93">
+        <v>0</v>
+      </c>
+      <c r="I82" s="93">
+        <v>0</v>
+      </c>
+      <c r="J82" s="93">
+        <v>0</v>
+      </c>
+      <c r="K82" s="93">
+        <v>0</v>
+      </c>
+      <c r="L82" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
-      <c r="J81" s="93"/>
-      <c r="K81" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="93"/>
-      <c r="H82" s="93"/>
-      <c r="I82" s="93"/>
-      <c r="J82" s="93"/>
-      <c r="K82" s="43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="92"/>
+    <row r="83" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
       <c r="E83" s="92"/>
-      <c r="F83" s="93"/>
+      <c r="F83" s="92"/>
       <c r="G83" s="93"/>
       <c r="H83" s="93"/>
       <c r="I83" s="93"/>
       <c r="J83" s="93"/>
-      <c r="K83" s="43">
+      <c r="K83" s="93"/>
+      <c r="L83" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="93"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="91" t="s">
+    <row r="86" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E84" s="43">
-        <v>1</v>
-      </c>
-      <c r="K84" s="90" t="s">
+      <c r="F86" s="43">
+        <v>1</v>
+      </c>
+      <c r="L86" s="90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="90"/>
-      <c r="B85" s="95">
-        <v>1</v>
-      </c>
-      <c r="C85" s="92">
-        <v>1</v>
-      </c>
-      <c r="D85" s="93">
-        <v>0</v>
-      </c>
-      <c r="E85" s="92">
-        <v>1</v>
-      </c>
-      <c r="F85" s="92">
-        <v>1</v>
-      </c>
-      <c r="G85" s="95">
-        <v>1</v>
-      </c>
-      <c r="H85" s="95">
-        <v>1</v>
-      </c>
-      <c r="I85" s="95">
-        <v>1</v>
-      </c>
-      <c r="J85" s="95">
-        <v>1</v>
-      </c>
-      <c r="K85" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="95">
-        <v>1</v>
-      </c>
-      <c r="C86" s="92">
-        <v>1</v>
-      </c>
-      <c r="D86" s="93">
-        <v>0</v>
-      </c>
-      <c r="E86" s="92">
-        <v>1</v>
-      </c>
-      <c r="F86" s="93">
-        <v>0</v>
-      </c>
-      <c r="G86" s="92">
-        <v>1</v>
-      </c>
-      <c r="H86" s="95">
-        <v>1</v>
-      </c>
-      <c r="I86" s="95">
-        <v>1</v>
-      </c>
-      <c r="J86" s="95">
-        <v>1</v>
-      </c>
-      <c r="K86" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="95">
-        <v>1</v>
-      </c>
-      <c r="C87" s="92">
-        <v>1</v>
-      </c>
-      <c r="D87" s="93">
-        <v>0</v>
-      </c>
-      <c r="E87" s="92">
-        <v>1</v>
-      </c>
-      <c r="F87" s="93">
-        <v>0</v>
-      </c>
-      <c r="G87" s="93">
-        <v>0</v>
-      </c>
-      <c r="H87" s="92">
-        <v>1</v>
-      </c>
-      <c r="I87" s="95">
-        <v>1</v>
-      </c>
-      <c r="J87" s="95">
-        <v>1</v>
-      </c>
-      <c r="K87" s="43">
+      <c r="N86" s="99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="90"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="92">
+        <v>1</v>
+      </c>
+      <c r="E87" s="93">
+        <v>0</v>
+      </c>
+      <c r="F87" s="92">
+        <v>1</v>
+      </c>
+      <c r="G87" s="92">
+        <v>1</v>
+      </c>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="94"/>
+      <c r="L87" s="43">
+        <v>0</v>
+      </c>
+      <c r="P87" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q87" s="101"/>
+      <c r="R87" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="S87" s="101"/>
+      <c r="T87" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="U87" s="101"/>
+      <c r="V87" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="W87" s="101"/>
+      <c r="X87" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y87" s="101"/>
+      <c r="Z87" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA87" s="101"/>
+      <c r="AB87" s="101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="94"/>
+      <c r="D88" s="92">
+        <v>1</v>
+      </c>
+      <c r="E88" s="93">
+        <v>0</v>
+      </c>
+      <c r="F88" s="92">
+        <v>1</v>
+      </c>
+      <c r="G88" s="93">
+        <v>0</v>
+      </c>
+      <c r="H88" s="92">
+        <v>1</v>
+      </c>
+      <c r="I88" s="94"/>
+      <c r="J88" s="94"/>
+      <c r="K88" s="94"/>
+      <c r="L88" s="43">
+        <v>1</v>
+      </c>
+      <c r="N88" s="99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="94"/>
+      <c r="D89" s="92">
+        <v>1</v>
+      </c>
+      <c r="E89" s="93">
+        <v>0</v>
+      </c>
+      <c r="F89" s="92">
+        <v>1</v>
+      </c>
+      <c r="G89" s="93">
+        <v>0</v>
+      </c>
+      <c r="H89" s="93">
+        <v>0</v>
+      </c>
+      <c r="I89" s="92">
+        <v>1</v>
+      </c>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="43">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="95">
-        <v>1</v>
-      </c>
-      <c r="C88" s="92">
-        <v>1</v>
-      </c>
-      <c r="D88" s="93">
-        <v>0</v>
-      </c>
-      <c r="E88" s="92">
-        <v>1</v>
-      </c>
-      <c r="F88" s="93">
-        <v>0</v>
-      </c>
-      <c r="G88" s="93">
-        <v>0</v>
-      </c>
-      <c r="H88" s="93">
-        <v>0</v>
-      </c>
-      <c r="I88" s="92">
-        <v>1</v>
-      </c>
-      <c r="J88" s="95">
-        <v>1</v>
-      </c>
-      <c r="K88" s="43">
+      <c r="N89" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="P89" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="S89" s="101"/>
+      <c r="AB89" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC89" s="101"/>
+      <c r="AD89" s="101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="94"/>
+      <c r="D90" s="92">
+        <v>1</v>
+      </c>
+      <c r="E90" s="93">
+        <v>0</v>
+      </c>
+      <c r="F90" s="92">
+        <v>1</v>
+      </c>
+      <c r="G90" s="93">
+        <v>0</v>
+      </c>
+      <c r="H90" s="93">
+        <v>0</v>
+      </c>
+      <c r="I90" s="93">
+        <v>0</v>
+      </c>
+      <c r="J90" s="92">
+        <v>1</v>
+      </c>
+      <c r="K90" s="94"/>
+      <c r="L90" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="95">
-        <v>1</v>
-      </c>
-      <c r="C89" s="92">
-        <v>1</v>
-      </c>
-      <c r="D89" s="93">
-        <v>0</v>
-      </c>
-      <c r="E89" s="92">
-        <v>1</v>
-      </c>
-      <c r="F89" s="93">
-        <v>0</v>
-      </c>
-      <c r="G89" s="93">
-        <v>0</v>
-      </c>
-      <c r="H89" s="93">
-        <v>0</v>
-      </c>
-      <c r="I89" s="93">
-        <v>0</v>
-      </c>
-      <c r="J89" s="92">
-        <v>1</v>
-      </c>
-      <c r="K89" s="43">
+    <row r="91" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="94"/>
+      <c r="D91" s="92">
+        <v>1</v>
+      </c>
+      <c r="E91" s="93">
+        <v>0</v>
+      </c>
+      <c r="F91" s="92">
+        <v>1</v>
+      </c>
+      <c r="G91" s="93">
+        <v>0</v>
+      </c>
+      <c r="H91" s="93">
+        <v>0</v>
+      </c>
+      <c r="I91" s="93">
+        <v>0</v>
+      </c>
+      <c r="J91" s="93">
+        <v>0</v>
+      </c>
+      <c r="K91" s="92">
+        <v>1</v>
+      </c>
+      <c r="L91" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="95">
-        <v>1</v>
-      </c>
-      <c r="C90" s="92">
-        <v>1</v>
-      </c>
-      <c r="D90" s="93">
-        <v>0</v>
-      </c>
-      <c r="E90" s="92">
-        <v>1</v>
-      </c>
-      <c r="F90" s="93">
-        <v>0</v>
-      </c>
-      <c r="G90" s="93">
-        <v>0</v>
-      </c>
-      <c r="H90" s="93">
-        <v>0</v>
-      </c>
-      <c r="I90" s="93">
-        <v>0</v>
-      </c>
-      <c r="J90" s="93">
-        <v>0</v>
-      </c>
-      <c r="K90" s="43">
+      <c r="O91" s="99" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="94"/>
+      <c r="D92" s="92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="93">
+        <v>0</v>
+      </c>
+      <c r="F92" s="92">
+        <v>1</v>
+      </c>
+      <c r="G92" s="93">
+        <v>0</v>
+      </c>
+      <c r="H92" s="93">
+        <v>0</v>
+      </c>
+      <c r="I92" s="93">
+        <v>0</v>
+      </c>
+      <c r="J92" s="93">
+        <v>0</v>
+      </c>
+      <c r="K92" s="93">
+        <v>0</v>
+      </c>
+      <c r="L92" s="43">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="95"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
-      <c r="I91" s="93"/>
-      <c r="J91" s="93"/>
-      <c r="K91" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="95"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="95"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="93"/>
+      <c r="N92" s="101"/>
+      <c r="O92" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="P92" s="101"/>
+      <c r="Q92" s="101"/>
+      <c r="R92" s="101"/>
+      <c r="S92" s="101"/>
+      <c r="T92" s="101"/>
+      <c r="U92" s="101"/>
+      <c r="V92" s="101"/>
+      <c r="W92" s="101"/>
+      <c r="X92" s="101"/>
+      <c r="Y92" s="101"/>
+      <c r="Z92" s="101"/>
+      <c r="AA92" s="101"/>
+    </row>
+    <row r="93" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="94"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="92"/>
       <c r="G93" s="93"/>
       <c r="H93" s="93"/>
       <c r="I93" s="93"/>
       <c r="J93" s="93"/>
-      <c r="K93" s="43">
+      <c r="K93" s="93"/>
+      <c r="L93" s="43">
+        <v>6</v>
+      </c>
+      <c r="N93" s="101"/>
+      <c r="O93" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="P93" s="101"/>
+      <c r="Q93" s="101"/>
+      <c r="R93" s="101"/>
+      <c r="S93" s="101"/>
+      <c r="T93" s="101"/>
+      <c r="U93" s="101"/>
+      <c r="V93" s="101"/>
+      <c r="W93" s="101"/>
+      <c r="X93" s="101"/>
+      <c r="Y93" s="101"/>
+      <c r="Z93" s="101"/>
+      <c r="AA93" s="101"/>
+    </row>
+    <row r="94" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="94"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="93"/>
+      <c r="K94" s="93"/>
+      <c r="L94" s="43">
+        <v>7</v>
+      </c>
+      <c r="N94" s="101"/>
+      <c r="O94" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="P94" s="101"/>
+      <c r="Q94" s="101"/>
+      <c r="R94" s="101"/>
+      <c r="S94" s="101"/>
+      <c r="T94" s="101"/>
+      <c r="U94" s="101"/>
+      <c r="V94" s="101"/>
+      <c r="W94" s="101"/>
+      <c r="X94" s="101"/>
+      <c r="Y94" s="101"/>
+      <c r="Z94" s="101"/>
+      <c r="AA94" s="101"/>
+    </row>
+    <row r="95" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="94"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="93"/>
+      <c r="I95" s="93"/>
+      <c r="J95" s="93"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="43">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="91" t="s">
+      <c r="N95" s="101"/>
+      <c r="O95" s="101"/>
+      <c r="P95" s="101"/>
+      <c r="Q95" s="101"/>
+      <c r="R95" s="101"/>
+      <c r="S95" s="101"/>
+      <c r="T95" s="101"/>
+      <c r="U95" s="101"/>
+      <c r="V95" s="101"/>
+      <c r="W95" s="101"/>
+      <c r="X95" s="101"/>
+      <c r="Y95" s="101"/>
+      <c r="Z95" s="101"/>
+      <c r="AA95" s="101"/>
+    </row>
+    <row r="96" spans="2:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E94" s="43">
-        <v>1</v>
-      </c>
-      <c r="K94" s="90" t="s">
+      <c r="F96" s="43">
+        <v>1</v>
+      </c>
+      <c r="L96" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="90"/>
-      <c r="B95" s="92">
-        <v>1</v>
-      </c>
-      <c r="C95" s="93">
-        <v>0</v>
-      </c>
-      <c r="D95" s="93">
-        <v>0</v>
-      </c>
-      <c r="E95" s="92">
-        <v>1</v>
-      </c>
-      <c r="F95" s="92">
-        <v>1</v>
-      </c>
-      <c r="G95" s="95">
-        <v>1</v>
-      </c>
-      <c r="H95" s="95">
-        <v>1</v>
-      </c>
-      <c r="I95" s="95">
-        <v>1</v>
-      </c>
-      <c r="J95" s="95">
-        <v>1</v>
-      </c>
-      <c r="K95" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="92">
-        <v>1</v>
-      </c>
-      <c r="C96" s="93">
-        <v>0</v>
-      </c>
-      <c r="D96" s="93">
-        <v>0</v>
-      </c>
-      <c r="E96" s="92">
-        <v>1</v>
-      </c>
-      <c r="F96" s="93">
-        <v>0</v>
-      </c>
-      <c r="G96" s="92">
-        <v>1</v>
-      </c>
-      <c r="H96" s="95">
-        <v>1</v>
-      </c>
-      <c r="I96" s="95">
-        <v>1</v>
-      </c>
-      <c r="J96" s="95">
-        <v>1</v>
-      </c>
-      <c r="K96" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="92">
-        <v>1</v>
-      </c>
-      <c r="C97" s="93">
-        <v>0</v>
+    <row r="97" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="90"/>
+      <c r="C97" s="92">
+        <v>1</v>
       </c>
       <c r="D97" s="93">
         <v>0</v>
       </c>
-      <c r="E97" s="92">
-        <v>1</v>
-      </c>
-      <c r="F97" s="93">
-        <v>0</v>
-      </c>
-      <c r="G97" s="93">
-        <v>0</v>
-      </c>
-      <c r="H97" s="92">
-        <v>1</v>
-      </c>
-      <c r="I97" s="95">
-        <v>1</v>
-      </c>
-      <c r="J97" s="95">
-        <v>1</v>
-      </c>
-      <c r="K97" s="43">
+      <c r="E97" s="93">
+        <v>0</v>
+      </c>
+      <c r="F97" s="92">
+        <v>1</v>
+      </c>
+      <c r="G97" s="92">
+        <v>1</v>
+      </c>
+      <c r="H97" s="94"/>
+      <c r="I97" s="94"/>
+      <c r="J97" s="94"/>
+      <c r="K97" s="94"/>
+      <c r="L97" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="92">
+        <v>1</v>
+      </c>
+      <c r="D98" s="93">
+        <v>0</v>
+      </c>
+      <c r="E98" s="93">
+        <v>0</v>
+      </c>
+      <c r="F98" s="92">
+        <v>1</v>
+      </c>
+      <c r="G98" s="93">
+        <v>0</v>
+      </c>
+      <c r="H98" s="92">
+        <v>1</v>
+      </c>
+      <c r="I98" s="94"/>
+      <c r="J98" s="94"/>
+      <c r="K98" s="94"/>
+      <c r="L98" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="92">
+        <v>1</v>
+      </c>
+      <c r="D99" s="93">
+        <v>0</v>
+      </c>
+      <c r="E99" s="93">
+        <v>0</v>
+      </c>
+      <c r="F99" s="92">
+        <v>1</v>
+      </c>
+      <c r="G99" s="93">
+        <v>0</v>
+      </c>
+      <c r="H99" s="93">
+        <v>0</v>
+      </c>
+      <c r="I99" s="92">
+        <v>1</v>
+      </c>
+      <c r="J99" s="94"/>
+      <c r="K99" s="94"/>
+      <c r="L99" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="92">
-        <v>1</v>
-      </c>
-      <c r="C98" s="93">
-        <v>0</v>
-      </c>
-      <c r="D98" s="93">
-        <v>0</v>
-      </c>
-      <c r="E98" s="92">
-        <v>1</v>
-      </c>
-      <c r="F98" s="93">
-        <v>0</v>
-      </c>
-      <c r="G98" s="93">
-        <v>0</v>
-      </c>
-      <c r="H98" s="93">
-        <v>0</v>
-      </c>
-      <c r="I98" s="92">
-        <v>1</v>
-      </c>
-      <c r="J98" s="95">
-        <v>1</v>
-      </c>
-      <c r="K98" s="43">
+    <row r="100" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="92">
+        <v>1</v>
+      </c>
+      <c r="D100" s="93">
+        <v>0</v>
+      </c>
+      <c r="E100" s="93">
+        <v>0</v>
+      </c>
+      <c r="F100" s="92">
+        <v>1</v>
+      </c>
+      <c r="G100" s="93">
+        <v>0</v>
+      </c>
+      <c r="H100" s="93">
+        <v>0</v>
+      </c>
+      <c r="I100" s="93">
+        <v>0</v>
+      </c>
+      <c r="J100" s="92">
+        <v>1</v>
+      </c>
+      <c r="K100" s="94"/>
+      <c r="L100" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="92">
-        <v>1</v>
-      </c>
-      <c r="C99" s="93">
-        <v>0</v>
-      </c>
-      <c r="D99" s="93">
-        <v>0</v>
-      </c>
-      <c r="E99" s="92">
-        <v>1</v>
-      </c>
-      <c r="F99" s="93">
-        <v>0</v>
-      </c>
-      <c r="G99" s="93">
-        <v>0</v>
-      </c>
-      <c r="H99" s="93">
-        <v>0</v>
-      </c>
-      <c r="I99" s="93">
-        <v>0</v>
-      </c>
-      <c r="J99" s="92">
-        <v>1</v>
-      </c>
-      <c r="K99" s="43">
+    <row r="101" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="92">
+        <v>1</v>
+      </c>
+      <c r="D101" s="93">
+        <v>0</v>
+      </c>
+      <c r="E101" s="93">
+        <v>0</v>
+      </c>
+      <c r="F101" s="92">
+        <v>1</v>
+      </c>
+      <c r="G101" s="93">
+        <v>0</v>
+      </c>
+      <c r="H101" s="93">
+        <v>0</v>
+      </c>
+      <c r="I101" s="93">
+        <v>0</v>
+      </c>
+      <c r="J101" s="93">
+        <v>0</v>
+      </c>
+      <c r="K101" s="92">
+        <v>1</v>
+      </c>
+      <c r="L101" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="92">
-        <v>1</v>
-      </c>
-      <c r="C100" s="93">
-        <v>0</v>
-      </c>
-      <c r="D100" s="93">
-        <v>0</v>
-      </c>
-      <c r="E100" s="92">
-        <v>1</v>
-      </c>
-      <c r="F100" s="93">
-        <v>0</v>
-      </c>
-      <c r="G100" s="93">
-        <v>0</v>
-      </c>
-      <c r="H100" s="93">
-        <v>0</v>
-      </c>
-      <c r="I100" s="93">
-        <v>0</v>
-      </c>
-      <c r="J100" s="93">
-        <v>0</v>
-      </c>
-      <c r="K100" s="43">
+    <row r="102" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="92">
+        <v>1</v>
+      </c>
+      <c r="D102" s="93">
+        <v>0</v>
+      </c>
+      <c r="E102" s="93">
+        <v>0</v>
+      </c>
+      <c r="F102" s="92">
+        <v>1</v>
+      </c>
+      <c r="G102" s="93">
+        <v>0</v>
+      </c>
+      <c r="H102" s="93">
+        <v>0</v>
+      </c>
+      <c r="I102" s="93">
+        <v>0</v>
+      </c>
+      <c r="J102" s="93">
+        <v>0</v>
+      </c>
+      <c r="K102" s="93">
+        <v>0</v>
+      </c>
+      <c r="L102" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="92"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="93"/>
-      <c r="H101" s="93"/>
-      <c r="I101" s="93"/>
-      <c r="J101" s="93"/>
-      <c r="K101" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="92"/>
-      <c r="C102" s="93"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="93"/>
-      <c r="I102" s="93"/>
-      <c r="J102" s="93"/>
-      <c r="K102" s="43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="92"/>
-      <c r="C103" s="93"/>
+    <row r="103" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="92"/>
       <c r="D103" s="93"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="93"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="92"/>
       <c r="G103" s="93"/>
       <c r="H103" s="93"/>
       <c r="I103" s="93"/>
       <c r="J103" s="93"/>
-      <c r="K103" s="43">
+      <c r="K103" s="93"/>
+      <c r="L103" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="92"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93"/>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="92"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="93"/>
+      <c r="I105" s="93"/>
+      <c r="J105" s="93"/>
+      <c r="K105" s="93"/>
+      <c r="L105" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="91" t="s">
+    <row r="106" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E104" s="43">
-        <v>1</v>
-      </c>
-      <c r="K104" s="90" t="s">
+      <c r="F106" s="43">
+        <v>1</v>
+      </c>
+      <c r="L106" s="90" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="90"/>
-      <c r="B105" s="93">
-        <v>0</v>
-      </c>
-      <c r="C105" s="93">
-        <v>0</v>
-      </c>
-      <c r="D105" s="93">
-        <v>0</v>
-      </c>
-      <c r="E105" s="92">
-        <v>1</v>
-      </c>
-      <c r="F105" s="92">
-        <v>1</v>
-      </c>
-      <c r="G105" s="95">
-        <v>1</v>
-      </c>
-      <c r="H105" s="95">
-        <v>1</v>
-      </c>
-      <c r="I105" s="95">
-        <v>1</v>
-      </c>
-      <c r="J105" s="95">
-        <v>1</v>
-      </c>
-      <c r="K105" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="93">
-        <v>0</v>
-      </c>
-      <c r="C106" s="93">
-        <v>0</v>
-      </c>
-      <c r="D106" s="93">
-        <v>0</v>
-      </c>
-      <c r="E106" s="92">
-        <v>1</v>
-      </c>
-      <c r="F106" s="93">
-        <v>0</v>
-      </c>
-      <c r="G106" s="92">
-        <v>1</v>
-      </c>
-      <c r="H106" s="95">
-        <v>1</v>
-      </c>
-      <c r="I106" s="95">
-        <v>1</v>
-      </c>
-      <c r="J106" s="95">
-        <v>1</v>
-      </c>
-      <c r="K106" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="93">
-        <v>0</v>
-      </c>
+    <row r="107" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="90"/>
       <c r="C107" s="93">
         <v>0</v>
       </c>
       <c r="D107" s="93">
         <v>0</v>
       </c>
-      <c r="E107" s="92">
-        <v>1</v>
-      </c>
-      <c r="F107" s="93">
-        <v>0</v>
-      </c>
-      <c r="G107" s="93">
-        <v>0</v>
-      </c>
-      <c r="H107" s="92">
-        <v>1</v>
-      </c>
-      <c r="I107" s="95">
-        <v>1</v>
-      </c>
-      <c r="J107" s="95">
-        <v>1</v>
-      </c>
-      <c r="K107" s="43">
+      <c r="E107" s="93">
+        <v>0</v>
+      </c>
+      <c r="F107" s="92">
+        <v>1</v>
+      </c>
+      <c r="G107" s="92">
+        <v>1</v>
+      </c>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="94"/>
+      <c r="L107" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="93">
+        <v>0</v>
+      </c>
+      <c r="D108" s="93">
+        <v>0</v>
+      </c>
+      <c r="E108" s="93">
+        <v>0</v>
+      </c>
+      <c r="F108" s="92">
+        <v>1</v>
+      </c>
+      <c r="G108" s="93">
+        <v>0</v>
+      </c>
+      <c r="H108" s="92">
+        <v>1</v>
+      </c>
+      <c r="I108" s="94"/>
+      <c r="J108" s="94"/>
+      <c r="K108" s="94"/>
+      <c r="L108" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="93">
+        <v>0</v>
+      </c>
+      <c r="D109" s="93">
+        <v>0</v>
+      </c>
+      <c r="E109" s="93">
+        <v>0</v>
+      </c>
+      <c r="F109" s="92">
+        <v>1</v>
+      </c>
+      <c r="G109" s="93">
+        <v>0</v>
+      </c>
+      <c r="H109" s="93">
+        <v>0</v>
+      </c>
+      <c r="I109" s="92">
+        <v>1</v>
+      </c>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
+      <c r="L109" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="93">
-        <v>0</v>
-      </c>
-      <c r="C108" s="93">
-        <v>0</v>
-      </c>
-      <c r="D108" s="93">
-        <v>0</v>
-      </c>
-      <c r="E108" s="92">
-        <v>1</v>
-      </c>
-      <c r="F108" s="93">
-        <v>0</v>
-      </c>
-      <c r="G108" s="93">
-        <v>0</v>
-      </c>
-      <c r="H108" s="93">
-        <v>0</v>
-      </c>
-      <c r="I108" s="92">
-        <v>1</v>
-      </c>
-      <c r="J108" s="95">
-        <v>1</v>
-      </c>
-      <c r="K108" s="43">
+    <row r="110" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="93">
+        <v>0</v>
+      </c>
+      <c r="D110" s="93">
+        <v>0</v>
+      </c>
+      <c r="E110" s="93">
+        <v>0</v>
+      </c>
+      <c r="F110" s="92">
+        <v>1</v>
+      </c>
+      <c r="G110" s="93">
+        <v>0</v>
+      </c>
+      <c r="H110" s="93">
+        <v>0</v>
+      </c>
+      <c r="I110" s="93">
+        <v>0</v>
+      </c>
+      <c r="J110" s="92">
+        <v>1</v>
+      </c>
+      <c r="K110" s="94"/>
+      <c r="L110" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="93">
-        <v>0</v>
-      </c>
-      <c r="C109" s="93">
-        <v>0</v>
-      </c>
-      <c r="D109" s="93">
-        <v>0</v>
-      </c>
-      <c r="E109" s="92">
-        <v>1</v>
-      </c>
-      <c r="F109" s="93">
-        <v>0</v>
-      </c>
-      <c r="G109" s="93">
-        <v>0</v>
-      </c>
-      <c r="H109" s="93">
-        <v>0</v>
-      </c>
-      <c r="I109" s="93">
-        <v>0</v>
-      </c>
-      <c r="J109" s="92">
-        <v>1</v>
-      </c>
-      <c r="K109" s="43">
+    <row r="111" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="93">
+        <v>0</v>
+      </c>
+      <c r="D111" s="93">
+        <v>0</v>
+      </c>
+      <c r="E111" s="93">
+        <v>0</v>
+      </c>
+      <c r="F111" s="92">
+        <v>1</v>
+      </c>
+      <c r="G111" s="93">
+        <v>0</v>
+      </c>
+      <c r="H111" s="93">
+        <v>0</v>
+      </c>
+      <c r="I111" s="93">
+        <v>0</v>
+      </c>
+      <c r="J111" s="93">
+        <v>0</v>
+      </c>
+      <c r="K111" s="92">
+        <v>1</v>
+      </c>
+      <c r="L111" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="93">
-        <v>0</v>
-      </c>
-      <c r="C110" s="93">
-        <v>0</v>
-      </c>
-      <c r="D110" s="93">
-        <v>0</v>
-      </c>
-      <c r="E110" s="92">
-        <v>1</v>
-      </c>
-      <c r="F110" s="93">
-        <v>0</v>
-      </c>
-      <c r="G110" s="93">
-        <v>0</v>
-      </c>
-      <c r="H110" s="93">
-        <v>0</v>
-      </c>
-      <c r="I110" s="93">
-        <v>0</v>
-      </c>
-      <c r="J110" s="93">
-        <v>0</v>
-      </c>
-      <c r="K110" s="43">
+    <row r="112" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="93">
+        <v>0</v>
+      </c>
+      <c r="D112" s="93">
+        <v>0</v>
+      </c>
+      <c r="E112" s="93">
+        <v>0</v>
+      </c>
+      <c r="F112" s="92">
+        <v>1</v>
+      </c>
+      <c r="G112" s="93">
+        <v>0</v>
+      </c>
+      <c r="H112" s="93">
+        <v>0</v>
+      </c>
+      <c r="I112" s="93">
+        <v>0</v>
+      </c>
+      <c r="J112" s="93">
+        <v>0</v>
+      </c>
+      <c r="K112" s="93">
+        <v>0</v>
+      </c>
+      <c r="L112" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
-      <c r="D111" s="93"/>
-      <c r="E111" s="92"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="93"/>
-      <c r="H111" s="93"/>
-      <c r="I111" s="93"/>
-      <c r="J111" s="93"/>
-      <c r="K111" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="93"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="93"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="93"/>
-      <c r="H112" s="93"/>
-      <c r="I112" s="93"/>
-      <c r="J112" s="93"/>
-      <c r="K112" s="43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="93"/>
+    <row r="113" spans="3:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="93"/>
       <c r="D113" s="93"/>
-      <c r="E113" s="92"/>
-      <c r="F113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="92"/>
       <c r="G113" s="93"/>
       <c r="H113" s="93"/>
       <c r="I113" s="93"/>
       <c r="J113" s="93"/>
-      <c r="K113" s="43">
+      <c r="K113" s="93"/>
+      <c r="L113" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="93"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="93"/>
+      <c r="H114" s="93"/>
+      <c r="I114" s="93"/>
+      <c r="J114" s="93"/>
+      <c r="K114" s="93"/>
+      <c r="L114" s="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="93"/>
+      <c r="D115" s="93"/>
+      <c r="E115" s="93"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="93"/>
+      <c r="H115" s="93"/>
+      <c r="I115" s="93"/>
+      <c r="J115" s="93"/>
+      <c r="K115" s="93"/>
+      <c r="L115" s="43">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="Z2" r:id="rId2"/>
+    <hyperlink ref="AL2" r:id="rId3"/>
+    <hyperlink ref="AX2" r:id="rId4"/>
+    <hyperlink ref="BJ2" r:id="rId5"/>
+    <hyperlink ref="BV2" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>Rook：</t>
   </si>
@@ -54,6 +54,9 @@
     <t>col@</t>
   </si>
   <si>
+    <t>[Index][State]= ModeAllOne ^ Mode</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -76,6 +79,15 @@
     </r>
   </si>
   <si>
+    <t>[Index][Mode/ModeAllOne]</t>
+  </si>
+  <si>
+    <t>row@</t>
+  </si>
+  <si>
+    <t>state &amp; ModeAllOne  == Mode</t>
+  </si>
+  <si>
     <t>按行索引</t>
   </si>
   <si>
@@ -85,22 +97,19 @@
     <t>Cannon：</t>
   </si>
   <si>
-    <t>row@</t>
-  </si>
-  <si>
     <t>左组合个数</t>
   </si>
   <si>
     <t>右组合个数</t>
   </si>
   <si>
-    <t>&amp;=</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>&amp;=</t>
   </si>
   <si>
     <t>组合个数等于绿色格子的个数</t>
@@ -131,6 +140,9 @@
   </si>
   <si>
     <t>int[length]</t>
+  </si>
+  <si>
+    <t>board &amp; 中间0和1位置 ==stateBoard</t>
   </si>
   <si>
     <t>int length</t>
@@ -371,7 +383,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +467,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1146,152 +1165,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,18 +1521,21 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,13 +1596,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1589,13 +1611,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1951,8 +1973,8 @@
   <sheetPr/>
   <dimension ref="B1:CF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="T94" sqref="T94"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="28" customHeight="1"/>
@@ -1964,7 +1986,7 @@
       <c r="N1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="93" t="s">
+      <c r="X1" s="94" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1996,22 +2018,22 @@
       <c r="K2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="70" t="s">
+      <c r="Z2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="70" t="s">
+      <c r="AL2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="70" t="s">
+      <c r="AX2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="70" t="s">
+      <c r="BJ2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BV2" s="70" t="s">
+      <c r="BV2" s="71" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2025,28 +2047,28 @@
       <c r="D3" s="61">
         <v>1</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="76">
         <v>2</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="77">
         <v>3</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="78">
         <v>4</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="77">
         <v>5</v>
       </c>
-      <c r="I3" s="75">
+      <c r="I3" s="76">
         <v>6</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="86">
         <v>7</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="87">
         <v>8</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="74">
         <v>1</v>
       </c>
       <c r="O3" s="72">
@@ -2079,7 +2101,7 @@
       <c r="X3" s="72">
         <v>1</v>
       </c>
-      <c r="Z3" s="71"/>
+      <c r="Z3" s="74"/>
       <c r="AA3" s="72">
         <v>1</v>
       </c>
@@ -2108,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="72"/>
-      <c r="AL3" s="71"/>
+      <c r="AL3" s="74"/>
       <c r="AM3" s="73">
         <v>0</v>
       </c>
@@ -2137,18 +2159,18 @@
         <v>0</v>
       </c>
       <c r="AV3" s="73"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BJ3" s="71"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="75"/>
+      <c r="BH3" s="75"/>
+      <c r="BJ3" s="74"/>
       <c r="BK3" s="72">
         <v>1</v>
       </c>
@@ -2175,7 +2197,7 @@
       </c>
       <c r="BS3" s="72"/>
       <c r="BT3" s="72"/>
-      <c r="BV3" s="71"/>
+      <c r="BV3" s="74"/>
       <c r="BW3" s="73">
         <v>0</v>
       </c>
@@ -2219,15 +2241,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="80">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2239,7 +2261,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="88">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2430,15 +2452,15 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="80">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="81">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="80">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2450,11 +2472,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="89">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="O5" s="74"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="72">
         <v>1</v>
       </c>
@@ -2638,7 +2660,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="82">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -2646,7 +2668,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="82">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -2654,7 +2676,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="82">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2662,12 +2684,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K6" s="90">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="72">
         <v>1</v>
       </c>
@@ -2692,7 +2714,7 @@
       <c r="X6" s="73">
         <v>0</v>
       </c>
-      <c r="AA6" s="74"/>
+      <c r="AA6" s="75"/>
       <c r="AB6" s="72">
         <v>1</v>
       </c>
@@ -2718,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="73"/>
-      <c r="AM6" s="74"/>
+      <c r="AM6" s="75"/>
       <c r="AN6" s="72">
         <v>1</v>
       </c>
@@ -2835,7 +2857,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="81">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -2851,7 +2873,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="81">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2859,13 +2881,13 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="K7" s="87">
+      <c r="K7" s="88">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
       <c r="R7" s="72">
         <v>1</v>
       </c>
@@ -2887,8 +2909,8 @@
       <c r="X7" s="73">
         <v>0</v>
       </c>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
       <c r="AC7" s="72">
         <v>1</v>
       </c>
@@ -2911,8 +2933,8 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="73"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
       <c r="AO7" s="72">
         <v>1</v>
       </c>
@@ -2935,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="73"/>
-      <c r="AY7" s="74"/>
+      <c r="AY7" s="75"/>
       <c r="AZ7" s="72">
         <v>1</v>
       </c>
@@ -2959,7 +2981,7 @@
       </c>
       <c r="BG7" s="73"/>
       <c r="BH7" s="73"/>
-      <c r="BK7" s="74"/>
+      <c r="BK7" s="75"/>
       <c r="BL7" s="72">
         <v>1</v>
       </c>
@@ -2983,7 +3005,7 @@
       </c>
       <c r="BS7" s="73"/>
       <c r="BT7" s="73"/>
-      <c r="BW7" s="74"/>
+      <c r="BW7" s="75"/>
       <c r="BX7" s="72">
         <v>1</v>
       </c>
@@ -3020,7 +3042,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="81">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -3036,7 +3058,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="81">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -3044,14 +3066,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="91">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
       <c r="S8" s="72">
         <v>1</v>
       </c>
@@ -3070,9 +3092,9 @@
       <c r="X8" s="73">
         <v>0</v>
       </c>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
       <c r="AD8" s="72">
         <v>1</v>
       </c>
@@ -3092,9 +3114,9 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="73"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
       <c r="AP8" s="72">
         <v>1</v>
       </c>
@@ -3114,8 +3136,8 @@
         <v>0</v>
       </c>
       <c r="AV8" s="73"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
       <c r="BA8" s="72">
         <v>1</v>
       </c>
@@ -3136,8 +3158,8 @@
       </c>
       <c r="BG8" s="73"/>
       <c r="BH8" s="73"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="74"/>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="75"/>
       <c r="BM8" s="72">
         <v>1</v>
       </c>
@@ -3158,8 +3180,8 @@
       </c>
       <c r="BS8" s="73"/>
       <c r="BT8" s="73"/>
-      <c r="BW8" s="74"/>
-      <c r="BX8" s="74"/>
+      <c r="BW8" s="75"/>
+      <c r="BX8" s="75"/>
       <c r="BY8" s="72">
         <v>1</v>
       </c>
@@ -3193,7 +3215,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="82">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -3201,7 +3223,7 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="82">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -3209,7 +3231,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="82">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -3217,15 +3239,15 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="K9" s="89">
+      <c r="K9" s="90">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
       <c r="T9" s="72">
         <v>1</v>
       </c>
@@ -3241,10 +3263,10 @@
       <c r="X9" s="73">
         <v>0</v>
       </c>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
       <c r="AE9" s="72">
         <v>1</v>
       </c>
@@ -3261,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="73"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
       <c r="AQ9" s="72">
         <v>1</v>
       </c>
@@ -3281,9 +3303,9 @@
         <v>0</v>
       </c>
       <c r="AV9" s="73"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
       <c r="BB9" s="72">
         <v>1</v>
       </c>
@@ -3301,9 +3323,9 @@
       </c>
       <c r="BG9" s="73"/>
       <c r="BH9" s="73"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="74"/>
-      <c r="BM9" s="74"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="75"/>
       <c r="BN9" s="72">
         <v>1</v>
       </c>
@@ -3321,9 +3343,9 @@
       </c>
       <c r="BS9" s="73"/>
       <c r="BT9" s="73"/>
-      <c r="BW9" s="74"/>
-      <c r="BX9" s="74"/>
-      <c r="BY9" s="74"/>
+      <c r="BW9" s="75"/>
+      <c r="BX9" s="75"/>
+      <c r="BY9" s="75"/>
       <c r="BZ9" s="72">
         <v>1</v>
       </c>
@@ -3358,15 +3380,15 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="80">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="81">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="80">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -3378,16 +3400,16 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="89">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
       <c r="U10" s="72">
         <v>1</v>
       </c>
@@ -3400,11 +3422,11 @@
       <c r="X10" s="73">
         <v>0</v>
       </c>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
       <c r="AF10" s="72">
         <v>1</v>
       </c>
@@ -3418,11 +3440,11 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="73"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
       <c r="AR10" s="72">
         <v>1</v>
       </c>
@@ -3436,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="AV10" s="73"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
       <c r="BC10" s="72">
         <v>1</v>
       </c>
@@ -3454,10 +3476,10 @@
       </c>
       <c r="BG10" s="73"/>
       <c r="BH10" s="73"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
       <c r="BO10" s="72">
         <v>1</v>
       </c>
@@ -3472,10 +3494,10 @@
       </c>
       <c r="BS10" s="73"/>
       <c r="BT10" s="73"/>
-      <c r="BW10" s="74"/>
-      <c r="BX10" s="74"/>
-      <c r="BY10" s="74"/>
-      <c r="BZ10" s="74"/>
+      <c r="BW10" s="75"/>
+      <c r="BX10" s="75"/>
+      <c r="BY10" s="75"/>
+      <c r="BZ10" s="75"/>
       <c r="CA10" s="72">
         <v>1</v>
       </c>
@@ -3507,15 +3529,15 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="79">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="79">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -3527,17 +3549,17 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="91">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="72">
         <v>1</v>
       </c>
@@ -3547,12 +3569,12 @@
       <c r="X11" s="73">
         <v>0</v>
       </c>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
       <c r="AG11" s="72">
         <v>1</v>
       </c>
@@ -3563,12 +3585,12 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="73"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
       <c r="AS11" s="72">
         <v>1</v>
       </c>
@@ -3579,11 +3601,11 @@
         <v>0</v>
       </c>
       <c r="AV11" s="73"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
       <c r="BD11" s="72">
         <v>1</v>
       </c>
@@ -3595,11 +3617,11 @@
       </c>
       <c r="BG11" s="73"/>
       <c r="BH11" s="73"/>
-      <c r="BK11" s="74"/>
-      <c r="BL11" s="74"/>
-      <c r="BM11" s="74"/>
-      <c r="BN11" s="74"/>
-      <c r="BO11" s="74"/>
+      <c r="BK11" s="75"/>
+      <c r="BL11" s="75"/>
+      <c r="BM11" s="75"/>
+      <c r="BN11" s="75"/>
+      <c r="BO11" s="75"/>
       <c r="BP11" s="72">
         <v>1</v>
       </c>
@@ -3611,11 +3633,11 @@
       </c>
       <c r="BS11" s="73"/>
       <c r="BT11" s="73"/>
-      <c r="BW11" s="74"/>
-      <c r="BX11" s="74"/>
-      <c r="BY11" s="74"/>
-      <c r="BZ11" s="74"/>
-      <c r="CA11" s="74"/>
+      <c r="BW11" s="75"/>
+      <c r="BX11" s="75"/>
+      <c r="BY11" s="75"/>
+      <c r="BZ11" s="75"/>
+      <c r="CA11" s="75"/>
       <c r="CB11" s="72">
         <v>1</v>
       </c>
@@ -3640,55 +3662,55 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="83">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="84">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="85">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="84">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="83">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="92">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="K12" s="92">
+      <c r="K12" s="93">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
       <c r="W12" s="72">
         <v>1</v>
       </c>
       <c r="X12" s="73">
         <v>0</v>
       </c>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
       <c r="AH12" s="72">
         <v>1</v>
       </c>
@@ -3696,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="73"/>
-      <c r="AM12" s="74"/>
-      <c r="AN12" s="74"/>
-      <c r="AO12" s="74"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="74"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
       <c r="AT12" s="72">
         <v>1</v>
       </c>
@@ -3710,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="AV12" s="73"/>
-      <c r="AY12" s="74"/>
-      <c r="AZ12" s="74"/>
-      <c r="BA12" s="74"/>
-      <c r="BB12" s="74"/>
-      <c r="BC12" s="74"/>
-      <c r="BD12" s="74"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="75"/>
       <c r="BE12" s="72">
         <v>1</v>
       </c>
@@ -3724,12 +3746,12 @@
       </c>
       <c r="BG12" s="73"/>
       <c r="BH12" s="73"/>
-      <c r="BK12" s="74"/>
-      <c r="BL12" s="74"/>
-      <c r="BM12" s="74"/>
-      <c r="BN12" s="74"/>
-      <c r="BO12" s="74"/>
-      <c r="BP12" s="74"/>
+      <c r="BK12" s="75"/>
+      <c r="BL12" s="75"/>
+      <c r="BM12" s="75"/>
+      <c r="BN12" s="75"/>
+      <c r="BO12" s="75"/>
+      <c r="BP12" s="75"/>
       <c r="BQ12" s="72">
         <v>1</v>
       </c>
@@ -3738,12 +3760,12 @@
       </c>
       <c r="BS12" s="73"/>
       <c r="BT12" s="73"/>
-      <c r="BW12" s="74"/>
-      <c r="BX12" s="74"/>
-      <c r="BY12" s="74"/>
-      <c r="BZ12" s="74"/>
-      <c r="CA12" s="74"/>
-      <c r="CB12" s="74"/>
+      <c r="BW12" s="75"/>
+      <c r="BX12" s="75"/>
+      <c r="BY12" s="75"/>
+      <c r="BZ12" s="75"/>
+      <c r="CA12" s="75"/>
+      <c r="CB12" s="75"/>
       <c r="CC12" s="72">
         <v>1</v>
       </c>
@@ -3753,9 +3775,12 @@
       <c r="CE12" s="73"/>
       <c r="CF12" s="73"/>
     </row>
-    <row r="13" customHeight="1" spans="14:84">
-      <c r="N13" s="93" t="s">
+    <row r="13" customHeight="1" spans="4:84">
+      <c r="D13" s="70" t="s">
         <v>12</v>
+      </c>
+      <c r="N13" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="O13" s="42">
         <v>0</v>
@@ -3787,8 +3812,8 @@
       <c r="X13" s="42">
         <v>9</v>
       </c>
-      <c r="Z13" s="93" t="s">
-        <v>12</v>
+      <c r="Z13" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="AA13" s="42">
         <v>0</v>
@@ -3820,8 +3845,8 @@
       <c r="AJ13" s="42">
         <v>9</v>
       </c>
-      <c r="AL13" s="93" t="s">
-        <v>12</v>
+      <c r="AL13" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="AM13" s="42">
         <v>0</v>
@@ -3853,8 +3878,8 @@
       <c r="AV13" s="42">
         <v>9</v>
       </c>
-      <c r="AX13" s="93" t="s">
-        <v>12</v>
+      <c r="AX13" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="AY13" s="42">
         <v>0</v>
@@ -3886,8 +3911,8 @@
       <c r="BH13" s="42">
         <v>9</v>
       </c>
-      <c r="BJ13" s="93" t="s">
-        <v>12</v>
+      <c r="BJ13" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="BK13" s="42">
         <v>0</v>
@@ -3919,8 +3944,8 @@
       <c r="BT13" s="42">
         <v>9</v>
       </c>
-      <c r="BV13" s="93" t="s">
-        <v>12</v>
+      <c r="BV13" s="94" t="s">
+        <v>13</v>
       </c>
       <c r="BW13" s="42">
         <v>0</v>
@@ -3953,122 +3978,141 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="14:14">
-      <c r="N14" s="93"/>
+    <row r="14" customHeight="1" spans="2:14">
+      <c r="B14" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="70"/>
+      <c r="N14" s="94"/>
     </row>
     <row r="15" customHeight="1" spans="2:32">
-      <c r="B15" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="71" t="s">
+      <c r="B15" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="L15" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF15" s="74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="12:42">
+      <c r="L16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF15" s="71" t="s">
+      <c r="P16" s="95"/>
+      <c r="Q16" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="95"/>
+      <c r="S16" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AF16" s="71" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="2:42">
-      <c r="B16" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="42">
-        <v>1</v>
-      </c>
-      <c r="L16" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="94"/>
-      <c r="S16" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AF16" s="70" t="s">
-        <v>16</v>
-      </c>
       <c r="AG16" s="42">
         <v>1</v>
       </c>
-      <c r="AP16" s="71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:44">
-      <c r="B17" s="71" t="s">
-        <v>19</v>
-      </c>
+      <c r="AP16" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:44">
       <c r="C17" s="72">
         <v>1</v>
       </c>
-      <c r="D17" s="72">
-        <v>1</v>
-      </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
+      <c r="D17" s="73">
+        <v>0</v>
+      </c>
+      <c r="E17" s="73">
+        <v>0</v>
+      </c>
+      <c r="F17" s="73">
+        <v>0</v>
+      </c>
+      <c r="G17" s="73">
+        <v>0</v>
+      </c>
+      <c r="H17" s="73">
+        <v>0</v>
+      </c>
+      <c r="I17" s="73">
+        <v>0</v>
+      </c>
+      <c r="J17" s="73">
+        <v>0</v>
+      </c>
+      <c r="K17" s="73">
+        <v>0</v>
+      </c>
       <c r="L17" s="42">
         <v>0</v>
       </c>
-      <c r="Q17" s="97">
-        <v>1</v>
-      </c>
-      <c r="R17" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="97">
+      <c r="Q17" s="98">
+        <v>1</v>
+      </c>
+      <c r="R17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="98">
         <v>9</v>
       </c>
-      <c r="T17" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="99">
+      <c r="T17" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="100">
         <f>Q17*S17</f>
         <v>9</v>
       </c>
-      <c r="Y17" s="97">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA17" s="97">
+      <c r="Y17" s="98">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="98">
         <v>10</v>
       </c>
-      <c r="AB17" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC17" s="99">
+      <c r="AB17" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC17" s="100">
         <f>Y17*AA17</f>
         <v>10</v>
       </c>
-      <c r="AF17" s="71" t="s">
-        <v>19</v>
+      <c r="AF17" s="74" t="s">
+        <v>24</v>
       </c>
       <c r="AG17" s="72">
         <v>1</v>
@@ -4076,68 +4120,66 @@
       <c r="AH17" s="72">
         <v>1</v>
       </c>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="74"/>
-      <c r="AK17" s="74"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="74"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="75"/>
       <c r="AP17" s="42">
         <v>0</v>
       </c>
-      <c r="AR17" s="96" t="s">
-        <v>22</v>
+      <c r="AR17" s="97" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:29">
       <c r="C18" s="72">
         <v>1</v>
       </c>
-      <c r="D18" s="73">
-        <v>0</v>
-      </c>
-      <c r="E18" s="72">
-        <v>1</v>
-      </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
+      <c r="D18" s="72">
+        <v>1</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
       <c r="L18" s="42">
         <v>1</v>
       </c>
-      <c r="Q18" s="97">
+      <c r="Q18" s="98">
         <v>2</v>
       </c>
-      <c r="R18" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="97">
+      <c r="R18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="98">
         <v>8</v>
       </c>
-      <c r="T18" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="99">
+      <c r="T18" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="100">
         <f t="shared" ref="U18:U25" si="1">Q18*S18</f>
         <v>16</v>
       </c>
-      <c r="Y18" s="97">
+      <c r="Y18" s="98">
         <v>2</v>
       </c>
-      <c r="Z18" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA18" s="97">
+      <c r="Z18" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="98">
         <v>9</v>
       </c>
-      <c r="AB18" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC18" s="99">
+      <c r="AB18" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" s="100">
         <f t="shared" ref="AC18:AC26" si="2">Y18*AA18</f>
         <v>18</v>
       </c>
@@ -4149,49 +4191,47 @@
       <c r="D19" s="73">
         <v>0</v>
       </c>
-      <c r="E19" s="73">
-        <v>0</v>
-      </c>
-      <c r="F19" s="72">
-        <v>1</v>
-      </c>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
+      <c r="E19" s="72">
+        <v>1</v>
+      </c>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
       <c r="L19" s="42">
         <v>2</v>
       </c>
-      <c r="Q19" s="97">
+      <c r="Q19" s="98">
         <v>3</v>
       </c>
-      <c r="R19" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="97">
+      <c r="R19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="98">
         <v>7</v>
       </c>
-      <c r="T19" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="99">
+      <c r="T19" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="100">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Y19" s="97">
+      <c r="Y19" s="98">
         <v>3</v>
       </c>
-      <c r="Z19" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA19" s="97">
+      <c r="Z19" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA19" s="98">
         <v>8</v>
       </c>
-      <c r="AB19" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC19" s="99">
+      <c r="AB19" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" s="100">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -4204,12 +4244,12 @@
       <c r="AI19" s="72">
         <v>1</v>
       </c>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="74"/>
-      <c r="AL19" s="74"/>
-      <c r="AM19" s="74"/>
-      <c r="AN19" s="74"/>
-      <c r="AO19" s="74"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="75"/>
     </row>
     <row r="20" customHeight="1" spans="3:41">
       <c r="C20" s="72">
@@ -4221,48 +4261,46 @@
       <c r="E20" s="73">
         <v>0</v>
       </c>
-      <c r="F20" s="73">
-        <v>0</v>
-      </c>
-      <c r="G20" s="72">
-        <v>1</v>
-      </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
+      <c r="F20" s="72">
+        <v>1</v>
+      </c>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
       <c r="L20" s="42">
         <v>3</v>
       </c>
-      <c r="Q20" s="97">
+      <c r="Q20" s="98">
         <v>4</v>
       </c>
-      <c r="R20" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="97">
+      <c r="R20" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="98">
         <v>6</v>
       </c>
-      <c r="T20" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="99">
+      <c r="T20" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="100">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Y20" s="97">
+      <c r="Y20" s="98">
         <v>4</v>
       </c>
-      <c r="Z20" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA20" s="97">
+      <c r="Z20" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="98">
         <v>7</v>
       </c>
-      <c r="AB20" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC20" s="99">
+      <c r="AB20" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC20" s="100">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -4278,11 +4316,11 @@
       <c r="AJ20" s="72">
         <v>1</v>
       </c>
-      <c r="AK20" s="74"/>
-      <c r="AL20" s="74"/>
-      <c r="AM20" s="74"/>
-      <c r="AN20" s="74"/>
-      <c r="AO20" s="74"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="75"/>
     </row>
     <row r="21" customHeight="1" spans="3:41">
       <c r="C21" s="72">
@@ -4297,47 +4335,45 @@
       <c r="F21" s="73">
         <v>0</v>
       </c>
-      <c r="G21" s="73">
-        <v>0</v>
-      </c>
-      <c r="H21" s="72">
-        <v>1</v>
-      </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
+      <c r="G21" s="72">
+        <v>1</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
       <c r="L21" s="42">
         <v>4</v>
       </c>
-      <c r="Q21" s="97">
+      <c r="Q21" s="98">
         <v>5</v>
       </c>
-      <c r="R21" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="97">
+      <c r="R21" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="98">
         <v>5</v>
       </c>
-      <c r="T21" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="99">
+      <c r="T21" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="100">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="Y21" s="97">
+      <c r="Y21" s="98">
         <v>5</v>
       </c>
-      <c r="Z21" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA21" s="97">
+      <c r="Z21" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA21" s="98">
         <v>6</v>
       </c>
-      <c r="AB21" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC21" s="99">
+      <c r="AB21" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21" s="100">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -4356,10 +4392,10 @@
       <c r="AK21" s="72">
         <v>1</v>
       </c>
-      <c r="AL21" s="74"/>
-      <c r="AM21" s="74"/>
-      <c r="AN21" s="74"/>
-      <c r="AO21" s="74"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="75"/>
     </row>
     <row r="22" customHeight="1" spans="3:41">
       <c r="C22" s="72">
@@ -4377,46 +4413,44 @@
       <c r="G22" s="73">
         <v>0</v>
       </c>
-      <c r="H22" s="73">
-        <v>0</v>
-      </c>
-      <c r="I22" s="72">
-        <v>1</v>
-      </c>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
+      <c r="H22" s="72">
+        <v>1</v>
+      </c>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="42">
         <v>5</v>
       </c>
-      <c r="Q22" s="97">
+      <c r="Q22" s="98">
         <v>6</v>
       </c>
-      <c r="R22" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="97">
+      <c r="R22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="98">
         <v>4</v>
       </c>
-      <c r="T22" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="99">
+      <c r="T22" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="100">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Y22" s="97">
+      <c r="Y22" s="98">
         <v>6</v>
       </c>
-      <c r="Z22" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA22" s="97">
+      <c r="Z22" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA22" s="98">
         <v>5</v>
       </c>
-      <c r="AB22" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC22" s="99">
+      <c r="AB22" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC22" s="100">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -4438,9 +4472,9 @@
       <c r="AL22" s="72">
         <v>1</v>
       </c>
-      <c r="AM22" s="74"/>
-      <c r="AN22" s="74"/>
-      <c r="AO22" s="74"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="75"/>
     </row>
     <row r="23" customHeight="1" spans="3:41">
       <c r="C23" s="72">
@@ -4461,45 +4495,43 @@
       <c r="H23" s="73">
         <v>0</v>
       </c>
-      <c r="I23" s="73">
-        <v>0</v>
-      </c>
-      <c r="J23" s="72">
-        <v>1</v>
-      </c>
-      <c r="K23" s="74"/>
+      <c r="I23" s="72">
+        <v>1</v>
+      </c>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="42">
         <v>6</v>
       </c>
-      <c r="Q23" s="97">
+      <c r="Q23" s="98">
         <v>7</v>
       </c>
-      <c r="R23" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="97">
+      <c r="R23" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="98">
         <v>3</v>
       </c>
-      <c r="T23" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="99">
+      <c r="T23" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="100">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Y23" s="97">
+      <c r="Y23" s="98">
         <v>7</v>
       </c>
-      <c r="Z23" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA23" s="97">
+      <c r="Z23" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA23" s="98">
         <v>4</v>
       </c>
-      <c r="AB23" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC23" s="99">
+      <c r="AB23" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC23" s="100">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -4524,8 +4556,8 @@
       <c r="AM23" s="72">
         <v>1</v>
       </c>
-      <c r="AN23" s="74"/>
-      <c r="AO23" s="74"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
     </row>
     <row r="24" customHeight="1" spans="3:41">
       <c r="C24" s="72">
@@ -4549,44 +4581,42 @@
       <c r="I24" s="73">
         <v>0</v>
       </c>
-      <c r="J24" s="73">
-        <v>0</v>
-      </c>
-      <c r="K24" s="72">
-        <v>1</v>
-      </c>
+      <c r="J24" s="72">
+        <v>1</v>
+      </c>
+      <c r="K24" s="75"/>
       <c r="L24" s="42">
         <v>7</v>
       </c>
-      <c r="Q24" s="97">
+      <c r="Q24" s="98">
         <v>8</v>
       </c>
-      <c r="R24" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="97">
+      <c r="R24" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="98">
         <v>2</v>
       </c>
-      <c r="T24" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" s="99">
+      <c r="T24" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="100">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Y24" s="97">
+      <c r="Y24" s="98">
         <v>8</v>
       </c>
-      <c r="Z24" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA24" s="97">
+      <c r="Z24" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA24" s="98">
         <v>3</v>
       </c>
-      <c r="AB24" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC24" s="99">
+      <c r="AB24" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC24" s="100">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -4614,7 +4644,7 @@
       <c r="AN24" s="72">
         <v>1</v>
       </c>
-      <c r="AO24" s="74"/>
+      <c r="AO24" s="75"/>
     </row>
     <row r="25" customHeight="1" spans="3:41">
       <c r="C25" s="72">
@@ -4641,41 +4671,41 @@
       <c r="J25" s="73">
         <v>0</v>
       </c>
-      <c r="K25" s="73">
-        <v>0</v>
+      <c r="K25" s="72">
+        <v>1</v>
       </c>
       <c r="L25" s="42">
         <v>8</v>
       </c>
-      <c r="Q25" s="97">
+      <c r="Q25" s="98">
         <v>9</v>
       </c>
-      <c r="R25" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="97">
-        <v>1</v>
-      </c>
-      <c r="T25" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="99">
+      <c r="R25" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="98">
+        <v>1</v>
+      </c>
+      <c r="T25" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="100">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Y25" s="97">
+      <c r="Y25" s="98">
         <v>9</v>
       </c>
-      <c r="Z25" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA25" s="97">
+      <c r="Z25" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="98">
         <v>2</v>
       </c>
-      <c r="AB25" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC25" s="99">
+      <c r="AB25" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC25" s="100">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -4708,82 +4738,94 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:42">
-      <c r="B26" s="70" t="s">
-        <v>16</v>
+      <c r="B26" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="42">
         <v>1</v>
       </c>
-      <c r="L26" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="100">
+      <c r="L26" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="101">
         <f>SUM(U17:U25)</f>
         <v>165</v>
       </c>
-      <c r="Y26" s="97">
+      <c r="Y26" s="98">
         <v>10</v>
       </c>
-      <c r="Z26" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA26" s="97">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC26" s="99">
+      <c r="Z26" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA26" s="98">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC26" s="100">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AF26" s="70" t="s">
-        <v>16</v>
+      <c r="AF26" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="AG26" s="42">
         <v>1</v>
       </c>
-      <c r="AP26" s="71" t="s">
-        <v>12</v>
+      <c r="AP26" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:42">
-      <c r="B27" s="71"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="72">
         <v>1</v>
       </c>
       <c r="D27" s="72">
         <v>1</v>
       </c>
-      <c r="E27" s="72">
-        <v>1</v>
-      </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
+      <c r="E27" s="73">
+        <v>0</v>
+      </c>
+      <c r="F27" s="73">
+        <v>0</v>
+      </c>
+      <c r="G27" s="73">
+        <v>0</v>
+      </c>
+      <c r="H27" s="73">
+        <v>0</v>
+      </c>
+      <c r="I27" s="73">
+        <v>0</v>
+      </c>
+      <c r="J27" s="73">
+        <v>0</v>
+      </c>
+      <c r="K27" s="73">
+        <v>0</v>
+      </c>
       <c r="L27" s="42">
         <v>0</v>
       </c>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC27" s="100">
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" s="101">
         <f>SUM(AC17:AC26)</f>
         <v>220</v>
       </c>
-      <c r="AF27" s="71"/>
+      <c r="AF27" s="74"/>
       <c r="AG27" s="72">
         <v>1</v>
       </c>
@@ -4793,12 +4835,12 @@
       <c r="AI27" s="72">
         <v>1</v>
       </c>
-      <c r="AJ27" s="74"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="74"/>
-      <c r="AM27" s="74"/>
-      <c r="AN27" s="74"/>
-      <c r="AO27" s="74"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="75"/>
       <c r="AP27" s="42">
         <v>1</v>
       </c>
@@ -4810,37 +4852,35 @@
       <c r="D28" s="72">
         <v>1</v>
       </c>
-      <c r="E28" s="73">
-        <v>0</v>
-      </c>
-      <c r="F28" s="72">
-        <v>1</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
+      <c r="E28" s="72">
+        <v>1</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="42">
         <v>1</v>
       </c>
-      <c r="W28" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="X28" s="101">
+      <c r="W28" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" s="102">
         <f>U26+AC27</f>
         <v>385</v>
       </c>
-      <c r="AG28" s="102"/>
-      <c r="AH28" s="102"/>
-      <c r="AI28" s="102"/>
-      <c r="AJ28" s="102"/>
-      <c r="AK28" s="102"/>
-      <c r="AL28" s="102"/>
-      <c r="AM28" s="102"/>
-      <c r="AN28" s="102"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="102"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="103"/>
+      <c r="AM28" s="103"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="103"/>
+      <c r="AP28" s="103"/>
     </row>
     <row r="29" customHeight="1" spans="3:41">
       <c r="C29" s="72">
@@ -4852,16 +4892,14 @@
       <c r="E29" s="73">
         <v>0</v>
       </c>
-      <c r="F29" s="73">
-        <v>0</v>
-      </c>
-      <c r="G29" s="72">
-        <v>1</v>
-      </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
+      <c r="F29" s="72">
+        <v>1</v>
+      </c>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
       <c r="L29" s="42">
         <v>2</v>
       </c>
@@ -4877,11 +4915,11 @@
       <c r="AJ29" s="72">
         <v>1</v>
       </c>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="74"/>
-      <c r="AO29" s="74"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
     </row>
     <row r="30" customHeight="1" spans="3:41">
       <c r="C30" s="72">
@@ -4896,15 +4934,13 @@
       <c r="F30" s="73">
         <v>0</v>
       </c>
-      <c r="G30" s="73">
-        <v>0</v>
-      </c>
-      <c r="H30" s="72">
-        <v>1</v>
-      </c>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
+      <c r="G30" s="72">
+        <v>1</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
       <c r="L30" s="42">
         <v>3</v>
       </c>
@@ -4923,10 +4959,10 @@
       <c r="AK30" s="72">
         <v>1</v>
       </c>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="74"/>
-      <c r="AN30" s="74"/>
-      <c r="AO30" s="74"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="75"/>
     </row>
     <row r="31" customHeight="1" spans="3:41">
       <c r="C31" s="72">
@@ -4944,14 +4980,12 @@
       <c r="G31" s="73">
         <v>0</v>
       </c>
-      <c r="H31" s="73">
-        <v>0</v>
-      </c>
-      <c r="I31" s="72">
-        <v>1</v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
+      <c r="H31" s="72">
+        <v>1</v>
+      </c>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
       <c r="L31" s="42">
         <v>4</v>
       </c>
@@ -4973,9 +5007,9 @@
       <c r="AL31" s="72">
         <v>1</v>
       </c>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="74"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="75"/>
     </row>
     <row r="32" customHeight="1" spans="3:41">
       <c r="C32" s="72">
@@ -4996,13 +5030,11 @@
       <c r="H32" s="73">
         <v>0</v>
       </c>
-      <c r="I32" s="73">
-        <v>0</v>
-      </c>
-      <c r="J32" s="72">
-        <v>1</v>
-      </c>
-      <c r="K32" s="74"/>
+      <c r="I32" s="72">
+        <v>1</v>
+      </c>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
       <c r="L32" s="42">
         <v>5</v>
       </c>
@@ -5027,8 +5059,8 @@
       <c r="AM32" s="72">
         <v>1</v>
       </c>
-      <c r="AN32" s="74"/>
-      <c r="AO32" s="74"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="75"/>
     </row>
     <row r="33" customHeight="1" spans="3:41">
       <c r="C33" s="72">
@@ -5052,12 +5084,10 @@
       <c r="I33" s="73">
         <v>0</v>
       </c>
-      <c r="J33" s="73">
-        <v>0</v>
-      </c>
-      <c r="K33" s="72">
-        <v>1</v>
-      </c>
+      <c r="J33" s="72">
+        <v>1</v>
+      </c>
+      <c r="K33" s="75"/>
       <c r="L33" s="42">
         <v>6</v>
       </c>
@@ -5085,7 +5115,7 @@
       <c r="AN33" s="72">
         <v>1</v>
       </c>
-      <c r="AO33" s="74"/>
+      <c r="AO33" s="75"/>
     </row>
     <row r="34" customHeight="1" spans="3:41">
       <c r="C34" s="72">
@@ -5112,8 +5142,8 @@
       <c r="J34" s="73">
         <v>0</v>
       </c>
-      <c r="K34" s="73">
-        <v>0</v>
+      <c r="K34" s="72">
+        <v>1</v>
       </c>
       <c r="L34" s="42">
         <v>7</v>
@@ -5161,48 +5191,60 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:42">
-      <c r="B36" s="70" t="s">
-        <v>16</v>
+      <c r="B36" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="D36" s="42">
         <v>1</v>
       </c>
-      <c r="L36" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF36" s="70" t="s">
-        <v>16</v>
+      <c r="L36" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF36" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="AJ36" s="42">
         <v>1</v>
       </c>
-      <c r="AP36" s="71" t="s">
-        <v>12</v>
+      <c r="AP36" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:42">
-      <c r="B37" s="71"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="73">
         <v>0</v>
       </c>
       <c r="D37" s="72">
         <v>1</v>
       </c>
-      <c r="E37" s="72">
-        <v>1</v>
-      </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
+      <c r="E37" s="73">
+        <v>0</v>
+      </c>
+      <c r="F37" s="73">
+        <v>0</v>
+      </c>
+      <c r="G37" s="73">
+        <v>0</v>
+      </c>
+      <c r="H37" s="73">
+        <v>0</v>
+      </c>
+      <c r="I37" s="73">
+        <v>0</v>
+      </c>
+      <c r="J37" s="73">
+        <v>0</v>
+      </c>
+      <c r="K37" s="73">
+        <v>0</v>
+      </c>
       <c r="L37" s="42">
         <v>0</v>
       </c>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
       <c r="AI37" s="72">
         <v>1</v>
       </c>
@@ -5212,39 +5254,37 @@
       <c r="AK37" s="72">
         <v>1</v>
       </c>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="74"/>
-      <c r="AN37" s="74"/>
-      <c r="AO37" s="74"/>
+      <c r="AL37" s="75"/>
+      <c r="AM37" s="75"/>
+      <c r="AN37" s="75"/>
+      <c r="AO37" s="75"/>
       <c r="AP37" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:12">
-      <c r="B38" s="71"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="73">
         <v>0</v>
       </c>
       <c r="D38" s="72">
         <v>1</v>
       </c>
-      <c r="E38" s="73">
-        <v>0</v>
-      </c>
-      <c r="F38" s="72">
-        <v>1</v>
-      </c>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
+      <c r="E38" s="72">
+        <v>1</v>
+      </c>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
       <c r="L38" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:41">
-      <c r="B39" s="71"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="73">
         <v>0</v>
       </c>
@@ -5254,20 +5294,18 @@
       <c r="E39" s="73">
         <v>0</v>
       </c>
-      <c r="F39" s="73">
-        <v>0</v>
-      </c>
-      <c r="G39" s="72">
-        <v>1</v>
-      </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
+      <c r="F39" s="72">
+        <v>1</v>
+      </c>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
       <c r="L39" s="42">
         <v>2</v>
       </c>
-      <c r="AG39" s="74"/>
+      <c r="AG39" s="75"/>
       <c r="AH39" s="72">
         <v>1</v>
       </c>
@@ -5283,9 +5321,9 @@
       <c r="AL39" s="72">
         <v>1</v>
       </c>
-      <c r="AM39" s="74"/>
-      <c r="AN39" s="74"/>
-      <c r="AO39" s="74"/>
+      <c r="AM39" s="75"/>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="75"/>
     </row>
     <row r="40" customHeight="1" spans="3:41">
       <c r="C40" s="73">
@@ -5300,19 +5338,17 @@
       <c r="F40" s="73">
         <v>0</v>
       </c>
-      <c r="G40" s="73">
-        <v>0</v>
-      </c>
-      <c r="H40" s="72">
-        <v>1</v>
-      </c>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
+      <c r="G40" s="72">
+        <v>1</v>
+      </c>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
       <c r="L40" s="42">
         <v>3</v>
       </c>
-      <c r="AG40" s="74"/>
+      <c r="AG40" s="75"/>
       <c r="AH40" s="72">
         <v>1</v>
       </c>
@@ -5331,8 +5367,8 @@
       <c r="AM40" s="72">
         <v>1</v>
       </c>
-      <c r="AN40" s="74"/>
-      <c r="AO40" s="74"/>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="75"/>
     </row>
     <row r="41" customHeight="1" spans="3:41">
       <c r="C41" s="73">
@@ -5350,18 +5386,16 @@
       <c r="G41" s="73">
         <v>0</v>
       </c>
-      <c r="H41" s="73">
-        <v>0</v>
-      </c>
-      <c r="I41" s="72">
-        <v>1</v>
-      </c>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
+      <c r="H41" s="72">
+        <v>1</v>
+      </c>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
       <c r="L41" s="42">
         <v>4</v>
       </c>
-      <c r="AG41" s="74"/>
+      <c r="AG41" s="75"/>
       <c r="AH41" s="72">
         <v>1</v>
       </c>
@@ -5383,7 +5417,7 @@
       <c r="AN41" s="72">
         <v>1</v>
       </c>
-      <c r="AO41" s="74"/>
+      <c r="AO41" s="75"/>
     </row>
     <row r="42" customHeight="1" spans="3:41">
       <c r="C42" s="73">
@@ -5404,17 +5438,15 @@
       <c r="H42" s="73">
         <v>0</v>
       </c>
-      <c r="I42" s="73">
-        <v>0</v>
-      </c>
-      <c r="J42" s="72">
-        <v>1</v>
-      </c>
-      <c r="K42" s="74"/>
+      <c r="I42" s="72">
+        <v>1</v>
+      </c>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
       <c r="L42" s="42">
         <v>5</v>
       </c>
-      <c r="AG42" s="74"/>
+      <c r="AG42" s="75"/>
       <c r="AH42" s="72">
         <v>1</v>
       </c>
@@ -5462,12 +5494,10 @@
       <c r="I43" s="73">
         <v>0</v>
       </c>
-      <c r="J43" s="73">
-        <v>0</v>
-      </c>
-      <c r="K43" s="72">
-        <v>1</v>
-      </c>
+      <c r="J43" s="72">
+        <v>1</v>
+      </c>
+      <c r="K43" s="75"/>
       <c r="L43" s="42">
         <v>6</v>
       </c>
@@ -5497,8 +5527,8 @@
       <c r="J44" s="73">
         <v>0</v>
       </c>
-      <c r="K44" s="73">
-        <v>0</v>
+      <c r="K44" s="72">
+        <v>1</v>
       </c>
       <c r="L44" s="42">
         <v>7</v>
@@ -5521,9 +5551,9 @@
       <c r="AL44" s="72">
         <v>1</v>
       </c>
-      <c r="AM44" s="74"/>
-      <c r="AN44" s="74"/>
-      <c r="AO44" s="74"/>
+      <c r="AM44" s="75"/>
+      <c r="AN44" s="75"/>
+      <c r="AO44" s="75"/>
     </row>
     <row r="45" customHeight="1" spans="3:41">
       <c r="C45" s="73"/>
@@ -5559,18 +5589,18 @@
       <c r="AM45" s="72">
         <v>1</v>
       </c>
-      <c r="AN45" s="74"/>
-      <c r="AO45" s="74"/>
+      <c r="AN45" s="75"/>
+      <c r="AO45" s="75"/>
     </row>
     <row r="46" customHeight="1" spans="2:41">
-      <c r="B46" s="70" t="s">
-        <v>16</v>
+      <c r="B46" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="E46" s="42">
         <v>1</v>
       </c>
-      <c r="L46" s="71" t="s">
-        <v>12</v>
+      <c r="L46" s="74" t="s">
+        <v>13</v>
       </c>
       <c r="AG46" s="72">
         <v>1</v>
@@ -5596,25 +5626,35 @@
       <c r="AN46" s="72">
         <v>1</v>
       </c>
-      <c r="AO46" s="74"/>
+      <c r="AO46" s="75"/>
     </row>
     <row r="47" customHeight="1" spans="2:41">
-      <c r="B47" s="71"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="72">
         <v>1</v>
       </c>
       <c r="E47" s="72">
         <v>1</v>
       </c>
-      <c r="F47" s="72">
-        <v>1</v>
-      </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
+      <c r="F47" s="73">
+        <v>0</v>
+      </c>
+      <c r="G47" s="73">
+        <v>0</v>
+      </c>
+      <c r="H47" s="73">
+        <v>0</v>
+      </c>
+      <c r="I47" s="73">
+        <v>0</v>
+      </c>
+      <c r="J47" s="73">
+        <v>0</v>
+      </c>
+      <c r="K47" s="73">
+        <v>0</v>
+      </c>
       <c r="L47" s="42">
         <v>0</v>
       </c>
@@ -5647,29 +5687,27 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:12">
-      <c r="C48" s="74"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="72">
         <v>1</v>
       </c>
       <c r="E48" s="72">
         <v>1</v>
       </c>
-      <c r="F48" s="73">
-        <v>0</v>
-      </c>
-      <c r="G48" s="72">
-        <v>1</v>
-      </c>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
+      <c r="F48" s="72">
+        <v>1</v>
+      </c>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
       <c r="L48" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:12">
-      <c r="C49" s="74"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="72">
         <v>1</v>
       </c>
@@ -5679,21 +5717,19 @@
       <c r="F49" s="73">
         <v>0</v>
       </c>
-      <c r="G49" s="73">
-        <v>0</v>
-      </c>
-      <c r="H49" s="72">
-        <v>1</v>
-      </c>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
+      <c r="G49" s="72">
+        <v>1</v>
+      </c>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
       <c r="L49" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:12">
-      <c r="C50" s="74"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="72">
         <v>1</v>
       </c>
@@ -5706,20 +5742,18 @@
       <c r="G50" s="73">
         <v>0</v>
       </c>
-      <c r="H50" s="73">
-        <v>0</v>
-      </c>
-      <c r="I50" s="72">
-        <v>1</v>
-      </c>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
+      <c r="H50" s="72">
+        <v>1</v>
+      </c>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
       <c r="L50" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:12">
-      <c r="C51" s="74"/>
+      <c r="C51" s="75"/>
       <c r="D51" s="72">
         <v>1</v>
       </c>
@@ -5735,19 +5769,17 @@
       <c r="H51" s="73">
         <v>0</v>
       </c>
-      <c r="I51" s="73">
-        <v>0</v>
-      </c>
-      <c r="J51" s="72">
-        <v>1</v>
-      </c>
-      <c r="K51" s="74"/>
+      <c r="I51" s="72">
+        <v>1</v>
+      </c>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
       <c r="L51" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:12">
-      <c r="C52" s="74"/>
+      <c r="C52" s="75"/>
       <c r="D52" s="72">
         <v>1</v>
       </c>
@@ -5766,18 +5798,16 @@
       <c r="I52" s="73">
         <v>0</v>
       </c>
-      <c r="J52" s="73">
-        <v>0</v>
-      </c>
-      <c r="K52" s="72">
-        <v>1</v>
-      </c>
+      <c r="J52" s="72">
+        <v>1</v>
+      </c>
+      <c r="K52" s="75"/>
       <c r="L52" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:12">
-      <c r="C53" s="74"/>
+      <c r="C53" s="75"/>
       <c r="D53" s="72">
         <v>1</v>
       </c>
@@ -5799,15 +5829,15 @@
       <c r="J53" s="73">
         <v>0</v>
       </c>
-      <c r="K53" s="73">
-        <v>0</v>
+      <c r="K53" s="72">
+        <v>1</v>
       </c>
       <c r="L53" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:12">
-      <c r="C54" s="74"/>
+      <c r="C54" s="75"/>
       <c r="D54" s="72"/>
       <c r="E54" s="72"/>
       <c r="F54" s="73"/>
@@ -5821,7 +5851,7 @@
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:12">
-      <c r="C55" s="74"/>
+      <c r="C55" s="75"/>
       <c r="D55" s="72"/>
       <c r="E55" s="72"/>
       <c r="F55" s="73"/>
@@ -5835,18 +5865,18 @@
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:12">
-      <c r="B56" s="70" t="s">
-        <v>16</v>
+      <c r="B56" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="E56" s="42">
         <v>1</v>
       </c>
-      <c r="L56" s="71" t="s">
-        <v>12</v>
+      <c r="L56" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:12">
-      <c r="B57" s="71"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="72">
         <v>1</v>
       </c>
@@ -5856,14 +5886,24 @@
       <c r="E57" s="72">
         <v>1</v>
       </c>
-      <c r="F57" s="72">
-        <v>1</v>
-      </c>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
+      <c r="F57" s="73">
+        <v>0</v>
+      </c>
+      <c r="G57" s="73">
+        <v>0</v>
+      </c>
+      <c r="H57" s="73">
+        <v>0</v>
+      </c>
+      <c r="I57" s="73">
+        <v>0</v>
+      </c>
+      <c r="J57" s="73">
+        <v>0</v>
+      </c>
+      <c r="K57" s="73">
+        <v>0</v>
+      </c>
       <c r="L57" s="42">
         <v>0</v>
       </c>
@@ -5878,16 +5918,14 @@
       <c r="E58" s="72">
         <v>1</v>
       </c>
-      <c r="F58" s="73">
-        <v>0</v>
-      </c>
-      <c r="G58" s="72">
-        <v>1</v>
-      </c>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
+      <c r="F58" s="72">
+        <v>1</v>
+      </c>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
       <c r="L58" s="42">
         <v>1</v>
       </c>
@@ -5905,15 +5943,13 @@
       <c r="F59" s="73">
         <v>0</v>
       </c>
-      <c r="G59" s="73">
-        <v>0</v>
-      </c>
-      <c r="H59" s="72">
-        <v>1</v>
-      </c>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
+      <c r="G59" s="72">
+        <v>1</v>
+      </c>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="75"/>
+      <c r="K59" s="75"/>
       <c r="L59" s="42">
         <v>2</v>
       </c>
@@ -5934,14 +5970,12 @@
       <c r="G60" s="73">
         <v>0</v>
       </c>
-      <c r="H60" s="73">
-        <v>0</v>
-      </c>
-      <c r="I60" s="72">
-        <v>1</v>
-      </c>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
+      <c r="H60" s="72">
+        <v>1</v>
+      </c>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
       <c r="L60" s="42">
         <v>3</v>
       </c>
@@ -5965,13 +5999,11 @@
       <c r="H61" s="73">
         <v>0</v>
       </c>
-      <c r="I61" s="73">
-        <v>0</v>
-      </c>
-      <c r="J61" s="72">
-        <v>1</v>
-      </c>
-      <c r="K61" s="74"/>
+      <c r="I61" s="72">
+        <v>1</v>
+      </c>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
       <c r="L61" s="42">
         <v>4</v>
       </c>
@@ -5998,12 +6030,10 @@
       <c r="I62" s="73">
         <v>0</v>
       </c>
-      <c r="J62" s="73">
-        <v>0</v>
-      </c>
-      <c r="K62" s="72">
-        <v>1</v>
-      </c>
+      <c r="J62" s="72">
+        <v>1</v>
+      </c>
+      <c r="K62" s="75"/>
       <c r="L62" s="42">
         <v>5</v>
       </c>
@@ -6033,8 +6063,8 @@
       <c r="J63" s="73">
         <v>0</v>
       </c>
-      <c r="K63" s="73">
-        <v>0</v>
+      <c r="K63" s="72">
+        <v>1</v>
       </c>
       <c r="L63" s="42">
         <v>6</v>
@@ -6069,18 +6099,18 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:12">
-      <c r="B66" s="70" t="s">
-        <v>16</v>
+      <c r="B66" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="E66" s="42">
         <v>1</v>
       </c>
-      <c r="L66" s="71" t="s">
-        <v>12</v>
+      <c r="L66" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:12">
-      <c r="B67" s="71"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="73">
         <v>0</v>
       </c>
@@ -6090,14 +6120,24 @@
       <c r="E67" s="72">
         <v>1</v>
       </c>
-      <c r="F67" s="72">
-        <v>1</v>
-      </c>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
+      <c r="F67" s="73">
+        <v>0</v>
+      </c>
+      <c r="G67" s="73">
+        <v>0</v>
+      </c>
+      <c r="H67" s="73">
+        <v>0</v>
+      </c>
+      <c r="I67" s="73">
+        <v>0</v>
+      </c>
+      <c r="J67" s="73">
+        <v>0</v>
+      </c>
+      <c r="K67" s="73">
+        <v>0</v>
+      </c>
       <c r="L67" s="42">
         <v>0</v>
       </c>
@@ -6112,16 +6152,14 @@
       <c r="E68" s="72">
         <v>1</v>
       </c>
-      <c r="F68" s="73">
-        <v>0</v>
-      </c>
-      <c r="G68" s="72">
-        <v>1</v>
-      </c>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
+      <c r="F68" s="72">
+        <v>1</v>
+      </c>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
       <c r="L68" s="42">
         <v>1</v>
       </c>
@@ -6139,15 +6177,13 @@
       <c r="F69" s="73">
         <v>0</v>
       </c>
-      <c r="G69" s="73">
-        <v>0</v>
-      </c>
-      <c r="H69" s="72">
-        <v>1</v>
-      </c>
-      <c r="I69" s="74"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
+      <c r="G69" s="72">
+        <v>1</v>
+      </c>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
       <c r="L69" s="42">
         <v>2</v>
       </c>
@@ -6168,14 +6204,12 @@
       <c r="G70" s="73">
         <v>0</v>
       </c>
-      <c r="H70" s="73">
-        <v>0</v>
-      </c>
-      <c r="I70" s="72">
-        <v>1</v>
-      </c>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
+      <c r="H70" s="72">
+        <v>1</v>
+      </c>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
       <c r="L70" s="42">
         <v>3</v>
       </c>
@@ -6199,13 +6233,11 @@
       <c r="H71" s="73">
         <v>0</v>
       </c>
-      <c r="I71" s="73">
-        <v>0</v>
-      </c>
-      <c r="J71" s="72">
-        <v>1</v>
-      </c>
-      <c r="K71" s="74"/>
+      <c r="I71" s="72">
+        <v>1</v>
+      </c>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
       <c r="L71" s="42">
         <v>4</v>
       </c>
@@ -6232,12 +6264,10 @@
       <c r="I72" s="73">
         <v>0</v>
       </c>
-      <c r="J72" s="73">
-        <v>0</v>
-      </c>
-      <c r="K72" s="72">
-        <v>1</v>
-      </c>
+      <c r="J72" s="72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="75"/>
       <c r="L72" s="42">
         <v>5</v>
       </c>
@@ -6267,8 +6297,8 @@
       <c r="J73" s="73">
         <v>0</v>
       </c>
-      <c r="K73" s="73">
-        <v>0</v>
+      <c r="K73" s="72">
+        <v>1</v>
       </c>
       <c r="L73" s="42">
         <v>6</v>
@@ -6303,62 +6333,68 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:12">
-      <c r="B76" s="70" t="s">
-        <v>16</v>
+      <c r="B76" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="F76" s="42">
         <v>1</v>
       </c>
-      <c r="L76" s="71" t="s">
-        <v>12</v>
+      <c r="L76" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:12">
-      <c r="B77" s="71"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
       <c r="E77" s="72">
         <v>1</v>
       </c>
       <c r="F77" s="72">
         <v>1</v>
       </c>
-      <c r="G77" s="72">
-        <v>1</v>
-      </c>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="74"/>
+      <c r="G77" s="73">
+        <v>0</v>
+      </c>
+      <c r="H77" s="73">
+        <v>0</v>
+      </c>
+      <c r="I77" s="73">
+        <v>0</v>
+      </c>
+      <c r="J77" s="73">
+        <v>0</v>
+      </c>
+      <c r="K77" s="73">
+        <v>0</v>
+      </c>
       <c r="L77" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:12">
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
       <c r="E78" s="72">
         <v>1</v>
       </c>
       <c r="F78" s="72">
         <v>1</v>
       </c>
-      <c r="G78" s="73">
-        <v>0</v>
-      </c>
-      <c r="H78" s="72">
-        <v>1</v>
-      </c>
-      <c r="I78" s="74"/>
-      <c r="J78" s="74"/>
-      <c r="K78" s="74"/>
+      <c r="G78" s="72">
+        <v>1</v>
+      </c>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
       <c r="L78" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:12">
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
       <c r="E79" s="72">
         <v>1</v>
       </c>
@@ -6368,21 +6404,19 @@
       <c r="G79" s="73">
         <v>0</v>
       </c>
-      <c r="H79" s="73">
-        <v>0</v>
-      </c>
-      <c r="I79" s="72">
-        <v>1</v>
-      </c>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
+      <c r="H79" s="72">
+        <v>1</v>
+      </c>
+      <c r="I79" s="75"/>
+      <c r="J79" s="75"/>
+      <c r="K79" s="75"/>
       <c r="L79" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:12">
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="75"/>
       <c r="E80" s="72">
         <v>1</v>
       </c>
@@ -6395,20 +6429,18 @@
       <c r="H80" s="73">
         <v>0</v>
       </c>
-      <c r="I80" s="73">
-        <v>0</v>
-      </c>
-      <c r="J80" s="72">
-        <v>1</v>
-      </c>
-      <c r="K80" s="74"/>
+      <c r="I80" s="72">
+        <v>1</v>
+      </c>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
       <c r="L80" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:12">
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="75"/>
       <c r="E81" s="72">
         <v>1</v>
       </c>
@@ -6424,19 +6456,17 @@
       <c r="I81" s="73">
         <v>0</v>
       </c>
-      <c r="J81" s="73">
-        <v>0</v>
-      </c>
-      <c r="K81" s="72">
-        <v>1</v>
-      </c>
+      <c r="J81" s="72">
+        <v>1</v>
+      </c>
+      <c r="K81" s="75"/>
       <c r="L81" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:12">
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="75"/>
       <c r="E82" s="72">
         <v>1</v>
       </c>
@@ -6455,16 +6485,16 @@
       <c r="J82" s="73">
         <v>0</v>
       </c>
-      <c r="K82" s="73">
-        <v>0</v>
+      <c r="K82" s="72">
+        <v>1</v>
       </c>
       <c r="L82" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:12">
-      <c r="C83" s="74"/>
-      <c r="D83" s="74"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
       <c r="E83" s="72"/>
       <c r="F83" s="72"/>
       <c r="G83" s="73"/>
@@ -6477,8 +6507,8 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:12">
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="75"/>
       <c r="E84" s="72"/>
       <c r="F84" s="72"/>
       <c r="G84" s="73"/>
@@ -6491,8 +6521,8 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:12">
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
       <c r="E85" s="72"/>
       <c r="F85" s="72"/>
       <c r="G85" s="73"/>
@@ -6505,22 +6535,22 @@
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:14">
-      <c r="B86" s="70" t="s">
-        <v>16</v>
+      <c r="B86" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="F86" s="42">
         <v>1</v>
       </c>
-      <c r="L86" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="N86" s="96" t="s">
-        <v>24</v>
+      <c r="L86" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="97" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:28">
-      <c r="B87" s="71"/>
-      <c r="C87" s="74"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="75"/>
       <c r="D87" s="72">
         <v>1</v>
       </c>
@@ -6530,46 +6560,54 @@
       <c r="F87" s="72">
         <v>1</v>
       </c>
-      <c r="G87" s="72">
-        <v>1</v>
-      </c>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
+      <c r="G87" s="73">
+        <v>0</v>
+      </c>
+      <c r="H87" s="73">
+        <v>0</v>
+      </c>
+      <c r="I87" s="73">
+        <v>0</v>
+      </c>
+      <c r="J87" s="73">
+        <v>0</v>
+      </c>
+      <c r="K87" s="73">
+        <v>0</v>
+      </c>
       <c r="L87" s="42">
         <v>0</v>
       </c>
-      <c r="P87" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q87" s="94"/>
-      <c r="R87" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="S87" s="94"/>
-      <c r="T87" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="U87" s="94"/>
-      <c r="V87" s="94" t="s">
+      <c r="P87" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="W87" s="94"/>
-      <c r="X87" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y87" s="94"/>
-      <c r="Z87" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA87" s="94"/>
-      <c r="AB87" s="94" t="s">
-        <v>25</v>
+      <c r="Q87" s="95"/>
+      <c r="R87" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="S87" s="95"/>
+      <c r="T87" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="U87" s="95"/>
+      <c r="V87" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="W87" s="95"/>
+      <c r="X87" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y87" s="95"/>
+      <c r="Z87" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA87" s="95"/>
+      <c r="AB87" s="95" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:14">
-      <c r="C88" s="74"/>
+      <c r="C88" s="75"/>
       <c r="D88" s="72">
         <v>1</v>
       </c>
@@ -6579,24 +6617,22 @@
       <c r="F88" s="72">
         <v>1</v>
       </c>
-      <c r="G88" s="73">
-        <v>0</v>
-      </c>
-      <c r="H88" s="72">
-        <v>1</v>
-      </c>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
+      <c r="G88" s="72">
+        <v>1</v>
+      </c>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
       <c r="L88" s="42">
         <v>1</v>
       </c>
-      <c r="N88" s="96" t="s">
-        <v>29</v>
+      <c r="N88" s="97" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:30">
-      <c r="C89" s="74"/>
+      <c r="C89" s="75"/>
       <c r="D89" s="72">
         <v>1</v>
       </c>
@@ -6609,34 +6645,32 @@
       <c r="G89" s="73">
         <v>0</v>
       </c>
-      <c r="H89" s="73">
-        <v>0</v>
-      </c>
-      <c r="I89" s="72">
-        <v>1</v>
-      </c>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
+      <c r="H89" s="72">
+        <v>1</v>
+      </c>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
       <c r="L89" s="42">
         <v>2</v>
       </c>
-      <c r="N89" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="P89" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="S89" s="94"/>
-      <c r="AB89" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC89" s="94"/>
-      <c r="AD89" s="94" t="s">
-        <v>25</v>
+      <c r="N89" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="P89" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="S89" s="95"/>
+      <c r="AB89" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC89" s="95"/>
+      <c r="AD89" s="95" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:12">
-      <c r="C90" s="74"/>
+      <c r="C90" s="75"/>
       <c r="D90" s="72">
         <v>1</v>
       </c>
@@ -6652,19 +6686,17 @@
       <c r="H90" s="73">
         <v>0</v>
       </c>
-      <c r="I90" s="73">
-        <v>0</v>
-      </c>
-      <c r="J90" s="72">
-        <v>1</v>
-      </c>
-      <c r="K90" s="74"/>
+      <c r="I90" s="72">
+        <v>1</v>
+      </c>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
       <c r="L90" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:15">
-      <c r="C91" s="74"/>
+      <c r="C91" s="75"/>
       <c r="D91" s="72">
         <v>1</v>
       </c>
@@ -6683,21 +6715,19 @@
       <c r="I91" s="73">
         <v>0</v>
       </c>
-      <c r="J91" s="73">
-        <v>0</v>
-      </c>
-      <c r="K91" s="72">
-        <v>1</v>
-      </c>
+      <c r="J91" s="72">
+        <v>1</v>
+      </c>
+      <c r="K91" s="75"/>
       <c r="L91" s="42">
         <v>4</v>
       </c>
-      <c r="O91" s="96" t="s">
-        <v>30</v>
+      <c r="O91" s="97" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:27">
-      <c r="C92" s="74"/>
+      <c r="C92" s="75"/>
       <c r="D92" s="72">
         <v>1</v>
       </c>
@@ -6719,31 +6749,33 @@
       <c r="J92" s="73">
         <v>0</v>
       </c>
-      <c r="K92" s="73">
-        <v>0</v>
+      <c r="K92" s="72">
+        <v>1</v>
       </c>
       <c r="L92" s="42">
         <v>5</v>
       </c>
-      <c r="N92" s="94"/>
-      <c r="O92" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="P92" s="94"/>
-      <c r="Q92" s="94"/>
-      <c r="R92" s="94"/>
-      <c r="S92" s="94"/>
-      <c r="T92" s="94"/>
-      <c r="U92" s="94"/>
-      <c r="V92" s="94"/>
-      <c r="W92" s="94"/>
-      <c r="X92" s="94"/>
-      <c r="Y92" s="94"/>
-      <c r="Z92" s="94"/>
-      <c r="AA92" s="94"/>
+      <c r="N92" s="95"/>
+      <c r="O92" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="P92" s="95"/>
+      <c r="Q92" s="95"/>
+      <c r="R92" s="95"/>
+      <c r="S92" s="95"/>
+      <c r="T92" s="95"/>
+      <c r="U92" s="95"/>
+      <c r="V92" s="95"/>
+      <c r="W92" s="95"/>
+      <c r="X92" s="95"/>
+      <c r="Y92" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z92" s="95"/>
+      <c r="AA92" s="95"/>
     </row>
     <row r="93" customHeight="1" spans="3:27">
-      <c r="C93" s="74"/>
+      <c r="C93" s="75"/>
       <c r="D93" s="72"/>
       <c r="E93" s="73"/>
       <c r="F93" s="72"/>
@@ -6755,25 +6787,25 @@
       <c r="L93" s="42">
         <v>6</v>
       </c>
-      <c r="N93" s="94"/>
-      <c r="O93" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="P93" s="94"/>
-      <c r="Q93" s="94"/>
-      <c r="R93" s="94"/>
-      <c r="S93" s="94"/>
-      <c r="T93" s="94"/>
-      <c r="U93" s="94"/>
-      <c r="V93" s="94"/>
-      <c r="W93" s="94"/>
-      <c r="X93" s="94"/>
-      <c r="Y93" s="94"/>
-      <c r="Z93" s="94"/>
-      <c r="AA93" s="94"/>
+      <c r="N93" s="95"/>
+      <c r="O93" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="P93" s="95"/>
+      <c r="Q93" s="95"/>
+      <c r="R93" s="95"/>
+      <c r="S93" s="95"/>
+      <c r="T93" s="95"/>
+      <c r="U93" s="95"/>
+      <c r="V93" s="95"/>
+      <c r="W93" s="95"/>
+      <c r="X93" s="95"/>
+      <c r="Y93" s="95"/>
+      <c r="Z93" s="95"/>
+      <c r="AA93" s="95"/>
     </row>
     <row r="94" customHeight="1" spans="3:27">
-      <c r="C94" s="74"/>
+      <c r="C94" s="75"/>
       <c r="D94" s="72"/>
       <c r="E94" s="73"/>
       <c r="F94" s="72"/>
@@ -6785,25 +6817,25 @@
       <c r="L94" s="42">
         <v>7</v>
       </c>
-      <c r="N94" s="94"/>
-      <c r="O94" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="P94" s="94"/>
-      <c r="Q94" s="94"/>
-      <c r="R94" s="94"/>
-      <c r="S94" s="94"/>
-      <c r="T94" s="94"/>
-      <c r="U94" s="94"/>
-      <c r="V94" s="94"/>
-      <c r="W94" s="94"/>
-      <c r="X94" s="94"/>
-      <c r="Y94" s="94"/>
-      <c r="Z94" s="94"/>
-      <c r="AA94" s="94"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="P94" s="95"/>
+      <c r="Q94" s="95"/>
+      <c r="R94" s="95"/>
+      <c r="S94" s="95"/>
+      <c r="T94" s="95"/>
+      <c r="U94" s="95"/>
+      <c r="V94" s="95"/>
+      <c r="W94" s="95"/>
+      <c r="X94" s="95"/>
+      <c r="Y94" s="95"/>
+      <c r="Z94" s="95"/>
+      <c r="AA94" s="95"/>
     </row>
     <row r="95" customHeight="1" spans="3:27">
-      <c r="C95" s="74"/>
+      <c r="C95" s="75"/>
       <c r="D95" s="72"/>
       <c r="E95" s="73"/>
       <c r="F95" s="72"/>
@@ -6815,34 +6847,34 @@
       <c r="L95" s="42">
         <v>8</v>
       </c>
-      <c r="N95" s="94"/>
-      <c r="O95" s="94"/>
-      <c r="P95" s="94"/>
-      <c r="Q95" s="94"/>
-      <c r="R95" s="94"/>
-      <c r="S95" s="94"/>
-      <c r="T95" s="94"/>
-      <c r="U95" s="94"/>
-      <c r="V95" s="94"/>
-      <c r="W95" s="94"/>
-      <c r="X95" s="94"/>
-      <c r="Y95" s="94"/>
-      <c r="Z95" s="94"/>
-      <c r="AA95" s="94"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="95"/>
+      <c r="Q95" s="95"/>
+      <c r="R95" s="95"/>
+      <c r="S95" s="95"/>
+      <c r="T95" s="95"/>
+      <c r="U95" s="95"/>
+      <c r="V95" s="95"/>
+      <c r="W95" s="95"/>
+      <c r="X95" s="95"/>
+      <c r="Y95" s="95"/>
+      <c r="Z95" s="95"/>
+      <c r="AA95" s="95"/>
     </row>
     <row r="96" customHeight="1" spans="2:12">
-      <c r="B96" s="70" t="s">
-        <v>16</v>
+      <c r="B96" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="F96" s="42">
         <v>1</v>
       </c>
-      <c r="L96" s="71" t="s">
-        <v>12</v>
+      <c r="L96" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="2:12">
-      <c r="B97" s="71"/>
+      <c r="B97" s="74"/>
       <c r="C97" s="72">
         <v>1</v>
       </c>
@@ -6855,13 +6887,21 @@
       <c r="F97" s="72">
         <v>1</v>
       </c>
-      <c r="G97" s="72">
-        <v>1</v>
-      </c>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
+      <c r="G97" s="73">
+        <v>0</v>
+      </c>
+      <c r="H97" s="73">
+        <v>0</v>
+      </c>
+      <c r="I97" s="73">
+        <v>0</v>
+      </c>
+      <c r="J97" s="73">
+        <v>0</v>
+      </c>
+      <c r="K97" s="73">
+        <v>0</v>
+      </c>
       <c r="L97" s="42">
         <v>0</v>
       </c>
@@ -6879,15 +6919,13 @@
       <c r="F98" s="72">
         <v>1</v>
       </c>
-      <c r="G98" s="73">
-        <v>0</v>
-      </c>
-      <c r="H98" s="72">
-        <v>1</v>
-      </c>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
+      <c r="G98" s="72">
+        <v>1</v>
+      </c>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+      <c r="J98" s="75"/>
+      <c r="K98" s="75"/>
       <c r="L98" s="42">
         <v>1</v>
       </c>
@@ -6908,14 +6946,12 @@
       <c r="G99" s="73">
         <v>0</v>
       </c>
-      <c r="H99" s="73">
-        <v>0</v>
-      </c>
-      <c r="I99" s="72">
-        <v>1</v>
-      </c>
-      <c r="J99" s="74"/>
-      <c r="K99" s="74"/>
+      <c r="H99" s="72">
+        <v>1</v>
+      </c>
+      <c r="I99" s="75"/>
+      <c r="J99" s="75"/>
+      <c r="K99" s="75"/>
       <c r="L99" s="42">
         <v>2</v>
       </c>
@@ -6939,13 +6975,11 @@
       <c r="H100" s="73">
         <v>0</v>
       </c>
-      <c r="I100" s="73">
-        <v>0</v>
-      </c>
-      <c r="J100" s="72">
-        <v>1</v>
-      </c>
-      <c r="K100" s="74"/>
+      <c r="I100" s="72">
+        <v>1</v>
+      </c>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
       <c r="L100" s="42">
         <v>3</v>
       </c>
@@ -6972,12 +7006,10 @@
       <c r="I101" s="73">
         <v>0</v>
       </c>
-      <c r="J101" s="73">
-        <v>0</v>
-      </c>
-      <c r="K101" s="72">
-        <v>1</v>
-      </c>
+      <c r="J101" s="72">
+        <v>1</v>
+      </c>
+      <c r="K101" s="75"/>
       <c r="L101" s="42">
         <v>4</v>
       </c>
@@ -7007,8 +7039,8 @@
       <c r="J102" s="73">
         <v>0</v>
       </c>
-      <c r="K102" s="73">
-        <v>0</v>
+      <c r="K102" s="72">
+        <v>1</v>
       </c>
       <c r="L102" s="42">
         <v>5</v>
@@ -7057,18 +7089,18 @@
       </c>
     </row>
     <row r="106" customHeight="1" spans="2:12">
-      <c r="B106" s="70" t="s">
-        <v>16</v>
+      <c r="B106" s="71" t="s">
+        <v>15</v>
       </c>
       <c r="F106" s="42">
         <v>1</v>
       </c>
-      <c r="L106" s="71" t="s">
-        <v>12</v>
+      <c r="L106" s="74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="2:12">
-      <c r="B107" s="71"/>
+      <c r="B107" s="74"/>
       <c r="C107" s="73">
         <v>0</v>
       </c>
@@ -7081,13 +7113,21 @@
       <c r="F107" s="72">
         <v>1</v>
       </c>
-      <c r="G107" s="72">
-        <v>1</v>
-      </c>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
+      <c r="G107" s="73">
+        <v>0</v>
+      </c>
+      <c r="H107" s="73">
+        <v>0</v>
+      </c>
+      <c r="I107" s="73">
+        <v>0</v>
+      </c>
+      <c r="J107" s="73">
+        <v>0</v>
+      </c>
+      <c r="K107" s="73">
+        <v>0</v>
+      </c>
       <c r="L107" s="42">
         <v>0</v>
       </c>
@@ -7105,15 +7145,13 @@
       <c r="F108" s="72">
         <v>1</v>
       </c>
-      <c r="G108" s="73">
-        <v>0</v>
-      </c>
-      <c r="H108" s="72">
-        <v>1</v>
-      </c>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
+      <c r="G108" s="72">
+        <v>1</v>
+      </c>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+      <c r="J108" s="75"/>
+      <c r="K108" s="75"/>
       <c r="L108" s="42">
         <v>1</v>
       </c>
@@ -7134,14 +7172,12 @@
       <c r="G109" s="73">
         <v>0</v>
       </c>
-      <c r="H109" s="73">
-        <v>0</v>
-      </c>
-      <c r="I109" s="72">
-        <v>1</v>
-      </c>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
+      <c r="H109" s="72">
+        <v>1</v>
+      </c>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
       <c r="L109" s="42">
         <v>2</v>
       </c>
@@ -7165,13 +7201,11 @@
       <c r="H110" s="73">
         <v>0</v>
       </c>
-      <c r="I110" s="73">
-        <v>0</v>
-      </c>
-      <c r="J110" s="72">
-        <v>1</v>
-      </c>
-      <c r="K110" s="74"/>
+      <c r="I110" s="72">
+        <v>1</v>
+      </c>
+      <c r="J110" s="75"/>
+      <c r="K110" s="75"/>
       <c r="L110" s="42">
         <v>3</v>
       </c>
@@ -7198,12 +7232,10 @@
       <c r="I111" s="73">
         <v>0</v>
       </c>
-      <c r="J111" s="73">
-        <v>0</v>
-      </c>
-      <c r="K111" s="72">
-        <v>1</v>
-      </c>
+      <c r="J111" s="72">
+        <v>1</v>
+      </c>
+      <c r="K111" s="75"/>
       <c r="L111" s="42">
         <v>4</v>
       </c>
@@ -7233,8 +7265,8 @@
       <c r="J112" s="73">
         <v>0</v>
       </c>
-      <c r="K112" s="73">
-        <v>0</v>
+      <c r="K112" s="72">
+        <v>1</v>
       </c>
       <c r="L112" s="42">
         <v>5</v>
@@ -7342,58 +7374,58 @@
         <v>10</v>
       </c>
       <c r="AI1" s="42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ1" s="42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AK1" s="42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL1" s="42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AM1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="42" t="s">
+      <c r="AV1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="42" t="s">
+      <c r="AW1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="42" t="s">
+      <c r="AX1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="42" t="s">
+      <c r="AY1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW1" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY1" s="42" t="s">
-        <v>38</v>
-      </c>
       <c r="AZ1" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="BA1" s="42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BB1" s="42" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BC1" s="42" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BF1" s="42"/>
       <c r="BG1" s="42"/>
@@ -10086,76 +10118,76 @@
     </row>
     <row r="12" customHeight="1" spans="3:75">
       <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI12" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ12" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM12" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN12" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="M12" t="s">
+      <c r="AO12" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AP12" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AH12" s="43" t="s">
+      <c r="AQ12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU12" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX12" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY12" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ12" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AI12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ12" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK12" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL12" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN12" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO12" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ12" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT12" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV12" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW12" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ12" s="44" t="s">
-        <v>39</v>
-      </c>
       <c r="BA12" s="44" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BB12" s="44" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BC12" s="44" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="BE12" s="46" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="BF12" s="42"/>
       <c r="BG12" s="42"/>
@@ -10166,7 +10198,7 @@
       <c r="BL12" s="42"/>
       <c r="BM12" s="42"/>
       <c r="BO12" s="46" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BP12" s="42"/>
       <c r="BQ12" s="42"/>
@@ -10206,7 +10238,7 @@
         <v>8</v>
       </c>
       <c r="AT13" s="43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AU13" s="44">
         <v>0</v>
@@ -10319,7 +10351,7 @@
       <c r="AQ15"/>
       <c r="AT15"/>
       <c r="AU15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AV15"/>
       <c r="AW15"/>
@@ -10433,7 +10465,7 @@
       <c r="AQ16"/>
       <c r="AT16"/>
       <c r="AU16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AV16"/>
       <c r="AW16"/>
@@ -10544,7 +10576,7 @@
       <c r="AQ17"/>
       <c r="AT17"/>
       <c r="AU17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AV17"/>
       <c r="AW17"/>
@@ -10657,7 +10689,7 @@
       <c r="AQ18"/>
       <c r="AT18"/>
       <c r="AU18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AV18"/>
       <c r="AW18"/>
@@ -10770,7 +10802,7 @@
       <c r="AQ19"/>
       <c r="AT19"/>
       <c r="AU19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AV19"/>
       <c r="AW19"/>
@@ -10993,7 +11025,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
       <c r="AS21" s="45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AT21"/>
       <c r="AU21" s="42"/>
@@ -11008,7 +11040,7 @@
       <c r="BE21"/>
       <c r="BF21"/>
       <c r="BG21" s="47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BQ21"/>
       <c r="BR21"/>
@@ -11140,7 +11172,7 @@
         <v>89</v>
       </c>
       <c r="BE22" s="48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BF22"/>
       <c r="BG22" s="49"/>
@@ -11323,7 +11355,7 @@
         <v>88</v>
       </c>
       <c r="BE23" s="48" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="BF23"/>
       <c r="BG23" s="51" t="s">
@@ -11500,7 +11532,7 @@
         <v>87</v>
       </c>
       <c r="BE24" s="48" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BF24"/>
       <c r="BG24" s="51" t="s">
@@ -11686,7 +11718,7 @@
         <v>86</v>
       </c>
       <c r="BE25" s="48" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BF25"/>
       <c r="BG25" s="51" t="s">
@@ -11872,7 +11904,7 @@
         <v>85</v>
       </c>
       <c r="BE26" s="48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BF26"/>
       <c r="BG26" s="51" t="s">
@@ -12058,7 +12090,7 @@
         <v>84</v>
       </c>
       <c r="BE27" s="48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="BF27"/>
       <c r="BG27" s="51" t="s">
@@ -12244,7 +12276,7 @@
         <v>83</v>
       </c>
       <c r="BE28" s="48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BF28"/>
       <c r="BG28" s="51" t="s">
@@ -12430,7 +12462,7 @@
         <v>82</v>
       </c>
       <c r="BE29" s="48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BF29"/>
       <c r="BG29" s="51" t="s">
@@ -12616,7 +12648,7 @@
         <v>81</v>
       </c>
       <c r="BE30" s="48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BF30"/>
       <c r="BG30" s="51" t="s">
@@ -12766,7 +12798,7 @@
     </row>
     <row r="32" customHeight="1" spans="46:55">
       <c r="AT32" s="43" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AU32" s="44">
         <v>0</v>
@@ -12798,7 +12830,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:60">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AU33" s="44"/>
       <c r="AV33" s="44"/>
@@ -12810,290 +12842,290 @@
       <c r="BB33" s="44"/>
       <c r="BC33" s="44"/>
       <c r="BE33" s="48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BH33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:60">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BE34" s="48" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BH34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:60">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="BH35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:60">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="BH36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:60">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BH37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:60">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BH38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:60">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BH40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:60">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BH41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:60">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BH42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:60">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BH43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:60">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BH44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:60">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="BH45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:60">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BH46" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:60">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BH47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:60">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="BH48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:60">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="BH49" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:60">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="BH50" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:60">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BH51" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:60">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BH52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:60">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BH53" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:1">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:1">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:1">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:1">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:1">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:1">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:1">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:1">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:1">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:1">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:1">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:1">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:1">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:1">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:1">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:1">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:1">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:1">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:1">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:1">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:1">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:1">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:1">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="119">
   <si>
     <t>Rook：</t>
   </si>
@@ -2012,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="B1:CG115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="AF22" sqref="AF22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="28" customHeight="1"/>
@@ -4109,6 +4109,9 @@
       <c r="AC16" s="96"/>
       <c r="AD16" s="101" t="s">
         <v>28</v>
+      </c>
+      <c r="AE16" s="98" t="s">
+        <v>20</v>
       </c>
       <c r="AG16" s="71" t="s">
         <v>15</v>

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\BitChess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="bitChess" sheetId="3" r:id="rId1"/>
     <sheet name="cc" sheetId="1" r:id="rId2"/>
     <sheet name="shudu" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -62,6 +67,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -72,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -397,14 +404,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,18 +417,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -435,11 +439,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -447,6 +453,7 @@
       <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -454,18 +461,21 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -473,6 +483,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -480,6 +491,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -487,12 +499,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,6 +515,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -508,153 +523,26 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="53">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,19 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
+        <fgColor theme="5" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399945066682943"/>
+        <fgColor theme="3" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,43 +599,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,198 +665,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1089,251 +791,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1551,7 +1014,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1663,61 +1126,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2004,26 +1424,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CG115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="28" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="30" width="2.66666666666667" style="42" customWidth="1"/>
-    <col min="31" max="31" width="3.88888888888889" style="42" customWidth="1"/>
-    <col min="32" max="16384" width="2.66666666666667" style="42" customWidth="1"/>
+    <col min="1" max="16384" width="3.75" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="14:24">
+    <row r="1" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="3:75">
+    <row r="2" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:85">
+    <row r="3" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="16">
         <v>0</v>
       </c>
@@ -2267,7 +1685,7 @@
       <c r="CF3" s="74"/>
       <c r="CG3" s="74"/>
     </row>
-    <row r="4" customHeight="1" spans="2:85">
+    <row r="4" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16">
         <v>1</v>
       </c>
@@ -2479,7 +1897,7 @@
       <c r="CF4" s="74"/>
       <c r="CG4" s="74"/>
     </row>
-    <row r="5" customHeight="1" spans="2:85">
+    <row r="5" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16">
         <v>2</v>
       </c>
@@ -2692,7 +2110,7 @@
       <c r="CF5" s="73"/>
       <c r="CG5" s="73"/>
     </row>
-    <row r="6" customHeight="1" spans="2:85">
+    <row r="6" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16">
         <v>3</v>
       </c>
@@ -2890,7 +2308,7 @@
       <c r="CF6" s="74"/>
       <c r="CG6" s="74"/>
     </row>
-    <row r="7" customHeight="1" spans="2:85">
+    <row r="7" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -3076,7 +2494,7 @@
       <c r="CF7" s="74"/>
       <c r="CG7" s="74"/>
     </row>
-    <row r="8" customHeight="1" spans="2:85">
+    <row r="8" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="22">
         <v>5</v>
       </c>
@@ -3250,7 +2668,7 @@
       <c r="CF8" s="74"/>
       <c r="CG8" s="74"/>
     </row>
-    <row r="9" customHeight="1" spans="2:85">
+    <row r="9" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="22">
         <v>6</v>
       </c>
@@ -3412,7 +2830,7 @@
       <c r="CF9" s="74"/>
       <c r="CG9" s="74"/>
     </row>
-    <row r="10" customHeight="1" spans="2:85">
+    <row r="10" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22">
         <v>7</v>
       </c>
@@ -3562,7 +2980,7 @@
       <c r="CF10" s="74"/>
       <c r="CG10" s="74"/>
     </row>
-    <row r="11" customHeight="1" spans="2:85">
+    <row r="11" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="22">
         <v>8</v>
       </c>
@@ -3700,7 +3118,7 @@
       <c r="CF11" s="74"/>
       <c r="CG11" s="74"/>
     </row>
-    <row r="12" customHeight="1" spans="2:85">
+    <row r="12" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="22">
         <v>9</v>
       </c>
@@ -3826,7 +3244,7 @@
       <c r="CF12" s="74"/>
       <c r="CG12" s="74"/>
     </row>
-    <row r="13" customHeight="1" spans="4:85">
+    <row r="13" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="70" t="s">
         <v>12</v>
       </c>
@@ -4029,7 +3447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:14">
+    <row r="14" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="47" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +3457,7 @@
       <c r="J14" s="70"/>
       <c r="N14" s="95"/>
     </row>
-    <row r="15" customHeight="1" spans="2:33">
+    <row r="15" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="71" t="s">
         <v>15</v>
       </c>
@@ -4066,20 +3484,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:43">
+    <row r="16" spans="2:85" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
       <c r="L16" s="75" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +3534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:45">
+    <row r="17" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="73">
         <v>1</v>
       </c>
@@ -4220,7 +3631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:32">
+    <row r="18" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="73">
         <v>1</v>
       </c>
@@ -4281,7 +3692,7 @@
       </c>
       <c r="AF18" s="106"/>
     </row>
-    <row r="19" customHeight="1" spans="3:42">
+    <row r="19" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="73">
         <v>1</v>
       </c>
@@ -4359,7 +3770,7 @@
       <c r="AO19" s="76"/>
       <c r="AP19" s="76"/>
     </row>
-    <row r="20" customHeight="1" spans="3:42">
+    <row r="20" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="73">
         <v>1</v>
       </c>
@@ -4441,7 +3852,7 @@
       <c r="AO20" s="76"/>
       <c r="AP20" s="76"/>
     </row>
-    <row r="21" customHeight="1" spans="3:42">
+    <row r="21" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="73">
         <v>1</v>
       </c>
@@ -4527,7 +3938,7 @@
       <c r="AO21" s="76"/>
       <c r="AP21" s="76"/>
     </row>
-    <row r="22" customHeight="1" spans="3:42">
+    <row r="22" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="73">
         <v>1</v>
       </c>
@@ -4616,7 +4027,7 @@
       <c r="AO22" s="76"/>
       <c r="AP22" s="76"/>
     </row>
-    <row r="23" customHeight="1" spans="3:42">
+    <row r="23" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="73">
         <v>1</v>
       </c>
@@ -4709,7 +4120,7 @@
       <c r="AO23" s="76"/>
       <c r="AP23" s="76"/>
     </row>
-    <row r="24" customHeight="1" spans="3:42">
+    <row r="24" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="73">
         <v>1</v>
       </c>
@@ -4806,7 +4217,7 @@
       </c>
       <c r="AP24" s="76"/>
     </row>
-    <row r="25" customHeight="1" spans="3:42">
+    <row r="25" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="73">
         <v>1</v>
       </c>
@@ -4907,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="2:43">
+    <row r="26" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="71" t="s">
         <v>15</v>
       </c>
@@ -4963,7 +4374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="2:43">
+    <row r="27" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="75"/>
       <c r="C27" s="73">
         <v>1</v>
@@ -5025,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:43">
+    <row r="28" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="73">
         <v>1</v>
       </c>
@@ -5062,7 +4473,7 @@
       <c r="AP28" s="107"/>
       <c r="AQ28" s="107"/>
     </row>
-    <row r="29" customHeight="1" spans="3:42">
+    <row r="29" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="73">
         <v>1</v>
       </c>
@@ -5101,7 +4512,7 @@
       <c r="AO29" s="76"/>
       <c r="AP29" s="76"/>
     </row>
-    <row r="30" customHeight="1" spans="3:42">
+    <row r="30" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="73">
         <v>1</v>
       </c>
@@ -5144,7 +4555,7 @@
       <c r="AO30" s="76"/>
       <c r="AP30" s="76"/>
     </row>
-    <row r="31" customHeight="1" spans="3:42">
+    <row r="31" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="73">
         <v>1</v>
       </c>
@@ -5191,7 +4602,7 @@
       <c r="AO31" s="76"/>
       <c r="AP31" s="76"/>
     </row>
-    <row r="32" customHeight="1" spans="3:42">
+    <row r="32" spans="2:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="73">
         <v>1</v>
       </c>
@@ -5242,7 +4653,7 @@
       <c r="AO32" s="76"/>
       <c r="AP32" s="76"/>
     </row>
-    <row r="33" customHeight="1" spans="3:42">
+    <row r="33" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="73">
         <v>1</v>
       </c>
@@ -5297,7 +4708,7 @@
       </c>
       <c r="AP33" s="76"/>
     </row>
-    <row r="34" customHeight="1" spans="3:42">
+    <row r="34" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="73">
         <v>1</v>
       </c>
@@ -5356,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:12">
+    <row r="35" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="73"/>
       <c r="D35" s="73"/>
       <c r="E35" s="74"/>
@@ -5370,7 +4781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="2:43">
+    <row r="36" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="71" t="s">
         <v>15</v>
       </c>
@@ -5390,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="2:43">
+    <row r="37" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="75"/>
       <c r="C37" s="74">
         <v>0</v>
@@ -5442,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:12">
+    <row r="38" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="75"/>
       <c r="C38" s="74">
         <v>0</v>
@@ -5463,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:42">
+    <row r="39" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="75"/>
       <c r="C39" s="74">
         <v>0</v>
@@ -5505,7 +4916,7 @@
       <c r="AO39" s="76"/>
       <c r="AP39" s="76"/>
     </row>
-    <row r="40" customHeight="1" spans="3:42">
+    <row r="40" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="74">
         <v>0</v>
       </c>
@@ -5550,7 +4961,7 @@
       <c r="AO40" s="76"/>
       <c r="AP40" s="76"/>
     </row>
-    <row r="41" customHeight="1" spans="3:42">
+    <row r="41" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="74">
         <v>0</v>
       </c>
@@ -5599,7 +5010,7 @@
       </c>
       <c r="AP41" s="76"/>
     </row>
-    <row r="42" customHeight="1" spans="3:42">
+    <row r="42" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="74">
         <v>0</v>
       </c>
@@ -5652,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="3:12">
+    <row r="43" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="74">
         <v>0</v>
       </c>
@@ -5682,7 +5093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:42">
+    <row r="44" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="74">
         <v>0</v>
       </c>
@@ -5735,7 +5146,7 @@
       <c r="AO44" s="76"/>
       <c r="AP44" s="76"/>
     </row>
-    <row r="45" customHeight="1" spans="3:42">
+    <row r="45" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="74"/>
       <c r="D45" s="73"/>
       <c r="E45" s="74"/>
@@ -5772,7 +5183,7 @@
       <c r="AO45" s="76"/>
       <c r="AP45" s="76"/>
     </row>
-    <row r="46" customHeight="1" spans="2:42">
+    <row r="46" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="71" t="s">
         <v>15</v>
       </c>
@@ -5808,7 +5219,7 @@
       </c>
       <c r="AP46" s="76"/>
     </row>
-    <row r="47" customHeight="1" spans="2:42">
+    <row r="47" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="75"/>
       <c r="C47" s="76"/>
       <c r="D47" s="73">
@@ -5866,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="3:12">
+    <row r="48" spans="2:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="76"/>
       <c r="D48" s="73">
         <v>1</v>
@@ -5886,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="3:12">
+    <row r="49" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="76"/>
       <c r="D49" s="73">
         <v>1</v>
@@ -5908,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="3:12">
+    <row r="50" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="76"/>
       <c r="D50" s="73">
         <v>1</v>
@@ -5932,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="3:12">
+    <row r="51" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="76"/>
       <c r="D51" s="73">
         <v>1</v>
@@ -5958,7 +5369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="3:12">
+    <row r="52" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="76"/>
       <c r="D52" s="73">
         <v>1</v>
@@ -5986,7 +5397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="3:12">
+    <row r="53" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="76"/>
       <c r="D53" s="73">
         <v>1</v>
@@ -6016,7 +5427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="3:12">
+    <row r="54" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="76"/>
       <c r="D54" s="73"/>
       <c r="E54" s="73"/>
@@ -6030,7 +5441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="3:12">
+    <row r="55" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="76"/>
       <c r="D55" s="73"/>
       <c r="E55" s="73"/>
@@ -6044,7 +5455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="2:12">
+    <row r="56" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="71" t="s">
         <v>15</v>
       </c>
@@ -6055,7 +5466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="2:12">
+    <row r="57" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="75"/>
       <c r="C57" s="73">
         <v>1</v>
@@ -6088,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="3:12">
+    <row r="58" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="73">
         <v>1</v>
       </c>
@@ -6110,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="3:12">
+    <row r="59" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="73">
         <v>1</v>
       </c>
@@ -6134,7 +5545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="3:12">
+    <row r="60" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="73">
         <v>1</v>
       </c>
@@ -6160,7 +5571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="3:12">
+    <row r="61" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="73">
         <v>1</v>
       </c>
@@ -6188,7 +5599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="3:12">
+    <row r="62" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="73">
         <v>1</v>
       </c>
@@ -6218,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="3:12">
+    <row r="63" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="73">
         <v>1</v>
       </c>
@@ -6250,7 +5661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="3:12">
+    <row r="64" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="73"/>
       <c r="D64" s="74"/>
       <c r="E64" s="73"/>
@@ -6264,7 +5675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="3:12">
+    <row r="65" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="73"/>
       <c r="D65" s="74"/>
       <c r="E65" s="73"/>
@@ -6278,7 +5689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="2:12">
+    <row r="66" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="71" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +5700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="2:12">
+    <row r="67" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="75"/>
       <c r="C67" s="74">
         <v>0</v>
@@ -6322,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="3:12">
+    <row r="68" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="74">
         <v>0</v>
       </c>
@@ -6344,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="3:12">
+    <row r="69" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="74">
         <v>0</v>
       </c>
@@ -6368,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="3:12">
+    <row r="70" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="74">
         <v>0</v>
       </c>
@@ -6394,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="3:12">
+    <row r="71" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="74">
         <v>0</v>
       </c>
@@ -6422,7 +5833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="3:12">
+    <row r="72" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="74">
         <v>0</v>
       </c>
@@ -6452,7 +5863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="3:12">
+    <row r="73" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="74">
         <v>0</v>
       </c>
@@ -6484,7 +5895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="3:12">
+    <row r="74" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="74"/>
       <c r="D74" s="74"/>
       <c r="E74" s="73"/>
@@ -6498,7 +5909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="3:12">
+    <row r="75" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="74"/>
       <c r="D75" s="74"/>
       <c r="E75" s="73"/>
@@ -6512,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="2:12">
+    <row r="76" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="71" t="s">
         <v>15</v>
       </c>
@@ -6523,7 +5934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="2:12">
+    <row r="77" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="75"/>
       <c r="C77" s="76"/>
       <c r="D77" s="76"/>
@@ -6552,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="3:12">
+    <row r="78" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="76"/>
       <c r="D78" s="76"/>
       <c r="E78" s="73">
@@ -6572,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="3:12">
+    <row r="79" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="76"/>
       <c r="D79" s="76"/>
       <c r="E79" s="73">
@@ -6594,7 +6005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="3:12">
+    <row r="80" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="76"/>
       <c r="D80" s="76"/>
       <c r="E80" s="73">
@@ -6618,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="3:12">
+    <row r="81" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="76"/>
       <c r="D81" s="76"/>
       <c r="E81" s="73">
@@ -6644,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="3:12">
+    <row r="82" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="76"/>
       <c r="D82" s="76"/>
       <c r="E82" s="73">
@@ -6672,7 +6083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="3:12">
+    <row r="83" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="76"/>
       <c r="D83" s="76"/>
       <c r="E83" s="73"/>
@@ -6686,7 +6097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="3:12">
+    <row r="84" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="76"/>
       <c r="D84" s="76"/>
       <c r="E84" s="73"/>
@@ -6700,7 +6111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="3:12">
+    <row r="85" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="76"/>
       <c r="D85" s="76"/>
       <c r="E85" s="73"/>
@@ -6714,7 +6125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="2:14">
+    <row r="86" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="71" t="s">
         <v>15</v>
       </c>
@@ -6728,7 +6139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="2:28">
+    <row r="87" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="75"/>
       <c r="C87" s="76"/>
       <c r="D87" s="73">
@@ -6786,7 +6197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="3:14">
+    <row r="88" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="76"/>
       <c r="D88" s="73">
         <v>1</v>
@@ -6811,7 +6222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="3:30">
+    <row r="89" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="76"/>
       <c r="D89" s="73">
         <v>1</v>
@@ -6849,7 +6260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="3:12">
+    <row r="90" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="76"/>
       <c r="D90" s="73">
         <v>1</v>
@@ -6875,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="3:15">
+    <row r="91" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="76"/>
       <c r="D91" s="73">
         <v>1</v>
@@ -6906,7 +6317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="3:27">
+    <row r="92" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="76"/>
       <c r="D92" s="73">
         <v>1</v>
@@ -6954,7 +6365,7 @@
       <c r="Z92" s="96"/>
       <c r="AA92" s="96"/>
     </row>
-    <row r="93" customHeight="1" spans="3:27">
+    <row r="93" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="76"/>
       <c r="D93" s="73"/>
       <c r="E93" s="74"/>
@@ -6984,7 +6395,7 @@
       <c r="Z93" s="96"/>
       <c r="AA93" s="96"/>
     </row>
-    <row r="94" customHeight="1" spans="3:27">
+    <row r="94" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="76"/>
       <c r="D94" s="73"/>
       <c r="E94" s="74"/>
@@ -7014,7 +6425,7 @@
       <c r="Z94" s="96"/>
       <c r="AA94" s="96"/>
     </row>
-    <row r="95" customHeight="1" spans="3:27">
+    <row r="95" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="76"/>
       <c r="D95" s="73"/>
       <c r="E95" s="74"/>
@@ -7042,7 +6453,7 @@
       <c r="Z95" s="96"/>
       <c r="AA95" s="96"/>
     </row>
-    <row r="96" customHeight="1" spans="2:12">
+    <row r="96" spans="2:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="71" t="s">
         <v>15</v>
       </c>
@@ -7053,7 +6464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="2:12">
+    <row r="97" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="75"/>
       <c r="C97" s="73">
         <v>1</v>
@@ -7086,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="3:12">
+    <row r="98" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="73">
         <v>1</v>
       </c>
@@ -7110,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="3:12">
+    <row r="99" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="73">
         <v>1</v>
       </c>
@@ -7136,7 +6547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="3:12">
+    <row r="100" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="73">
         <v>1</v>
       </c>
@@ -7164,7 +6575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="3:12">
+    <row r="101" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="73">
         <v>1</v>
       </c>
@@ -7194,7 +6605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="3:12">
+    <row r="102" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="73">
         <v>1</v>
       </c>
@@ -7226,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="3:12">
+    <row r="103" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="73"/>
       <c r="D103" s="74"/>
       <c r="E103" s="74"/>
@@ -7240,7 +6651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="3:12">
+    <row r="104" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="73"/>
       <c r="D104" s="74"/>
       <c r="E104" s="74"/>
@@ -7254,7 +6665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="3:12">
+    <row r="105" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="73"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -7268,7 +6679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="2:12">
+    <row r="106" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="71" t="s">
         <v>15</v>
       </c>
@@ -7279,7 +6690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="2:12">
+    <row r="107" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="75"/>
       <c r="C107" s="74">
         <v>0</v>
@@ -7312,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="3:12">
+    <row r="108" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="74">
         <v>0</v>
       </c>
@@ -7336,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="3:12">
+    <row r="109" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="74">
         <v>0</v>
       </c>
@@ -7362,7 +6773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="3:12">
+    <row r="110" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="74">
         <v>0</v>
       </c>
@@ -7390,7 +6801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="3:12">
+    <row r="111" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="74">
         <v>0</v>
       </c>
@@ -7420,7 +6831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="3:12">
+    <row r="112" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="74">
         <v>0</v>
       </c>
@@ -7452,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="3:12">
+    <row r="113" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
       <c r="E113" s="74"/>
@@ -7466,7 +6877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="3:12">
+    <row r="114" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
       <c r="E114" s="74"/>
@@ -7480,7 +6891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="3:12">
+    <row r="115" spans="3:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="74"/>
       <c r="D115" s="74"/>
       <c r="E115" s="74"/>
@@ -7495,37 +6906,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="col@"/>
-    <hyperlink ref="Z2" r:id="rId1" display="col@"/>
-    <hyperlink ref="AM2" r:id="rId1" display="col@"/>
-    <hyperlink ref="AY2" r:id="rId1" display="col@"/>
-    <hyperlink ref="BK2" r:id="rId1" display="col@"/>
-    <hyperlink ref="BW2" r:id="rId1" display="col@"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="Z2" r:id="rId2"/>
+    <hyperlink ref="AM2" r:id="rId3"/>
+    <hyperlink ref="AY2" r:id="rId4"/>
+    <hyperlink ref="BK2" r:id="rId5"/>
+    <hyperlink ref="BW2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB77"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="29.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="29.1" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="31" width="3.625" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="3.625" style="15"/>
     <col min="61" max="61" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="3:76">
+    <row r="1" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
@@ -7626,7 +7036,7 @@
       <c r="BW1" s="42"/>
       <c r="BX1" s="42"/>
     </row>
-    <row r="2" customHeight="1" spans="2:75">
+    <row r="2" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16">
         <v>0</v>
       </c>
@@ -7885,7 +7295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:75">
+    <row r="3" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -8153,7 +7563,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:75">
+    <row r="4" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -8421,7 +7831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:75">
+    <row r="5" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -8689,7 +8099,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:75">
+    <row r="6" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -8957,7 +8367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="2:75">
+    <row r="7" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="22">
         <v>5</v>
       </c>
@@ -9225,7 +8635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:75">
+    <row r="8" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="22">
         <v>6</v>
       </c>
@@ -9493,7 +8903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:75">
+    <row r="9" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="22">
         <v>7</v>
       </c>
@@ -9761,7 +9171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:75">
+    <row r="10" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22">
         <v>8</v>
       </c>
@@ -10029,7 +9439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:75">
+    <row r="11" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="22">
         <v>9</v>
       </c>
@@ -10296,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:75">
+    <row r="12" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -10389,7 +9799,7 @@
       <c r="BV12" s="42"/>
       <c r="BW12" s="42"/>
     </row>
-    <row r="13" customHeight="1" spans="35:76">
+    <row r="13" spans="2:76" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI13" s="42">
         <v>0</v>
       </c>
@@ -10464,7 +9874,7 @@
       <c r="BW13" s="42"/>
       <c r="BX13" s="42"/>
     </row>
-    <row r="15" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="15" spans="2:76" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="24">
         <v>1</v>
       </c>
@@ -10562,7 +9972,7 @@
       <c r="BW15"/>
       <c r="BX15"/>
     </row>
-    <row r="16" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="16" spans="2:76" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="24">
         <f>C15+16</f>
         <v>17</v>
@@ -10673,7 +10083,7 @@
       <c r="BW16"/>
       <c r="BX16"/>
     </row>
-    <row r="17" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="17" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="24">
         <f t="shared" ref="C17:C30" si="72">C16+16</f>
         <v>33</v>
@@ -10786,7 +10196,7 @@
       <c r="BW17"/>
       <c r="BX17"/>
     </row>
-    <row r="18" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="18" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="24">
         <f t="shared" si="72"/>
         <v>49</v>
@@ -10899,7 +10309,7 @@
       <c r="BW18"/>
       <c r="BX18"/>
     </row>
-    <row r="19" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="19" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="24">
         <f t="shared" si="72"/>
         <v>65</v>
@@ -11012,7 +10422,7 @@
       <c r="BW19"/>
       <c r="BX19"/>
     </row>
-    <row r="20" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="20" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="24">
         <f t="shared" si="72"/>
         <v>81</v>
@@ -11123,7 +10533,7 @@
       <c r="BW20"/>
       <c r="BX20"/>
     </row>
-    <row r="21" s="14" customFormat="1" customHeight="1" spans="3:76">
+    <row r="21" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="24">
         <f t="shared" si="72"/>
         <v>97</v>
@@ -11231,7 +10641,7 @@
       <c r="BW21"/>
       <c r="BX21"/>
     </row>
-    <row r="22" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="22" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="24">
         <f t="shared" si="72"/>
         <v>113</v>
@@ -11414,7 +10824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="23" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="24">
         <f t="shared" si="72"/>
         <v>129</v>
@@ -11591,7 +11001,7 @@
       <c r="CA23" s="57"/>
       <c r="CB23" s="57"/>
     </row>
-    <row r="24" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="24" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="24">
         <f t="shared" si="72"/>
         <v>145</v>
@@ -11768,7 +11178,7 @@
       <c r="CA24" s="57"/>
       <c r="CB24" s="57"/>
     </row>
-    <row r="25" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="25" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="24">
         <f t="shared" si="72"/>
         <v>161</v>
@@ -11954,7 +11364,7 @@
       <c r="CA25" s="57"/>
       <c r="CB25" s="57"/>
     </row>
-    <row r="26" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="26" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="24">
         <f t="shared" si="72"/>
         <v>177</v>
@@ -12140,7 +11550,7 @@
       <c r="CA26" s="58"/>
       <c r="CB26" s="58"/>
     </row>
-    <row r="27" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="27" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="24">
         <f t="shared" si="72"/>
         <v>193</v>
@@ -12326,7 +11736,7 @@
       <c r="CA27" s="58"/>
       <c r="CB27" s="58"/>
     </row>
-    <row r="28" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="28" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="24">
         <f t="shared" si="72"/>
         <v>209</v>
@@ -12512,7 +11922,7 @@
       <c r="CA28" s="58"/>
       <c r="CB28" s="58"/>
     </row>
-    <row r="29" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="29" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="24">
         <f t="shared" si="72"/>
         <v>225</v>
@@ -12698,7 +12108,7 @@
       <c r="CA29" s="59"/>
       <c r="CB29" s="59"/>
     </row>
-    <row r="30" s="14" customFormat="1" customHeight="1" spans="3:80">
+    <row r="30" spans="3:80" s="14" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="24">
         <f t="shared" si="72"/>
         <v>241</v>
@@ -12884,7 +12294,7 @@
       <c r="CA30" s="59"/>
       <c r="CB30" s="59"/>
     </row>
-    <row r="31" customHeight="1" spans="46:80">
+    <row r="31" spans="3:80" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AT31" s="44">
         <v>0</v>
       </c>
@@ -12976,7 +12386,7 @@
       <c r="CA31" s="59"/>
       <c r="CB31" s="59"/>
     </row>
-    <row r="32" customHeight="1" spans="46:55">
+    <row r="32" spans="3:80" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AT32" s="43" t="s">
         <v>54</v>
       </c>
@@ -13008,7 +12418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:60">
+    <row r="33" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -13028,7 +12438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:60">
+    <row r="34" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -13039,7 +12449,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:60">
+    <row r="35" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -13047,7 +12457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:60">
+    <row r="36" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -13055,7 +12465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:60">
+    <row r="37" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -13063,7 +12473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:60">
+    <row r="38" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -13071,12 +12481,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:1">
+    <row r="39" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:60">
+    <row r="40" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -13084,7 +12494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:60">
+    <row r="41" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -13092,7 +12502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:60">
+    <row r="42" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -13100,7 +12510,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:60">
+    <row r="43" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -13108,7 +12518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:60">
+    <row r="44" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -13116,7 +12526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:60">
+    <row r="45" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -13124,7 +12534,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:60">
+    <row r="46" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -13132,7 +12542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:60">
+    <row r="47" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -13140,7 +12550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:60">
+    <row r="48" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -13148,7 +12558,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:60">
+    <row r="49" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -13156,7 +12566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:60">
+    <row r="50" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -13164,7 +12574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:60">
+    <row r="51" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -13172,7 +12582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:60">
+    <row r="52" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -13180,7 +12590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:60">
+    <row r="53" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -13188,150 +12598,149 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:1">
+    <row r="54" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:1">
+    <row r="55" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:1">
+    <row r="56" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:1">
+    <row r="57" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:1">
+    <row r="58" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:1">
+    <row r="59" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:1">
+    <row r="60" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:1">
+    <row r="61" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:1">
+    <row r="62" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:1">
+    <row r="63" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:1">
+    <row r="64" spans="1:60" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:1">
+    <row r="65" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:1">
+    <row r="66" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:1">
+    <row r="67" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:1">
+    <row r="68" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:1">
+    <row r="69" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:1">
+    <row r="70" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:1">
+    <row r="71" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:1">
+    <row r="72" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:1">
+    <row r="73" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:1">
+    <row r="74" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:1">
+    <row r="75" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:1">
+    <row r="76" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:1">
+    <row r="77" spans="1:1" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="10" width="4" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -13363,7 +12772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -13403,7 +12812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -13443,7 +12852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -13483,7 +12892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -13523,7 +12932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -13563,7 +12972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -13603,7 +13012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -13643,7 +13052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -13683,7 +13092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -13724,7 +13133,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>